--- a/output/Total_time_range_data/辽宁省/阜新市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/阜新市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1374 +436,1505 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>42</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>省交通运输厅刘俊副厅长一行来我市调研地方铁路工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-07-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/925569.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '7月9日，辽宁省交通运输厅副厅长刘俊带领厅铁建处一行6人来阜调研地方铁路工作，到基层单位开展党纪教育宣讲活动。市政府副秘书长田阔，市交通运输局、市发改委、市路矿重组专班、中国铁路沈阳局集团有限公司锦州工程建设指挥部、巴新铁路有限责任公司等领导参加。', '省厅调研组一行先后到国铁新邱站、巴新铁路白玉都站进行实地调研，考察了国铁新邱站和巴新铁路白玉都站的运行情况，参观了车辆调度室和运输场站，听取了铁路部门介绍现阶段客、货运输情况及国铁与地方铁路互联互通情况。', '随后，刘俊副厅长在巴新铁路公务轨道车上与企业和部门进行了面对面交流座谈。巴新铁路有限责任公司董事长潘基平就巴新铁路当前现状、运营情况、运量和运输收入情况、长期规划等方面进行系统的汇报；市路矿重组专班副主任石玉明对巴新铁路路矿重组进展情况做了详细说明；市交通运输局局长邹亮就当前交通运输工作进展和铁路规划进行全面汇报。', '最后，刘俊副厅长对本次调研工作作了重要讲话，一是提高政治站位，交通系统要全力发挥排头兵的作用，争做东北振兴当头马，为全面振兴三年行动攻坚战中贡献交通力量；二是全面加强“公转铁”运输结构调整，充分发挥铁路运输的重要作用，提高地方铁路综合运输服务能力；三是进一步加强地方铁路运营、投资方式、安全保障等方面管理措施，建立科学合理的长效机制。', '调研结束后，刘俊副厅长与巴新铁路白玉都站的基层党员干部开展了党纪教育宣讲活动。通过增强党纪学习教育，认真领会《条例》内容要义，抓好交通运输工作落实，推进党纪教育取得实效等方面进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>郝鹏在抚顺调研时强调坚持生态优先绿色发展强化项目支撑产业富民持续推动县域经济高质量发展</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/922216.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['郝鹏在抚顺调研时强调 坚持生态优先绿色发展 强化项目支撑产业富民 持续推动县域经济高质量发展', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在抚顺调研时强调 坚持生态优先绿色发展 强化项目支撑产业富民 持续推动县域经济高质量发展', '6月17日至18日，省委书记、省人大常委会主任郝鹏来到抚顺市新宾满族自治县、清原满族自治县、抚顺县调研。他强调，要深入贯彻落实习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，牢牢把握高质量发展这个新时代的硬道理，坚持生态优先绿色发展，强化项目支撑产业富民，深化改革创新，持续推动县域经济高质量发展，坚决打好打赢全面振兴新突破三年行动攻坚之战。', '位于新宾满族自治县永陵镇的赫图阿拉城是一座拥有400余年历史的古城。郝鹏详细了解古城维护、文物保护和文旅整合发展情况。他强调，要进一步加强文物保护利用和文化遗产保护传承，做好历史文化的挖掘阐释宣传，充分利用好特色文化资源，促进文化和旅游深度融合，为辽宁打造高品质文体旅融合发展示范地贡献更大力量。', '郝鹏十分关心县域特色产业发展。在抚顺东工冶金材料技术有限公司，他走进车间，详细了解产品生产工艺流程，充分肯定企业着力引育人才，推动科技成果转化落地的做法。他指出，创新的根本在人才，要大力营造人才发展的良好环境，促进创新链产业链资金链人才链深度融合，推动县域经济高质量发展。在辽宁三友农业生物科技集团有限公司，郝鹏详细了解企业生产经营情况，实地考察菌棒生产和菌种培育过程，鼓励企业加大优势品种选育，拓展精深加工，带动群众稳定增收。', '6月的辽宁省实验林场，一派绿意盎然。郝鹏登上护林防火瞭望塔远眺林区，来到全国森林经营示范林区了解林地管护情况。他说，前人栽树，后人乘凉，我们要努力把宝贵的林木资源保护好，为子孙后代造福。郝鹏深入浑河源头调研水源地生态环境保护工作。他强调，要深入学习贯彻习近平生态文明思想，深入践行绿水青山就是金山银山理念，全面落实好河长制、林长制，为高质量发展厚植生态底色。', '位于清原满族自治县英额门镇的椽子沟村，全村95%的农户种植中药材，国内市场80%以上的龙胆草产自这里。郝鹏来到村委会听取工作汇报，走进致富带头人曹岩家中，与党员干部和村民围坐在一起深入交流。“椽子沟以前是‘光棍沟’，现在成了‘光明沟’。”“除了种植中药材，我们还得发展深加工。”听大家唠着创业史和“致富经”，郝鹏欣慰地说，乡村要发展，致富带头人至关重要。他充分肯定抚顺市通过“三向培养”夯实乡村振兴人才基础的经验做法，勉励村干部和致富带头人进一步发挥示范引领作用，立足资源禀赋，做好特色文章，带动更多农民增收致富。他要求抚顺市，要高质量开展党纪学习教育，深入整治群众身边不正之风和腐败问题，以整治成效提升人民群众的获得感、幸福感、安全感。', '清原抽水蓄能电站是东北地区规模最大的抽水蓄能电站，一期工程正在陆续投入使用。在听取项目介绍、实地考察上水库建设情况后，郝鹏勉励企业要坚持安全至上、质量第一、生态优先，为清洁能源开发利用、保障电网安全稳定运行、促进经济社会可持续发展作出新贡献。沈白高铁是东北地区“十四五”期间重大高铁建设项目，在沈白高铁抚顺站区域施工现场，郝鹏详细了解项目建设进度和配套设施建设情况。他希望施工单位抓住当前施工黄金期，在保障质量和安全的前提下，加快项目建设进度，高质高效建成这一重大基础设施工程，早日造福沿线百姓。', '调研期间，郝鹏还来到社河大伙房水库入库口，实地考察社河河道及入库口等重点部位防汛情况，听取抚顺市防汛工作准备情况汇报。他指出，今年我省防汛工作形势较为严峻，要深入贯彻落实习近平总书记对防汛抗旱工作作出的最新重要指示精神，进一步提高政治站位，强化风险意识、底线思维，压紧压实各地区各有关部门工作责任，加强监测预警，备足装备物资，完善工作预案，全力以赴做好防汛抗旱各项工作，保障人民群众生命财产安全，为打好打赢攻坚之年攻坚之战营造安全稳定和谐的社会环境。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>全国助残日走进习近平总书记心中这份春天的事业</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/918513.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '残疾人的生活冷暖，总书记时时记挂在心；残疾人的困难需求，总书记常常念念不忘；残疾人的梦想追求，总书记总是殷切寄望。', '习近平总书记给予广大残疾人的关心关注如和煦春风，给人以奋进力量。8500万残疾人与春光同行，充满希望。', '2014年，春节前夕，习近平总书记来到内蒙古呼和浩特市儿童福利院，看望住在这里的孩子们。', '这里收养的孩子大多有先天残疾。为了让孩子们感受到家庭的温暖，福利院每4名孩子和一对夫妻组成一个“模拟家庭”。', '那一天，习近平总书记在福利院为孩子们送上新年礼物，还同“爱心妈妈”景凤英亲切交流。', '2017年11月3日，内蒙古呼和浩特市儿童福利院里，“爱心妈妈”景凤英抱着两个孩子。新华社记者 王婧嫱 摄', '“希望福利院的孩子和祖国其他孩子一样健康生活、幸福成长。这是我们最大的愿望”，习近平总书记动情地说。', '习近平总书记指出：“残疾人是一个特殊困难的群体，需要格外关心、格外关注。”一幕幕温情瞬间，凝结着习近平总书记对残疾人数十年不变的深情。', '“多为他们‘雪中送炭’。”任福州市委书记时，习近平同志听说一位病退的残疾职工一家生活艰难，特意协调相关单位调剂了一间商业店面租给他，并为他办理了相关补助；', '“残疾人家庭不要落下”。在浙江工作时，春节前看望困难群众，尽管行程紧张、需要精简，仍然专门对工作人员这样叮嘱；', '“必须要考虑周全一些。”主政上海期间领导筹办特奥会，从座椅牢不牢、通道方不方便到严守食品安全底线，无不上心，只因这些运动员“都是不一样的孩子”……', '念兹在兹，枝叶关情。一次次风尘仆仆的探访，只为看看残疾人家庭过得好不好；一次次及时伸出帮扶的手，只因对残疾人“要特别关心”……', '习近平总书记身体力行、亲身示范，引领各级党委政府将残疾人的冷暖疾苦牢记在心，及时解决残疾人的“急难愁盼”。', '在内蒙古呼和浩特市特殊教育学校的教室里，美容美发课教师王雅妮时而指着黑板上的知识点“讲解”，时而拿起美容工具熟练示范，同学们目不转睛、聚精会神。与其他课堂不同，师生们的交流都是通过手语进行的。', '这是一个无声的课堂，但身处其中的人们总能“听”到一种特殊的声音：那是春苗在拔节生长。', '成为一名教师是王雅妮从小的梦想，点亮这一梦想的是大约10年前那次令她难忘终生的温暖会面。', '2014年1月28日，正在内蒙古考察的习近平总书记来到小雅妮所在的福利院。总书记笑容可掬地向她学手语，还鼓励她好好学习、学业有成。此后，王雅妮更加认真地看书、钻研，终于成为一名特教老师，点亮更多残疾孩子“无声”的梦想。', '习近平总书记把残疾人作为社会大家庭的平等成员、坚持和发展中国特色社会主义的一支重要力量，认为“残疾人完全有志向、有能力为人类社会作出重大贡献”。', '在唐山市截瘫疗养院考察时，为截瘫伤员们的演唱带头鼓掌，表示“健全人可以活出精彩的人生，残疾人也可以活出精彩的人生”；', '2016年7月28日，习近平总书记在唐山市截瘫疗养院看望慰问截瘫伤员。新华社记者 兰红光 摄', '在北京人民大会堂，双手扶住全国自强模范、无臂画家胡林的肩膀，鼓励道：“小胡林，继续努力”；', '习近平总书记守护追梦人的梦想，指明奋进者的方向，引领广大残疾人在残缺中追求生命的圆满、在逆境中唱响人生的凯歌。', '在全国政协农业界、社会福利和社会保障界委员联组会上，来自四川的益西达瓦委员提出一个建议：建立社区康复服务工作投入机制，给予严重精神障碍患者接受社区康复服务政策支持。', '当时，我国精神障碍康复服务特别是社区服务存在不足。实践中，不乏精神障碍患者经过急性期治疗后，因缺少社区康复服务导致反复入院的“旋转门”现象。', '听了益西达瓦委员的建议，习近平总书记现场作出重要指示，要求“关心关爱精神障碍人员”。', '2022年3月6日，习近平总书记看望参加政协会议的农业界、社会福利和社会保障界委员。新华社记者 鞠鹏 摄', '此后，《精神障碍社区康复服务资源共享与转介管理办法》等国家政策陆续出台，为精神障碍人员撑起一片天空。', '决胜全面小康的战场上，习近平总书记“残疾人一个也不能少”的号召充满力量，710多万农村贫困残疾人实现整体脱贫，彻底改变了千百年来残疾人与贫困相伴相随的命运。', '“春天的事业”蓬蓬勃勃，广大残疾人正与健全人一道同沐暖阳、共享春光。（记者 高蕾）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>交流经验总结成果维护国家粮食安全</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/915764.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '4月24日，由国家发改委、农业农村部共同主办的2024年全国玉米单产提升工程推进现场会在我市彰武县举行。来自全国10余个省、自治区从事玉米单产提升的各界人士齐聚一堂，回顾总结2023年全国玉米单产提升工程实施情况，研究提出今年玉米单产提升工程的思路和措施，交流探讨下一阶段工作。', '国家发改委、农业农村部有关负责同志出席活动并讲话。市委书记胡涛致辞。省政府副秘书长周国春出席相关活动。省农业农村厅党组书记、厅长朱文波讲话。', '胡涛在致辞中代表阜新市委、市政府向现场会的成功举行表示热烈祝贺，向参加现场会的各位来宾表示诚挚欢迎，向国家发改委、农业农村部及社会方方面面给予阜新振兴发展的大力支持表示衷心感谢。他说，这次现场会是深入贯彻习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神的生动实践，是维护国家粮食安全的有效举措，是促进农民增收、推进共同富裕的有力支撑。希望大家以此次现场会为契机，聚焦瓶颈问题、关键技术，加强沟通联系，深化交流合作，积极推广单产提升这一好经验、好做法，共同探索推动粮食稳产增收的新技术、新模式，为维护国家粮食安全、推动农民增收致富作出积极贡献。希望各界来宾以此次现场会为纽带，走进阜新、了解阜新、关注阜新，为阜新全面振兴新突破特别是发展现代化大农业多提宝贵意见。阜新市委、市政府将为大家考察学习提供全方位的服务，持续深化与各兄弟城市的交流合作，让大家感受到“厚道阜新”的真挚热情，携手为推进中国式现代化贡献力量。', '朱文波表示，辽宁农业资源丰富，玉米单产提升潜力巨大。降水最少、光热资源最好的辽西北地区是单产提升潜力最大的地区。在这一地区实施单产提升工程，能够真正做到扬长避短，变劣势为优势，将科技潜力转化为现实生产力，带动全省大面积单产提升和均衡增产。希望辽宁的初步实践能为全国各地带来有益借鉴。此次国家发改委、农业农村部及有关专家现场指导，必将对辽宁省玉米等粮食作物大面积单产提升产生巨大推动作用。下一步，辽宁将把此次现场会精神、各地经验做法及专家培训指导内容第一时间带到生产一线，应用到项目实践中，确保玉米单产提升工程有力推进、取得实效。', '现场会上，中国农业科学院作物科学研究所研究员李少昆、中国农业科学院农田灌溉研究所研究员范永申分别就玉米密植精准调控高产技术和常见作物灌溉方式以及产品选型作专题报告。有关省、自治区分别作交流发言。', '现场会前，与会人员集体参观了五峰镇智能化控制示范区和攻关试验展示区、五峰镇同心创展联合社、兴隆堡镇便捷式水肥一体化推广区、欧李山沙化综合治理示范区。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>李树坦率队赴山东考察学习水利设施建设</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/823520.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '1月23日至25日，区委书记李树坦率队赴山东省临沂市、济南市考察学习水利设施建设。区委副书记王锐、副区长付大成，区工信局、区农业农村局、河西镇、新北街道及京津冀招商专班相关同志陪同考察。', '1月24日，李树坦实地考察了临沂市规划展览馆、沂河橡胶坝工程、沂河河湾水源工程，每到一处，李树坦都详细了解项目建设规划、管理、投资模式等情况，临沂市水利局党组书记、局长唐音波及山东水发集团相关领导陪同，副局长张庆功对项目进行了详细的介绍，双方还就我区清河治理项目建设等问题进行了深入的沟通和交流。', '李树坦强调，临沂市濒临山东第一大河沂河，拥有丰厚的河道治理工程经验，我区也要不断挖掘清河生态优势，大力发展河道两岸文旅产业，致力将清河生态治理打造成阜新城市名片，真诚希望山东水发集团来我区深入考察，拉动清河门区文旅经济发展。同时，区委、区政府将优化环境、做好服务，让企业在清河门区拓展规模，实现互利双赢。', '1月25日，李树坦与山东水发集团、沈阳北四达集团现场座谈，座谈交流时沈阳北四达集团对清河生态治理工程初步设计进行讲解。李树坦强调，水利项目是基础设施的重要组成部分，在防汛抗旱、水资源合理利用、生态环境保护、推动经济发展等方面具有不可替代的作用，希望山东水发和沈阳北四达集团认真谋划设计好清河生态治理项目，造福清河门人民群众。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>习近平必须坚持人民至上</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/897698.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '我们的人民是伟大的人民。在漫长的历史进程中，中国人民依靠自己的勤劳、勇敢、智慧，开创了各民族和睦共处的美好家园，培育了历久弥新的优秀文化。我们的人民热爱生活，期盼有更好的教育、更稳定的工作、更满意的收入、更可靠的社会保障、更高水平的医疗卫生服务、更舒适的居住条件、更优美的环境，期盼孩子们能成长得更好、工作得更好、生活得更好。人民对美好生活的向往，就是我们的奋斗目标。人世间的一切幸福都需要靠辛勤的劳动来创造。我们的责任，就是要团结带领全党全国各族人民，继续解放思想，坚持改革开放，不断解放和发展社会生产力，努力解决群众的生产生活困难，坚定不移走共同富裕的道路。', '2024年3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村考察时，同乡亲们亲切交流。新华社记者 鞠鹏/摄', '我们讲宗旨，讲了很多话，但说到底还是为人民服务这句话。我们党就是为人民服务的。中央的考虑，是要为人民做事。各级干部也不能眼睛总是向上。任何事情都要向上看看，向下看看。要经常问问自己，我们是不是在忙着与党的根本宗旨毫不相关的事情？有没有一心一意在为老百姓做事情？是不是在围绕党和国家中心任务而工作？古时候讲，食君之禄，忠君之事。现在就是要服务人民。', '我们党来自人民、植根人民、服务人民，党的根基在人民、血脉在人民、力量在人民。失去了人民拥护和支持，党的事业和工作就无从谈起。党要继续经受住执政考验、改革开放考验、市场经济考验、外部环境考验，就必须始终密切联系群众。在任何时候任何情况下，与人民同呼吸共命运的立场不能变，全心全意为人民服务的宗旨不能忘，群众是真正英雄的历史唯物主义观点不能丢，始终坚持立党为公、执政为民。', '群众路线本质上体现的是马克思主义关于人民群众是历史的创造者这一基本原理。只有坚持这一基本原理，我们才能把握历史前进的基本规律。只有按历史规律办事，我们才能无往而不胜。历史反复证明，人民群众是历史发展和社会进步的主体力量。正如毛泽东同志所说：“中国的命运一经操在人民自己的手里，中国就将如太阳升起在东方那样，以自己的辉煌的光焰普照大地”。', '2024年2月1日至2日，中共中央总书记、国家主席、中央军委主席习近平来到天津，看望慰问基层干部群众。这是1日上午，习近平在西青区辛口镇第六埠村考察时，同村民杜洪刚一家人亲切拉家常。新华社记者 鞠鹏/摄', '中国共产党的一切执政活动，中华人民共和国的一切治理活动，都要尊重人民主体地位，尊重人民首创精神，拜人民为师，把政治智慧的增长、治国理政本领的增强深深扎根于人民的创造性实践之中，使各方面提出的真知灼见都能运用于治国理政。', '发展为了人民，这是马克思主义政治经济学的根本立场。马克思、恩格斯指出：“无产阶级的运动是绝大多数人的、为绝大多数人谋利益的独立的运动”，在未来社会“生产将以所有的人富裕为目的”。邓小平同志指出，社会主义的本质，是解放生产力，发展生产力，消灭剥削，消除两极分化，最终达到共同富裕。党的十八届五中全会鲜明提出要坚持以人民为中心的发展思想，把增进人民福祉、促进人的全面发展、朝着共同富裕方向稳步前进作为经济发展的出发点和落脚点。这一点，我们任何时候都不能忘记，部署经济工作、制定经济政策、推动经济发展都要牢牢坚持这个根本立场。', '人民立场是中国共产党的根本政治立场，是马克思主义政党区别于其他政党的显著标志。党与人民风雨同舟、生死与共，始终保持血肉联系，是党战胜一切困难和风险的根本保证，正所谓“得众则得国，失众则失国”。', '不忘初心，方得始终。中国共产党人的初心和使命，就是为中国人民谋幸福，为中华民族谋复兴。这个初心和使命是激励中国共产党人不断前进的根本动力。全党同志一定要永远与人民同呼吸、共命运、心连心，永远把人民对美好生活的向往作为奋斗目标，以永不懈怠的精神状态和一往无前的奋斗姿态，继续朝着实现中华民族伟大复兴的宏伟目标奋勇前进。', '（2018年1月5日在新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神研讨班上的讲话）', '人民是历史的创造者，人民是真正的英雄。波澜壮阔的中华民族发展史是中国人民书写的！博大精深的中华文明是中国人民创造的！历久弥新的中华民族精神是中国人民培育的！中华民族迎来了从站起来、富起来到强起来的伟大飞跃是中国人民奋斗出来的！', '学习马克思，就要学习和实践马克思主义关于坚守人民立场的思想。人民性是马克思主义最鲜明的品格。马克思说，“历史活动是群众的活动”。让人民获得解放是马克思毕生的追求。我们要始终把人民立场作为根本立场，把为人民谋幸福作为根本使命，坚持全心全意为人民服务的根本宗旨，贯彻群众路线，尊重人民主体地位和首创精神，始终保持同人民群众的血肉联系，凝聚起众志成城的磅礴力量，团结带领人民共同创造历史伟业。这是尊重历史规律的必然选择，是共产党人不忘初心、牢记使命的自觉担当。', '人民是我们党执政的最大底气，是我们共和国的坚实根基，是我们强党兴国的根本所在。我们党来自于人民，为人民而生，因人民而兴，必须始终与人民心心相印、与人民同甘共苦、与人民团结奋斗。每个共产党员都要弄明白，党除了人民利益之外没有自己的特殊利益，党的一切工作都是为了实现好、维护好、发展好最广大人民根本利益；人民是历史的创造者、人民是真正的英雄，必须相信人民、依靠人民；我们永远是劳动人民的普通一员，必须保持同人民群众的血肉联系。', '2023年12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市良庆区蟠龙社区考察时，同社区各族群众亲切交流。新华社记者 燕雁/摄', '中国共产党根基在人民、血脉在人民。坚持以人民为中心的发展思想，体现了党的理想信念、性质宗旨、初心使命，也是对党的奋斗历程和实践经验的深刻总结。自成立以来，我们党团结带领人民进行革命、建设、改革，根本目的就是为了让人民过上好日子，无论面临多大挑战和压力，无论付出多大牺牲和代价，这一点都始终不渝、毫不动摇。坚持以人民为中心的发展思想，不是一句空洞口号，必须落实到各项决策部署和实际工作之中。', '要把为民造福作为最重要的政绩。中国共产党把为民办事、为民造福作为最重要的政绩，把为老百姓办了多少好事实事作为检验政绩的重要标准。党员、干部特别是领导干部要清醒认识到，自己手中的权力、所处的岗位，是党和人民赋予的，是为党和人民做事用的，只能用来为民谋利。各级领导干部要树立正确的权力观、政绩观、事业观，不慕虚荣，不务虚功，不图虚名，切实做到为官一任、造福一方。', '中国共产党是中国工人阶级的先锋队，同时是中国人民和中华民族的先锋队。党章也明确规定，党坚持全心全意为人民服务，在任何时候都把群众利益放在第一位，同群众同甘共苦，保持最密切的联系。这就要求我们必须坚持尊重社会发展规律和尊重人民历史主体地位的一致性、为崇高理想奋斗和为最广大人民谋利益的一致性、完成党的各项工作和实现人民利益的一致性，永不脱离群众，与群众有福同享、有难同当，有盐同咸、无盐同淡。', '江山就是人民、人民就是江山，打江山、守江山，守的是人民的心。中国共产党根基在人民、血脉在人民、力量在人民。中国共产党始终代表最广大人民根本利益，与人民休戚与共、生死相依，没有任何自己特殊的利益，从来不代表任何利益集团、任何权势团体、任何特权阶层的利益。', '必须坚持人民至上。人民性是马克思主义的本质属性，党的理论是来自人民、为了人民、造福人民的理论，人民的创造性实践是理论创新的不竭源泉。一切脱离人民的理论都是苍白无力的，一切不为人民造福的理论都是没有生命力的。我们要站稳人民立场、把握人民愿望、尊重人民创造、集中人民智慧，形成为人民所喜爱、所认同、所拥有的理论，使之成为指导人民认识世界和改造世界的强大思想武器。', '新征程上，我们要始终坚持一切为了人民、一切依靠人民。一路走来，我们紧紧依靠人民交出了一份又一份载入史册的答卷。面向未来，我们仍然要依靠人民创造新的历史伟业。', '道阻且长，行则将至。前进道路上，无论是风高浪急还是惊涛骇浪，人民永远是我们最坚实的依托、最强大的底气。我们要始终与人民风雨同舟、与人民心心相印，想人民之所想，行人民之所嘱，不断把人民对美好生活的向往变为现实。', '我们党深刻认识到中国式现代化是亿万人民自己的事业，人民是中国式现代化的主体，必须紧紧依靠人民，尊重人民创造精神，汇集全体人民的智慧和力量，才能推动中国式现代化不断向前发展。我们坚持党的群众路线，想问题、作决策、办事情注重把准人民脉搏、回应人民关切、体现人民愿望、增进人民福祉，努力使党的理论和路线方针政策得到人民群众衷心拥护。我们坚持把人民对美好生活的向往作为奋斗目标，坚持以人民为中心的发展思想，着力保障和改善民生，着力解决人民急难愁盼问题，让中国式现代化建设成果更多更公平地惠及全体人民。我们党发展全过程人民民主，拓展民主渠道，丰富民主形式，扩大人民有序政治参与，确保人民依法通过各种途径和形式管理国家事务，管理经济和文化事业，管理社会事务，以主人翁精神满怀热忱地投入到现代化建设中来。我们党以中国式现代化的美好愿景激励人、鼓舞人、感召人，有效促进政党关系、民族关系、宗教关系、阶层关系、海内外同胞关系和谐，促进海内外中华儿女团结奋斗，凝聚起全面建设社会主义现代化国家的磅礴伟力。', '（2023年2月7日在新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班上的讲话）', '我们要始终坚持人民至上。全面建成社会主义现代化强国，人民是决定性力量。要积极发展全过程人民民主，坚持党的领导、人民当家作主、依法治国有机统一，健全人民当家作主制度体系，实现人民意志，保障人民权益，充分激发全体人民的积极性主动性创造性。要贯彻以人民为中心的发展思想，完善分配制度，健全社会保障体系，强化基本公共服务，兜牢民生底线，解决好人民群众急难愁盼问题，让现代化建设成果更多更公平惠及全体人民，在推进全体人民共同富裕上不断取得更为明显的实质性进展。要不断巩固发展全国各族人民大团结、海内外中华儿女大团结，充分调动一切积极因素，凝聚起强国建设、民族复兴的磅礴力量。', '2023年11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家考察时，在社区宿舍型出租房源租户的住房，了解在此居住的城市一线工作者的生活状况。新华社记者 鞠鹏/摄', '我们要坚守人民至上理念，突出现代化方向的人民性。人民是历史的创造者，是推进现代化最坚实的根基、最深厚的力量。现代化的最终目标是实现人自由而全面的发展。现代化道路最终能否走得通、行得稳，关键要看是否坚持以人民为中心。现代化不仅要看纸面上的指标数据，更要看人民的幸福安康。政党要锚定人民对美好生活的向往，顺应人民对文明进步的渴望，努力实现物质富裕、政治清明、精神富足、社会安定、生态宜人，让现代化更好回应人民各方面诉求和多层次需要，既增进当代人福祉，又保障子孙后代权益，促进人类社会可持续发展。', '马克思主义中国化时代化成果，都是党和人民实践经验和集体智慧的结晶。无论是毛泽东思想、中国特色社会主义理论体系，还是新时代中国特色社会主义思想，无不源自于人民的智慧、人民的探索、人民的创造。人民群众身处实践最前沿，对实践变化感知最敏感、感受最深切，也最聪慧，只要走到人民群众中去，很多百思不得其解的问题就能豁然开朗、找到答案。我们的各项工作实践要走好群众路线，推进党的理论创新也要走好群众路线，决不能闭门造车、坐而论道、流于空想。在谋划这次主题教育时，我提出大兴调查研究，就是要推动各级领导干部树牢唯物史观，强化群众观点和宗旨意识，坚持目标导向和问题导向，走出机关沉到基层一线，广泛倾听人民群众的声音，自觉问计于民、问需于民，运用党的创新理论研究解决好发展所需、改革所急、基层所盼、民心所向的突出问题，同时从人民群众的真知灼见中获取理论创新和实践创新灵感。要尊重人民首创精神，注重从人民的创造性实践中总结新鲜经验，上升为理性认识，提炼出新的理论成果，着力让党的创新理论深入亿万人民心中，成为接地气、聚民智、顺民意、得民心的理论。', '团结奋斗是党领导人民创造历史伟业的必由之路。团结奋斗要靠目标凝心聚力，新征程上我们就要靠中国式现代化进一步凝心聚力、团结奋斗。中国式现代化是全体人民的共同事业，也是一项充满风险挑战、需要付出艰辛努力的宏伟事业，必须坚持全体人民共同参与、共同建设、共同享有，紧紧依靠全体人民和衷共济、共襄大业。', '（2023年12月21日、22日在中央政治局学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会上的讲话）', '要充分激发全体人民的历史主动精神。人民，只有人民，才是创造世界历史的动力。中国式现代化是全体中国人民的事业，必须紧紧依靠人民，汇聚蕴藏在人民中的无穷智慧和力量，才能不断创造新的历史伟业。我们要坚持人民是创造历史根本动力的历史唯物主义基本观点，坚持人民主体地位，充分尊重人民所表达的意愿、所创造的经验、所拥有的权利、所发挥的作用，把维护好、实现好、发展好最广大人民根本利益作为一切工作的出发点和落脚点，让现代化建设成果更多更公平惠及全体人民。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>42</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团在广东省深圳市东莞市学习考察学习先进经验加强产业对接深化创新协同为打造新时代六地汇聚新动力增添新活力郝鹏率队考察黄楚平参加考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/802484.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团在广东省深圳市东莞市学习考察 学习先进经验 加强产业对接 深化创新协同 为打造新时代“六地”汇聚新动力增添新活力 郝鹏率队考察 黄楚平参加考察', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '辽宁省党政代表团在广东省深圳市东莞市学习考察 学习先进经验 加强产业对接 深化创新协同 为打造新时代“六地”汇聚新动力增添新活力 郝鹏率队考察 黄楚平参加考察', '11月29日至30日，辽宁省党政代表团继续在广东省学习考察，代表团来到深圳市和东莞市，深入企业、园区、科研院所，学习广东以改革创新推动高质量发展的先进经验做法，积极促进深圳、东莞与辽宁产业对接和创新协同，为打造新时代“六地”、扎实推进中国式现代化辽宁实践汇聚新动力增添新活力。省委书记、省人大常委会主任郝鹏率队考察。广东省人大常委会主任黄楚平参加考察。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '广东省作为我国改革开放的前沿阵地和“龙头”，拥有一批全球领先的知名高技术企业。代表团来到位于东莞市的华为技术有限公司终端总部，了解企业政府与公共事业、多样性算力数据中心等产品研发应用情况，对华为公司克服重重困难挑战，持续加大研发投入，始终引领全球信息产业发展感到由衷钦佩。郝鹏表示，辽宁在新材料、集成电路、装备制造方面优势突出，拥有丰富的产业应用场景。希望华为公司加强与辽宁深度合作，共同做强产业链、提升价值链，为实现关键核心技术自主可控作出更大贡献。在腾讯计算机系统有限公司，代表团在公司董事会主席兼首席执行官马化腾的陪同下，参观企业展厅，听取数据中心、腾讯云等业务开展情况，高度评价腾讯公司在“优政、兴业、惠民”等方面取得的优异业绩。郝鹏希望腾讯公司积极参与“数字辽宁、智造强省”建设，积极帮助中小企业健康发展，以数字赋能辽宁振兴发展。在深圳市大疆创新科技有限公司，代表团观看了公司各类先进民用商用无人机产品展示，认真学习借鉴企业聚焦用户所需、不断突破技术瓶颈的创新精神和成功经验。郝鹏表示，辽宁是航空产业大省，无人机产业拥有良好发展基础，希望与大疆公司进一步加强交流合作，合力开拓市场，实现互利共赢。在比亚迪股份有限公司，代表团在展厅内观摩体验企业最新款新能源汽车，并与董事长王传福等公司高管进行会谈。郝鹏希望比亚迪公司把辽宁放在企业战略布局更加突出位置，积极扩大在辽投资，与辽宁在电动汽车技术创新方面深化合作，携手推动新能源汽车产业高质量发展。', '广东科技综合实力位居全国前列，拥有一批著名高校、科研院所和重大创新平台。代表团先后来到松山湖材料实验室、鹏城实验室、中科院深圳先进技术研究院，听取科技研发情况介绍，详细了解实验室和研究院在科技成果转化、科研团队引育等方面的成功做法。郝鹏说，学习借鉴科技创新先进理念、先进经验，是本次代表团来广东的一项重要任务。科技创新是第一动力，抓住创新就是赢得未来，我们要进一步加强重大创新平台建设，打通从基础研究、技术攻关到产业化应用链条，支持辽宁与广东两省创新主体加强对接协作，以科技创新推动产业创新，加快打造重大技术创新策源地，为国家实现高水平科技自立自强贡献辽宁智慧。', '广东在产业园区建设上独树一帜，成果显著。代表团先后来到河套深港科技创新合作区、前海深港现代服务业合作区参观考察，了解园区规划建设、招商引资等情况。郝鹏要求代表团同志，要充分吸收借鉴广东在产业园区建设管理等方面的先进经验，以改革的思路和举措大抓园区，为我省重点产业集群园区化发展创造良好条件。', '学习考察期间，代表团还与深圳市党政主要负责同志举行会谈，双方就进一步加强在产业、科技、贸易、金融、旅游、港口等方面合作达成广泛共识。', '广东省及深圳市、东莞市领导肖亚非、覃伟中、骆文智，省及沈阳市、大连市领导王新伟、姜有为、靳国卫、王利波、陈绍旺参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>42</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>靠实干开创更加美好的未来开局之年总书记引领我们推进中国式现代化</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/808575.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '春华秋实，岁物丰成。过去的一年，希望的田野再获丰收，全国粮食总产量再创历史新高，连续9年稳定在1.3万亿斤以上；前进的征途再传捷报，国产大飞机C919投入商业运营、新能源汽车出口快速增长，中国制造叫响全球；美好的生活再谱新篇，前三季度全国居民人均可支配收入同比实际增长5.9%，前11个月城镇新增就业1180万人……', '在二〇二三年新年贺词中，习近平主席曾深情寄望：“只要有愚公移山的志气、滴水穿石的毅力，脚踏实地，埋头苦干，积跬步以至千里，就一定能够把宏伟目标变为美好现实。”', '全面贯彻党的二十大精神的开局之年，习近平总书记一盘棋布局、一张图谋划、一体化推进中国式现代化，用脚步丈量祖国的山山水水，作答时代课题、擘画长远未来，关键处落子，为强国建设、民族复兴伟业开辟广阔空间。', '破题、解题，实干、奋进。一年来，以习近平同志为核心的党中央团结带领全党全国各族人民，顶住外部压力、克服内部困难，顽强拼搏、勇毅前行，全面建设社会主义现代化国家迈出坚实步伐。', '今天，中国人民积极性、主动性、创造性进一步激发，志气、骨气、底气空前增强。中华儿女万众一心、众志成城，意气风发奔赴充满光荣和梦想的远征。', '这是学习贯彻党的二十大精神研讨班，是“开局之年第一课”，主题聚焦“中国式现代化”。学员中，有不少新面孔。新进中央委员会的委员、候补委员和省部级主要领导干部，济济一堂。', '开班式上，面对“关键少数”，习近平总书记的重要讲话提纲挈领，直抵关键：“党的领导决定中国式现代化的根本性质，只有毫不动摇坚持党的领导，中国式现代化才能前景光明、繁荣兴盛；否则就会偏离航向、丧失灵魂，甚至犯颠覆性错误。”', '“中国式现代化，是中国共产党领导的社会主义现代化”。党的二十大报告提出的前进道路上必须牢牢把握的重大原则中，第一项便是“坚持和加强党的全面领导”。', '此次研讨班开班式，习近平总书记进一步深刻阐释：“这是对中国式现代化定性的话，是管总、管根本的。为什么要强调党在中国式现代化建设中的领导地位？这是因为，党的领导直接关系中国式现代化的根本方向、前途命运、最终成败。”', '办好中国的事情，关键在党。一年来，习近平总书记在地方考察、出席重要会议、发表重要讲话、作出重要指示批示时，多次强调要坚持和加强党的全面领导：', '在上海指出，“坚持党的领导是中国式现代化的本质要求，也是根本保证。”“深入推进长三角一体化发展，必须坚持和加强党的全面领导。”', '在河北强调，“进一步增强各级党组织的政治功能和组织功能，为推进京津冀协同发展提供坚强保证。”', '主持召开新时代推动东北全面振兴座谈会指出，“加强党的领导和党的建设，是东北全面振兴的根本保证。”', '对党的建设和组织工作作出重要指示指出，“全面建设社会主义现代化国家，全面推进中华民族伟大复兴，关键在党，关键在人。”', '思想是行动的先导。新时代新征程，面对错综复杂的国际国内形势、艰巨繁重的改革发展稳定任务、各种不确定难预料的风险挑战，要实现党的二十大确定的战略目标，必须坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，用党的创新理论统一思想、统一意志、统一行动，始终保持党的强大凝聚力、战斗力。', '站在实现中华民族伟大复兴的战略高度，以习近平同志为核心的党中央引领全党以理论大学习、思想大武装推进事业大发展。', '在习近平总书记亲自关心指导下，从中央到地方，理论学习氛围愈加浓厚。广大党员干部深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，深刻领会和把握习近平新时代中国特色社会主义思想的世界观、方法论和贯穿其中的立场观点方法，持续加强党的创新理论武装，以学铸魂、以学增智、以学正风、以学促干，向着强国建设、民族复兴的宏伟目标昂扬奋进。', '把方向、谋大局、定政策、促改革，一年来，以习近平同志为核心的党中央坚持和加强党的全面领导，把党的领导具体贯彻到治国理政全过程和各方面。', '习近平总书记强调，中国式现代化是全体人民的共同事业，也是一项充满风险挑战、需要付出艰辛努力的宏伟事业，必须坚持全体人民共同参与、共同建设、共同享有，紧紧依靠全体人民和衷共济、共襄大业。', '在同中华全国总工会新一届领导班子成员集体谈话时强调，坚持党对工会的全面领导，组织动员亿万职工积极投身强国建设民族复兴伟业；', '在同团中央新一届领导班子成员集体谈话时强调，切实肩负起新时代新征程党赋予的使命任务，充分激发广大青年在中国式现代化建设中挺膺担当；', '在同全国妇联新一届领导班子成员集体谈话时强调，坚定不移走中国特色社会主义妇女发展道路，组织动员广大妇女为中国式现代化建设贡献巾帼力量；', '习近平总书记关心关怀工会、共青团、妇联工作，始终把坚持党的领导作为做好党的群团工作的根本保证，为党的群团组织发展指明方向。', '以习近平同志为核心的党中央突出党的领导核心作用，总揽全局、协调各方、运筹帷幄，一系列治国理政新实践波澜壮阔、气势恢宏，进一步开创了中国式现代化崭新局面。', '基层是党的执政之基、力量之源。党的基层组织是确保党的路线方针政策和决策部署贯彻落实的基础。到农村、城市社区等基层一线考察调研，党建引领基层治理是习近平总书记反复强调的一项工作。', '在江西考察时，习近平总书记指出：“乡村要振兴，关键是把基层党组织建好、建强。基层党组织要成为群众致富的领路人，确保党的惠民政策落地见效，真正成为战斗堡垒。”', '在广西考察时，习近平总书记来到南宁市良庆区蟠龙社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。', '一年来，习近平总书记一次次深入基层察民情、听民声、纳民意。广大基层党组织牢牢坚持以人民为中心的发展思想，不断把人民对美好生活的向往变为现实，党心民心更加凝聚。在党的坚强领导下，中国式现代化的宏伟蓝图正一步步变为现实。', '“坚持把国家和民族发展放在自己力量的基点上，坚持把中国发展进步的命运牢牢掌握在自己手中”', '“人造太阳”全超导托卡马克核聚变实验装置（EAST），成功实现稳态高约束模式等离子体运行403秒，迎来重大突破；', '今年，我国关键核心技术攻关捷报频传，一系列突破性进展、标志性成果令人振奋，高质量发展扎实推进。', '“坚持中国特色社会主义道路。”党的二十大报告强调，坚持以经济建设为中心，坚持四项基本原则，坚持改革开放，坚持独立自主、自力更生，坚持道不变、志不改，既不走封闭僵化的老路，也不走改旗易帜的邪路，坚持把国家和民族发展放在自己力量的基点上，坚持把中国发展进步的命运牢牢掌握在自己手中。', '“高质量发展是全面建设社会主义现代化国家的首要任务。”今年3月5日，在参加十四届全国人大一次会议江苏代表团审议时，习近平总书记系统阐述推动高质量发展的必由之路、战略基点、必然要求、最终目的等。', '这一年，我们完整、准确、全面贯彻新发展理念，加快构建新发展格局，着力推动高质量发展，为全面建设社会主义现代化国家开好局起好步。', '“走自力更生之路，实现科技自立自强”“中国式现代化关键在科技现代化”。今年以来，习近平总书记多次深入科技创新一线，同科技工作者面对面交流，释放出始终聚焦科技创新的鲜明导向。', '一年来，创新驱动发展战略深入实施，高水平科技自立自强扎实推进。中国科学技术发展战略研究院发布的报告显示，2023年我国国家创新指数综合排名居世界第十位，较上期提升3位，是唯一进入前15位的发展中国家。', '9月，习近平总书记在黑龙江考察时强调：“整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。”', '开局之年，以科技创新推动产业创新，新技术新业态新产业蓬勃发展，新质生产力加快形成，有力助推高质量发展——', '“新三样”成绩亮眼：新能源汽车、锂电池、光伏产品出口快速增长，今年前11月，我国新能源汽车出口109.1万辆，同比增长83.5%，在全球跑出令人惊叹的“中国速度”；', '大国重器昂首向前：首艘国产大型邮轮命名交付，全球最大18兆瓦海上直驱风电机组下线；', '一组数据振奋人心：到今年9月，我国战略性新兴产业相关企业总数已突破200万，充分发挥了经济发展新引擎作用。', '区域协调发展，关乎统筹一域和全局、前沿和后方、发展和安全。各地优势互补，“多声部”协作，奏响雄浑的时代乐章。', '行走岭南大地，翻越白山黑水，深入秦岭腹地，走访西部边陲……一年来，在各地考察调研或主持召开会议时，习近平总书记多次对区域协调发展作出战略性部署，指导各地在中国式现代化的大棋局中找准战略定位，握指成拳、形成合力。', '4月在广东，勉励粤港澳大湾区成为“新发展格局的战略支点、高质量发展的示范地、中国式现代化的引领地”；5月在河北，主持召开深入推进京津冀协同发展座谈会，要求“努力使京津冀成为中国式现代化建设的先行区、示范区”；7月在四川，强调“加强成渝区域协同发展”；9月在黑龙江，主持召开新时代推动东北全面振兴座谈会，指出“推进中国式现代化，需要强化东北的战略支撑作用”；10月在江西，主持召开进一步推动长江经济带高质量发展座谈会，要求“更好支撑和服务中国式现代化”；11月在上海，主持召开深入推进长三角一体化发展座谈会，指出“在中国式现代化中更好发挥引领示范作用”；12月在广西，强调“把广西打造成为粤港澳大湾区的重要战略腹地”……', '如今，京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展、黄河流域生态保护和高质量发展……区域重大战略高质量推进，不断开辟中国经济发展的广阔新空间。', '习近平总书记在7月召开的全国生态环境保护大会上强调：“必须以更高站位、更宽视野、更大力度来谋划和推进新征程生态环境保护工作，谱写新时代生态文明建设新篇章。”', '在内蒙古巴彦淖尔市临河区国营新华林场，新时代的生态治理逐渐走出一条科学化、智能化新路径。茫茫林海里，利用“天眼”系统，只需指尖轻轻一点，就能对森林资源进行巡逻监控。', '在河北张家口，低碳转型、绿色发展势头正强。张北可再生能源柔性直流电网建成投用，每年可向北京输送140亿千瓦时的绿色电能。', '山、水、林、田、湖、草、沙……万里河山，锦绣中华，美丽中国的画卷徐徐打开。天更蓝，地更绿，水更清，发展的“含绿量”更高，万里河山多姿多彩。', '习近平总书记在6月召开的文化传承发展座谈会上指出：“在五千多年中华文明深厚基础上开辟和发展中国特色社会主义，把马克思主义基本原理同中国具体实际、同中华优秀传统文化相结合是必由之路。”“中国式现代化赋予中华文明以现代力量，中华文明赋予中国式现代化以深厚底蕴。”', '考察中国国家版本馆、中国历史研究院，从对历史的思考中汲取走向未来的智慧；到访古城苏州，感受文化赋予经济发展的充沛动能；走进陕西汉中市博物馆，思考传统文化的传承创新……', '怀着深沉的历史责任感，一年来，习近平总书记考察文化遗产、追寻文明根脉，以坚定的文化自觉、宏阔的历史视野、深远的战略考量，不断深化对文化建设的规律性认识，引领中华优秀传统文化创造性转化、创新性发展，引领我们共同努力创造属于我们这个时代的新文化，建设中华民族现代文明。', '10月7日至8日，全国宣传思想文化工作会议在京召开。会议传达了习近平总书记对宣传思想文化工作的重要指示，正式提出和系统阐述了习近平文化思想。习近平文化思想深刻回答了新时代我国文化建设举什么旗、走什么路、坚持什么原则、实现什么目标等根本问题，丰富和发展了马克思主义文化理论，为做好新时代新征程宣传思想文化工作、担负起新的文化使命提供了科学行动指南，为创造人类文明新形态、引领世界文明发展进步贡献了中国智慧。', '千年瓷都，窑火正旺。在江西景德镇，陶瓷文化保护与文旅产业发展相得益彰，2万多名年轻人忙碌在制瓷一线，共筑庞大而完善的陶瓷产业链，让这座古老的城镇焕发出盎然新意。', '一缕丝线，巧手翻飞。在江苏苏州，苏绣代表性传承人卢建英正带着徒弟们忙着学技艺、搞创作，越来越多的年轻人加入传承队伍，让中华优秀传统文化在创新中赓续绵延。', '坚定文化自信，我们在自己选择的道路上昂首阔步；鼓舞精神士气，全国人民凝聚力和向心力极大提升。中国特色社会主义制度焕发蓬勃生机活力，中国特色社会主义道路越走越宽广。', '今年3月，习近平总书记在十四届全国人大一次会议上强调：“要贯彻以人民为中心的发展思想，完善分配制度，健全社会保障体系，强化基本公共服务，兜牢民生底线，解决好人民群众急难愁盼问题，让现代化建设成果更多更公平惠及全体人民，在推进全体人民共同富裕上不断取得更为明显的实质性进展。”', '“现代化道路最终能否走得通、行得稳，关键要看是否坚持以人民为中心。现代化不仅要看纸面上的指标数据，更要看人民的幸福安康。”3月15日，习近平总书记在中国共产党与世界政党高层对话会上的主旨讲话中，重点阐明了发展的价值旨归。', '5月31日，有着75年建校历史的北京育英学校迎来了一位特殊的客人。这一天，习近平总书记来到学校，看望慰问师生，向全国广大少年儿童祝贺节日。', '“今天我专程来北京育英学校看望大家，和小朋友们共庆‘六一’儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。”习近平总书记强调，各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '在五四青年节到来之际，给中国农业大学科技小院的同学们回信，提出殷切期望，向全国广大青年致以节日的祝贺；', '在第三十九个教师节到来之际，致信全国优秀教师代表，代表党中央，向他们和全国广大教师及教育工作者致以节日的问候和诚挚的祝福；', '在全国助残日之际，向康复国际百年庆典致贺信，向全国广大残疾人及其亲属，向广大残疾人工作者致以亲切问候，向关心支持中国残疾人事业的国际组织和各方人士表示衷心感谢；', '一枝一叶总关情，习近平总书记对各界群众的关怀温暖人心、振奋人心，推动广大党员干部群众心往一处想、劲往一处使，满腔热忱地投入到中国式现代化建设中来。', '习近平总书记密切关注汛情，高度重视防汛抗洪救灾工作，多次作出重要指示批示，要求全力保障人民群众生命财产安全。', '9月7日，正在黑龙江考察的习近平总书记，来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，看望慰问受灾群众，了解灾后恢复重建进展。“我一直牵挂受灾群众”，习近平总书记指出，“东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。”', '11月10日，北方入冬之际，习近平总书记专程来到北京、河北受灾较重的门头沟区、保定涿州市，看望慰问受灾群众，检查指导灾后恢复重建工作。习近平总书记叮嘱：“要继续把灾后恢复重建工作一件一件落实好，继续为推动人民生活向着更好的方向前进而努力，让老百姓今后的日子过得更好！”', '12月18日，甘肃临夏州积石山县发生6.2级地震，造成重大人员伤亡，部分水、电、交通、通讯等基础设施受损。', '地震发生后，习近平总书记高度重视并作出重要指示强调，“要全力开展搜救，及时救治受伤人员，最大限度减少人员伤亡”“妥善安置受灾群众，保障群众基本生活”“尽最大努力保障人民群众生命财产安全”。', '各方面分秒必争组织开展抢险救援，全力以赴搜救被困人员并救治伤员，妥善转移安置受灾群众，紧张有序开展抗震救灾各项工作。', '习近平总书记始终把人民放在心中最高位置，统筹高质量发展和高水平安全，人民群众的获得感、幸福感、安全感更加充实、更有保障、更可持续。', '今年以来各地各部门持续加大民生投入、强化民生保障、优化民生服务，以实绩实效解民忧、惠民生、暖民心。', '前三季度跨省异地就医直接结算约3645万人次，减少个人垫付超413亿元；第九批国家组织集采41种药品，中选药品平均降价58%。', '今年全国筹集建设保障性租赁住房已完成约150万套（间），各地筹集建设进度不断加快。', '多个省份推出优化调整稳就业一揽子政策。截至目前，各级政府直接支持就业创业的资金已超过2000亿元。', '“要紧紧抓住人民群众急难愁盼问题，采取更多惠民生、暖民心举措”“把惠民生的事办实、暖民心的事办细、顺民意的事办好”“加强基础性、普惠性、兜底性民生建设，完善社会保障体系”……', '从中央到地方，一系列新部署、新举措，把发展成果不断转化为人民高品质生活，在努力推动共同富裕中促进人的全面发展、社会全面进步。', '今年是我国改革开放45周年。改革开放是决定当代中国命运的关键一招，也是实现中华民族伟大复兴的关键一招。', '四十五载岁月如歌。从盼小康到实现全面小康，亿万中华儿女用实干书写了国家和民族发展的壮丽史诗。', '四十五载波澜壮阔。迎来了从站起来、富起来到强起来伟大飞跃的中华民族继续书写改革开放新的华章。', '“必须坚持依靠改革开放增强发展内生动力”“深化重点领域改革”“扩大高水平对外开放”……无论是总结新时代做好经济工作的规律性认识，还是布局新一年经济发展的重点任务，改革开放都是关键词。', '环顾国内，经济恢复仍处在关键阶段，周期性和结构性矛盾叠加；放眼全球，经济复苏乏力，逆全球化思潮涌动，单边主义、保护主义明显上升，我国发展面临的外部环境更趋复杂严峻。', '今年2月，党的二十届二中全会在京举行，习近平总书记发表重要讲话。全会审议通过了在广泛征求意见的基础上提出的《党和国家机构改革方案》。全会强调，要坚定不移深化改革开放，紧紧围绕全面建设社会主义现代化国家的目标，推出一批战略性、创造性、引领性改革举措，加强改革系统集成、协同高效，在重要领域和关键环节取得新突破。', '主持召开二十届中央全面深化改革委员会第一次会议强调，把准方向、守正创新、真抓实干，在新征程上谱写改革开放新篇章；主持召开中央全面深化改革委员会第二次会议强调，建设更高水平开放型经济新体制，推动能耗双控逐步转向碳排放双控；主持召开中央全面深化改革委员会第三次会议强调，全面推进美丽中国建设，健全自然垄断环节监管体制机制……习近平总书记对新时代新征程全面深化改革开放作出更加清晰的顶层设计。', '今年首次地方考察，习近平总书记再次南下广东，深刻指出：“中国的改革开放政策是长期不变的，一以贯之的。”', '如今，雄安新区进入大规模建设与承接北京非首都功能疏解并重阶段，“未来之城”日新月异；深圳中国特色社会主义先行示范区、浦东社会主义现代化建设引领区、海南中国特色自由贸易港、浙江高质量发展建设共同富裕示范区探路先行、活力迸发……一片片改革的高地、一个个开放的前沿，不断延展着新时代改革开放的时空布局。', '短短6天，按年计意向成交金额达到784.1亿美元，创历届新高——第六届中国国际进口博览会，吸引了来自128个国家和地区的3400多家企业参展。实打实的数字，为中国与世界携手创未来写下生动注脚。', '发布稳外资24条政策措施，试行扩大单方面免签国家范围，宣布支持高质量共建“一带一路”八项行动……更大范围、更宽领域、更深层次的对外开放，为全球发展注入中国力量。', '成都大运会成功举办，来自世界各地的青年朋友相聚相知，增进理解，体验并分享中国式现代化的万千气象；杭州亚运会成功举办，为体育和文化交相辉映提供了舞台，成为亚洲文化兼收并蓄、博采众长、充满活力的生动写照。', '年终岁尾，2023年大国元首外交的收官之作，写下遒劲一笔。应越南共产党中央委员会总书记阮富仲、越南社会主义共和国主席武文赏邀请，习近平总书记如约到访。', '此访，中国同中南半岛国家在双边和澜湄合作多边层面，实现了命运共同体建设全覆盖。周边命运共同体建设取得的重要实质性进展，也是推动构建人类命运共同体迈出的又一重要步伐。', '出席中国共产党与世界政党高层对话会并发表主旨讲话；出席第三届“一带一路”国际合作高峰论坛开幕式并发表主旨演讲；赴美国旧金山举行中美元首会晤，同时应邀出席亚太经合组织第三十次领导人非正式会议；在北京会见欧洲理事会主席和欧盟委员会主席……', '坚持胸怀天下，新时代新征程上的中国特色大国外交领风踏浪，阔步前行，写下了中国与世界相互交融、相互成就的崭新篇章，彰显了以“确定之中国”为“不确定之世界”带来稳定性和正能量的努力与担当。', '11月，习近平主席出席美国友好团体联合欢迎宴会并发表演讲强调，经过百年探索和接续奋斗，中国找到了一条适合自己的发展道路，正在以中国式现代化全面推进中华民族伟大复兴。我们致力于团结奋斗，让14亿多中国人一起迈向现代化。我们致力于共同富裕，让每一个中国人都过上美好生活。我们致力于全面发展，让人的物质和精神世界同样富足。我们致力于永续发展，让人与自然和谐共生。我们致力于和平发展，推动构建人类命运共同体。', '坚持高质量发展，推进高水平对外开放，以中国式现代化为推动实现世界各国的现代化提供新机遇，中国改革开放的信心和意志不会动摇，中国开放的大门只会越开越大。', '“推进中国式现代化，是一项前无古人的开创性事业，必然会遇到各种可以预料和难以预料的风险挑战、艰难险阻甚至惊涛骇浪”。党的二十大后首次省部班开班式上，习近平总书记深入分析国际国内大势，科学把握我们面临的战略机遇和风险挑战，强调“必须增强忧患意识，坚持底线思维，居安思危、未雨绸缪，敢于斗争、善于斗争，通过顽强斗争打开事业发展新天地”。', '出席中央党校建校90周年庆祝大会暨2023年春季学期开学典礼时强调，“加强斗争精神和斗争本领养成，着力增强防风险、攻难关、迎挑战、抗打压能力，不断提高专业化水平，更好胜任领导工作”。', '主持召开二十届中央审计委员会第一次会议时指出，“坚持依法审计，做实研究型审计，发扬斗争精神，增强斗争本领，打造经济监督的‘特种部队’”。', '在视察东部战区机关时强调，“要坚持从政治高度思考和处理军事问题，敢于斗争、善于斗争，坚决捍卫国家主权、安全、发展利益。”', '习近平总书记在二十届中央纪委二次全会上强调，“全面从严治党永远在路上，要时刻保持解决大党独有难题的清醒和坚定。”', '这一年，《中国共产党纪律处分条例》印发，全面从严治党体系不断健全；二十届中央第一轮、第二轮巡视扎实推进，政治巡视利剑作用有力发挥；持续深化落实中央八项规定精神，纠治“四风”；反腐败斗争坚持无禁区、全覆盖、零容忍，“打虎”“拍蝇”“猎狐”多管齐下，查处一批腐败分子；开展全国纪检监察干部队伍教育整顿，严管严治锻造纪检监察铁军……我们党把全面从严治党作为党的长期战略、永恒课题，始终坚持问题导向，保持战略定力，发扬彻底的自我革命精神，永远吹冲锋号，把严的基调、严的措施、严的氛围长期坚持下去，把党的伟大自我革命进行到底。', '习近平总书记以“我将无我、不负人民”的崇高精神境界、“得罪千百人、不负十四亿”的强烈使命担当和“虽千万人、吾往矣”的大无畏气概，引领全党强化斗争精神和斗争本领养成，在重大政治原则和大是大非问题上勇于交锋、敢于亮剑。', '这一年，针对人民群众反映强烈的突出问题，有关部门果断出手，坚决斗争，前9个月，公安机关常态化推进扫黑除恶斗争，打掉黑恶犯罪组织1169个，抓获犯罪嫌疑人11381名；重拳打击电信网络诈骗犯罪，侦办案件68.9万起；11月，第三轮第一批5个中央生态环境保护督察组全部实现督察进驻。', '这一年，广大驻村第一书记奔波在田野乡村，实干担当。无论是建强战斗堡垒、发展富民产业，还是深化乡村治理、解决群众难题，他们发扬斗争精神，克服种种艰难困苦，与乡亲们一起不断绘就乡村振兴的美好画卷。', '这一年，面对洪涝、地震等灾害，基层党员干部冲锋在前、勇于担当，人民解放军、武警部队官兵、消防救援队伍指战员挺身而出、向险前行，社会各界和志愿者积极参与、奉献爱心。党旗在救灾一线高高飘扬，精神在斗争中升华，力量在磨砺中凝聚。', '这一年，针对“台独”分裂势力与外部势力勾连挑衅，中国军队组织环台岛战备警巡和“联合利剑”演习；为应对苏丹局势变化，中国海军南宁舰、微山湖舰从苏丹港撤离940名中国公民、231名外籍人员至沙特吉达港。人民军队坚决履行新时代使命任务，以顽强斗争精神和实际行动捍卫了国家主权、安全、发展利益。', '这一年，面对国际局势急剧变化，我们在斗争中维护国家尊严和核心利益，牢牢掌握了我国发展和安全主动权。', '“实践表明，只要党和人民始终站在一起、想在一起、干在一起，任何风浪都动摇不了我们的钢铁意志，任何困难都阻挡不了我们的铿锵步伐。”2023年春节团拜会上，习近平总书记语气坚定。这一年，全党全国各族人民在党的旗帜下团结成“一块坚硬的钢铁”，心往一处想、劲往一处使，推动中华民族伟大复兴号巨轮乘风破浪、扬帆远航。', '奋进在全面建设社会主义现代化国家新征程上，中国人民具有无比广阔的时代舞台，具有无比光明的发展前景，具有无比强大的前进动力。', '我们靠实干创造了辉煌的过去，还要靠实干开创更加美好的未来！（记者 张毅、徐隽、李昌禹）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>新华述评以人民为中心推动文化建设深入学习贯彻习近平文化思想系列述评之八</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2024/812214.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '深入学习贯彻习近平文化思想，必须牢牢站稳人民立场，尊重人民主体地位，保障人民文化权益，促进满足人民文化需求和增强人民精神力量相统一，增强人民群众文化获得感、幸福感。', '新年伊始，中国戏曲学院等单位主办的“京韵悠长·国粹华章”京剧音乐二百年巡礼在国家大剧院上演，近百位艺术家的精彩演出，赢得观众阵阵掌声、喝彩。', '2020年10月23日，习近平总书记给中国戏曲学院师生回信，勉励他们“在教学相长中探寻艺术真谛，在服务人民中砥砺从艺初心”。3年多来，桃李芬芳，德艺双馨。', '党的十八大以来，以习近平同志为核心的党中央，坚持文化发展为了人民、文化发展依靠人民、文化发展成果由人民共享，推动社会主义文化繁荣发展，人民精神文化生活愈发丰富。', '1942年5月，延安文艺座谈会召开。毛泽东同志指出：“为什么人的问题，是一个根本的问题，原则的问题。”', '2014年10月，文艺工作座谈会在北京召开。习近平总书记强调：“社会主义文艺，从本质上讲，就是人民的文艺。”', '“在围绕中心、服务大局中找准坐标定位，牢记社会责任，不断解决好‘为了谁、依靠谁、我是谁’这个根本问题。”2016年2月，习近平总书记在党的新闻舆论工作座谈会上的重要讲话正本清源。', '全国已建成公共图书馆超3300个，文化馆和博物馆超1万家；所有公共图书馆、文化馆、美术馆、综合文化站和90%以上博物馆免费开放……一系列“硬核”数据，彰显我国文化“软实力”的提升，也彰显文化建设以人民为中心的价值旨归。', '“要把实现好、维护好、发展好最广大人民根本利益作为出发点和落脚点”“让人民精神文化生活不断迈上新台阶”……习近平总书记的重要讲话，深刻阐述了文化为什么人的问题，充分展现了深厚的人民情怀。', '党的二十大报告对中国式现代化的五个重要特征进行概括，“物质文明和精神文明相协调的现代化”位列其中。“丰富人民精神世界”成为中国式现代化的本质要求之一，也是新时代追求美好生活的应有之义。', '新时代新征程，面对人民日益增长的精神文化需求，必须站稳人民立场，把人民利益、人民意志和人民心声作为文化建设的根本遵循，推进社会主义文化事业迈上新台阶。', '“乌兰牧骑的长盛不衰表明，人民需要艺术，艺术也需要人民。”2017年11月，习近平总书记给内蒙古自治区苏尼特右旗乌兰牧骑的队员们回信，勉励他们永远做草原上的“红色文艺轻骑兵”。', '“文艺创作方法有一百条、一千条，但最根本、最关键、最牢靠的办法是扎根人民、扎根生活”“要深深懂得人民是历史创造者的道理，深入群众、深入生活，诚心诚意做人民的小学生”……习近平总书记对在文化建设中坚持人民主体地位有着深邃思考。', '思想理论界关注现实问题，回应人民关切，让通俗易懂、直面问题的理论读物走进群众；新闻战线开展“走基层、转作风、改文风”活动，采写“沾泥土”“带露珠”“冒热气”的新闻作品；文化文艺工作者走进实践深处，观照人民生活，推出一部部充满时代气息的优秀作品……实践证明，推动社会主义文化繁荣发展，唯有扎根人民、依靠人民，才能获得不竭的动力源泉。', '问渠那得清如许？为有源头活水来。亿万人民的伟大奋斗、丰富多彩的社会生活是社会主义文化事业繁荣发展的沃土。', '《乡村国是》《十八洞村的十八个故事》等报告文学真实生动地讲述脱贫攻坚故事；《山海情》《人世间》《我和我的祖国》等优秀影视作品反映时代气象、讴歌人民创造……坚持以人民为中心的创作导向，新时代的文艺园地百花齐放、硕果累累。', '迈上全面建设社会主义现代化国家新征程，14亿多人民进行着新的实践、演绎着新的生活、创造着新的奇迹，给文化繁荣发展提供了广阔空间。要深入生活，扎根人民，创造更多同新时代相匹配的文化精品，实现从“高原”向“高峰”迈进。', '2023年全国“村晚”示范展示活动举办2万余场、参与人次约1.3亿，目前我国登记在册的群众文艺团队超过46万个……新时代以来，人民群众正在文化建设中登舞台、唱主角。', '习近平总书记深刻指出：“人民既是历史的创造者、也是历史的见证者，既是历史的‘剧中人’、也是历史的‘剧作者’。”', '推动社会主义文化繁荣发展，我们要牢固树立依靠人民群众的观点，尊重人民群众的主体地位和首创精神，为人民群众成为社会主义文化建设主力军开辟渠道、搭建平台、创造条件，让人民群众的活力创造力充分展示、竞相迸发。', '登上浔阳楼欣赏浩瀚长江，走进琵琶亭体验《琵琶行》沉浸式剧场，沿着江边绿道悠闲散步……长江国家文化公园九江城区段自开放以来，成为市民休闲、游人打卡的好去处。', '建设国家文化公园，是推动文化繁荣发展的重大文化工程，是更好满足人民精神文化需求的生动注脚。', '中国特色社会主义进入新时代，人民群众改善生活品质、走向共同富裕的新期待，对文化建设提出新的更高要求。要将实现人民对美好生活的向往作为文化强国建设的出发点和落脚点，紧紧围绕让人民享有更加充实、更为丰富、更高质量的精神文化生活的目标，深入推动社会主义文化繁荣发展。', '“研学热”兴起，文博场馆一票难求，以“淄博烧烤”“尔滨”为代表的文旅“出圈”……文化消费新现象折射出人民群众日益多样化、个性化的精神文化需求。', '中国特色社会主义进入新时代，文化供给的主要矛盾从“有没有”转向“好不好”。要以高质量发展为主线，完善文化产业规划和政策，培育新型文化业态和文化消费模式，扩大优质文化产品和服务供给，让人民享有更加充实、更为丰富、更高质量的精神文化生活。', '湖南的“门前十小”、北京的“27院儿”、成都的“留灯书房”……深化体制机制改革，引入社会力量共建共享，新型公共文化空间正成为百姓身边的“文化客厅”，目前全国已超过3.35万个。', '改革是文艺繁荣、文化发展的动力所在。要紧紧抓住解决文化领域不平衡不充分的发展问题，深化文化体制改革，把社会效益放在首位，推动公共文化服务标准化、均等化，推进城乡公共文化服务体系一体建设，让文化发展成果更多更公平惠及全体人民。', '收藏在博物馆里的文物、书写在古籍里的文字“活”起来了，“文创风”“诗词热”悄然兴起……新技术新方式新理念，让传统文化焕发蓬勃生机，滋养人民美好新生活。', '守正才能不迷失自我、不迷失方向，创新才能把握时代、引领时代。2023年10月，习近平总书记在江西景德镇考察调研时深刻指出：“老祖宗传下来的优秀传统文化，我们要继续攥在手里，与时俱进，让它发扬光大。”', '新时代新征程，建设文化强国面临新形势新任务，我们要以守正创新的正气和锐气，创新思路方法，创新话语体系，创新技术手段，创新体制机制，不断探索和回答时代发展和人民需求对文化建设提出的新课题。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>42</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>开拓造福各国惠及世界的幸福路习近平总书记谋划推动共建一带一路纪实</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-10-15</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/794313.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['“开拓造福各国、惠及世界的‘幸福路’”——习近平总书记谋划推动共建“一带一路”纪实', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '“开拓造福各国、惠及世界的‘幸福路’”——习近平总书记 谋划推动共建“一带一路”纪实', '新华社北京10月15日电 题：“开拓造福各国、惠及世界的‘幸福路’”——习近平总书记谋划推动共建“一带一路”纪实', '题：“开拓造福各国、惠及世界的‘幸福路’”——习近平总书记谋划推动共建“一带一路”纪实', '古老的丝绸之路，跨过沙漠海洋，绵亘万里河山，穿越千年时空，闪耀在人类文明持续前进的宏大历史进程中。', '2013年秋，习近平主席在访问哈萨克斯坦、印度尼西亚期间，先后提出共建丝绸之路经济带和21世纪海上丝绸之路重大倡议。', '10年，3600多个日夜，习近平主席高瞻远瞩、谋篇布局，推动“一带一路”这一植根历史沃土、着眼人类美好未来的重大国际合作倡议，在共商共建共享中走深走实，在高质量发展中开拓出一条造福世界的发展繁荣之路，铺展共同构建人类命运共同体的壮美画卷。', '南非，德阿地区的山地上，一座座白色风力发电机巍然矗立，将丰沛的风能转化为电能，点亮千家万户。由中国企业建设运营的德阿风电项目，2017年并网发电以来，有效缓解了当地电力供应短缺局面，推动经济发展，改善生态环境。', '“南非是第一个同中国签署共建‘一带一路’合作文件的非洲国家，连续13年成为中国在非洲第一大贸易伙伴，是中国在非洲投资存量最多的国家之一……”', '今年8月，赴约翰内斯堡出席金砖国家领导人第十五次会晤并对南非进行国事访问之际，习近平主席发表署名文章，讲述两国合作“蛋糕越做越大”的生动故事。', '这是在南非北开普省德阿拍摄的中国龙源电力集团南非公司运营的德阿风电项目风机（2021年11月22日摄）。新华社记者 吕天然 摄', '在“云帆高张、昼夜星驰”的古丝绸之路上，中非互通有无、相知相交。此次会晤，在两国元首见证下，《中南关于同意深化“一带一路”合作的意向书》签署，展现更加广阔的发展前景。', '——截至目前，我国已同152个国家、32个国际组织签署了200多份共建“一带一路”合作文件，遍布全球五大洲；', '——引领我国对外开放持续深化，沿边地区从开放“末梢”变为“前沿”，陆海内外联动、东西双向互济的全方位开放大格局加快形成；', '——共建“一带一路”理念写入联合国、亚太经合组织等多边机制成果文件，“一带一路”的建设成果扎扎实实，给世界带来了更多的光明、机遇和繁荣，得到国际社会广泛认可……', '人们清晰记得，2013年9月7日，习近平主席在哈萨克斯坦纳扎尔巴耶夫大学深情讲述：', '“我的家乡陕西，就位于古丝绸之路的起点。站在这里，回首历史，我仿佛听到了山间回荡的声声驼铃，看到了大漠飘飞的袅袅孤烟。这一切，让我感到十分亲切。”', '此后不到一个月，习近平主席在印度尼西亚国会发表演讲指出：“几百年来，遥远浩瀚的大海没有成为两国人民交往的阻碍，反而成为连接两国人民的友好纽带。满载着两国商品和旅客的船队往来其间，互通有无，传递情谊。”', '顺应经济全球化的历史潮流，顺应全球治理体系变革的时代要求，顺应各国人民过上更好日子的强烈愿望，习近平主席开创性提出的共建“一带一路”倡议，赋予古代丝绸之路新的时代内涵。', '从历史维度看：人类社会正处在一个大发展大变革大调整时代，和平发展大势不可阻挡，变革创新步伐持续向前。', '从现实维度看：我们正处在一个充满挑战的世界，和平赤字、发展赤字、安全赤字、治理赤字，摆在全人类面前。', '习近平主席指出：“在‘一带一路’建设国际合作框架内，各方秉持共商、共建、共享原则，携手应对世界经济面临的挑战，开创发展新机遇，谋求发展新动力，拓展发展新空间，实现优势互补、互利共赢，不断朝着人类命运共同体方向迈进。这是我提出这一倡议的初衷，也是希望通过这一倡议实现的最高目标。”', '这是2023年9月30日在印度尼西亚普哇加达拍摄的一列行驶中的雅万高铁高速动车组（无人机照片）。新华社记者 徐钦 摄', '2017年5月，人民大会堂《江山如此多娇》巨幅画作前，习近平主席同出席首届“一带一路”国际合作高峰论坛的各国贵宾合影留念。', '习近平主席的一番话凝聚广泛共识：“我们完全可以从古丝绸之路中汲取智慧和力量，本着和平合作、开放包容、互学互鉴、互利共赢的丝路精神推进合作，共同开辟更加光明的前景。”', '全面深化改革的关键时期，推进“一带一路”建设写入党的十八届三中全会决定，成为形成全方位开放新格局的重要举措。', '2015年10月，党的十八届五中全会赋予“一带一路”建设清晰的定位——“扩大开放的重大战略举措和经济外交的顶层设计”。', '2019年10月25日，满载着82个标准箱的中欧班列（义乌—列日）“世界电子贸易平台（eWTP）菜鸟号”首趟列车抵达比利时列日物流多式联运货运场站。新华社记者 潘革平 摄', '2016年4月，十八届中共中央政治局就历史上的丝绸之路和海上丝绸之路进行第三十一次集体学习。习近平总书记指出，“一带一路”建设是我国在新的历史条件下实行全方位对外开放的重大举措、推行互利共赢的重要平台。', '2017年10月，党的十九大报告明确要以“一带一路”建设为重点，坚持引进来和走出去并重，遵循共商共建共享原则，加强创新能力开放合作，形成陆海内外联动、东西双向互济的开放格局。', '2022年10月，党的二十大报告专章部署“加快构建新发展格局，着力推动高质量发展”，要求“推进高水平对外开放”，强调“推动共建‘一带一路’高质量发展”。', '源于实践的理论结晶，深刻回答中国与世界发展联系的时代之问，共建“一带一路”倡议推动新时代中国向更高水平开放型经济新体制不断迈出新步伐。', '汲取“天下观”与“和文化”的思想精髓，与马克思主义“共同体思想”一脉相承，共建“一带一路”倡议将中国梦与世界梦紧紧相连，打造具有更高境界的超越不同民族、不同国家、不同文化的全球公共产品。', '“推进‘一带一路’建设，要聚焦发展这个根本性问题，释放各国发展潜力，实现经济大融合、发展大联动、成果大共享”；', '“以共建‘一带一路’为实践平台推动构建人类命运共同体，这是从我国改革开放和长远发展出发提出来的，也符合中华民族历来秉持的天下大同理念，符合中国人怀柔远人、和谐万邦的天下观，占据了国际道义制高点”……', '10年间，中国举办两届“一带一路”国际合作高峰论坛，为各参与国家和国际组织深化交流、增进互信、密切来往提供重要平台，为更多国家和人民创造发展机遇。', '10年间，习近平总书记三次在相关座谈会上发表重要讲话，主持召开会议研究丝绸之路经济带和21世纪海上丝绸之路规划，发起建立亚洲基础设施投资银行和设立丝路基金，在出国访问和国内考察期间关心推动“一带一路”重大项目建设，在多边国际场合呼吁各方携手高质量共建“一带一路”……', '从倡议到实践，从夯基垒台、立柱架梁到落地生根、持久发展，从谋篇布局的“大写意”，到精谨细腻的“工笔画”……10年奋发，“一带一路”这颗梦想的种子，渐渐长成枝繁叶茂的参天大树。', '关于中欧班列的好消息频传：中欧班列（西安）累计开行突破2万列；“义新欧”中欧班列义乌平台开通第19条线路；长三角中欧班列已累计开行逾2万列、运送货物超200万标准箱……', '驰而不息，这支往返欧亚大陆的“钢铁驼队”开创了亚欧国际运输新格局，搭建了沿线经贸合作新平台，有力保障了国际产业链供应链稳定，如今已通达欧洲25个国家217个城市，见证共建“一带一路”倡议极不平凡的推进历程。', '百年变局叠加世纪疫情，逆全球化思潮抬头，单边主义、保护主义明显上升，世界经济复苏乏力，全球性问题加剧……面对国际局势中的风风雨雨乃至惊涛骇浪，习近平主席字字铿锵：我们愿同合作伙伴一道，把“一带一路”打造成团结应对挑战的合作之路、维护人民健康安全的健康之路、促进经济社会恢复的复苏之路、释放发展潜力的增长之路。', '深夜，河南郑州。卢森堡国际货运航空公司郑州站里，工人们正忙着接送航班，将一批批货物发往世界各地。', '对于卢森堡人来说，这条航线承载着特殊记忆。新冠疫情时期，郑州－卢森堡航线不仅未停飞断航，还加密了航班，为中欧之间物资运输提供有力支持。卢森堡领导人曾表示，这是卢森堡及欧洲地区的生命线，是一条雪中送炭的空中桥梁。', '运送防疫物资的郑州—卢森堡航线货机在中国郑州新郑国际机场装机准备起飞（2020年3月22日摄）。新华社记者 李嘉南 摄', '3年多前，突如其来的世纪疫情暴发，人类面临严峻挑战。是并肩奋战还是隔岸观火？是同舟共济还是以邻为壑？这考验着人类的良知、智慧与勇气。', '习近平主席以鲜明态度给出答案：“各国命运紧密相连，人类是同舟共济的命运共同体。无论是应对疫情，还是恢复经济，都要走团结合作之路，都应坚持多边主义。促进互联互通、坚持开放包容，是应对全球性危机和实现长远发展的必由之路，共建‘一带一路’国际合作可以发挥重要作用。”', '一趟趟防疫物资专列，一架架“疫苗航班”……3年间，中国向153个国家和15个国际组织提供数千亿件抗疫物资，向120多个国家和国际组织提供了超过22亿剂疫苗，同31个国家一道发起“一带一路”疫苗合作伙伴关系倡议。', '今年8月，为期5天的第七届中国－南亚博览会在云南昆明落下帷幕，338个投资项目进行集中签约，协议投资额达4040亿元。', '2013年，共建“一带一路”倡议提出之年，首届中国－南亚博览会落户“春城”。彼时，中国和南亚国家贸易总额不足千亿美元；2022年，这一数据已接近2000亿美元，中国连续多年成为巴基斯坦、孟加拉国、马尔代夫等国最大贸易伙伴。', '习近平总书记指出，以“一带一路”建设为契机，开展跨国互联互通，提高贸易和投资合作水平，推动国际产能和装备制造合作，本质上是通过提高有效供给来催生新的需求，实现世界经济再平衡。', '2013年至2022年，我国与“一带一路”共建国家货物贸易进出口额、非金融类直接投资额年均分别增长8.6%和5.8%；与共建国家双向投资累计超过2700亿美元；在共建国家承包工程新签合同额、完成营业额累计分别超过1.2万亿美元、8000亿美元。', '10年来，举办广交会、服贸会、消博会、进博会等大型合作交易展会，促成《区域全面经济伙伴关系协定》生效实施，发起成立亚投行、新开发银行等国际合作机制……开放大门越开越大的中国，为世界经济复苏提供更多机遇。', '“这是发展的倡议、合作的倡议、开放的倡议，强调的是共商、共建、共享的平等互利方式。”习近平主席指明要旨。', '2023年8月3日，中欧班列（西安－塔什干）陕乌经贸合作隆基绿能光伏组件产品出口专列从西安国际港站驶出，开往乌兹别克斯坦塔什干。', '本次发货的光伏组件是乌兹别克斯坦1吉瓦光伏项目的首批产品。根据协议，中国企业将在乌兹别克斯坦建设两座太阳能光伏电站，预计投产后每年发电23亿千瓦时，每年约减少天然气消耗5.88亿立方米。', '习近平总书记指出，“一带一路”建设不应仅仅着眼于我国自身发展，而是要以我国发展为契机，让更多国家搭上我国发展快车，帮助他们实现发展目标。', '坚持正确义利观，以义为先、义利并举，不急功近利，不搞短期行为；统筹我国同共建国家的共同利益和具有差异性的利益关切，寻找更多利益交汇点，调动共建国家积极性……10年来，共建“一带一路”提升全球互联互通水平，推动国际投资贸易繁荣发展，为变乱交织的国际局势注入更多确定性。', '10年来，共建“一带一路”拉动近万亿美元投资规模，形成3000多个合作项目，为共建国家创造42万个工作岗位，让近4000万人摆脱贫困。', '10年来，中国与80多个共建国家签署政府间科技合作协定，共建了9个跨国技术转移平台，加强科技创新合作交流，加速创新要素对接共享……', '“随着时间发展，‘一带一路’倡议不断具象化，像是不断生长进化的自然过程，从没有其他倡议这样有生命力。”英国学者马丁·雅克发文说，“这10年，‘一带一路’倡议已经改变了世界。”', '多瑙河畔，河钢集团塞尔维亚斯梅代雷沃钢厂新投运的烧结机、加热炉等生产工艺改造项目有序运转，助推当地经济驶入绿色发展“快车道”。', '河钢塞钢的前身是成立于1913年的塞尔维亚斯梅代雷沃钢厂，曾因经营问题几近破产。在共建“一带一路”倡议引领下，河钢集团与塞尔维亚政府于2016年4月签署收购协议成立河钢塞钢，构建支持支撑平台，仅半年企业就扭亏为盈。运营7年来，河钢塞钢营收超过60亿美元，连续4年蝉联塞尔维亚第一大出口企业，成为高质量共建“一带一路”的标志性工程和代表中国企业形象的“金名片”。', '2022年2月，习近平主席在人民大会堂会见来华出席北京2022年冬奥会开幕式的塞尔维亚总统武契奇时指出，近年来，两国关系实现跨越式发展，双方落实一批基础设施、能源、产能等领域重要合作项目，在中东欧国家中位居前列。同时，习近平主席强调，“将中塞传统友好转化为更多务实合作成果”。', '守望相助、务实合作，将带来更多民生福祉。从倡议提出之日起，造福人民、惠及民生，就是共建“一带一路”不变的目标。', '7年前，推进“一带一路”建设工作座谈会上，习近平总书记强调，让“一带一路”建设造福沿线各国人民。', '5年前，推进“一带一路”建设工作5周年座谈会上，习近平总书记强调，造福沿线国家人民，推动构建人类命运共同体。', '2年前，第三次“一带一路”建设座谈会上，习近平总书记为继续推动共建“一带一路”高质量发展把脉定向：以高标准、可持续、惠民生为目标。', '10年来，把基础设施“硬联通”作为重要方向，把规则标准“软联通”作为重要支撑，把同共建国家人民“心联通”作为重要基础，在共建“一带一路”高质量发展中，这条造福世界的幸福之路越走越宽广。', '2014年12月，位于塞尔维亚首都贝尔格莱德的泽蒙－博尔察大桥建成通车，这是中国企业在欧洲承建的首个大桥工程，结束了近70年来贝尔格莱德市多瑙河上仅有一座大桥的历史；', '2018年1月，亚吉铁路进入商业运营，这是非洲第一条全线采用中国技术和装备建设的标准轨电气化客货共线铁路，埃塞俄比亚首都亚的斯亚贝巴至吉布提的物流运输时间和成本大幅降低；', '2016年10月3日，在埃塞俄比亚首都亚的斯亚贝巴附近，一列试运行列车在亚吉铁路上行驶。新华社记者 孙瑞博 摄', '2021年12月，中老铁路全线开通运营，作为联系东南亚的陆上快速通道，中老铁路打开老挝“陆锁国”困境，让物流运输变得快捷和成本可控；', '2023年3月，由中国企业承建的乌干达最大水电站——卡鲁玛水电站首台机组成功发电并入乌干达国家电网，6台机组全部投产后，将增加600兆瓦发电总量，在原基础上提升近50%，为乌干达经济社会发展提供源源不断的“绿色能源”；', '2023年10月2日，印度尼西亚雅加达哈利姆高铁站，印尼总统佐科在雅万高铁启用仪式上按下启用键。雅万高铁是中国高铁首次全系统、全要素、全产业链在海外落地……', '从历史深处走来，“一带一路”对于共建国家和地区的人民来说，是水和电，是路和桥，是学校和医院，是增加的收入、改善的生活和值得期待的明天。', '习近平主席深刻指出：“唯有发展，才能消除冲突的根源。唯有发展，才能保障人民的基本权利。唯有发展，才能满足人民对美好生活的热切向往。”', '20多年前，他在福建工作期间接待了来访的巴布亚新几内亚东高地省省长拉法纳玛。“我向他介绍了菌草技术，这位省长一听很感兴趣。我就派《山海情》里的那个林占熺去了。”', '福建农林大学国家菌草工程技术研究中心首席科学家林占熺（右一）在福建农林大学菌草园让尼日利亚留学生试尝幼嫩菌草的味道（2021年8月12日摄）。新华社记者 林善传 摄', '林占熺，这位福建农林大学的研究员，在上世纪80年代发明了“以草代木”栽培食用菌的菌草技术。《山海情》剧中的农技专家凌一农，原型正是他。那次会见之后不久，林占熺远赴南太平洋岛国，由此书写了“小小一株草，情接万里长”的佳话。', '如今，通过举办菌草技术培训班、建设菌草技术示范基地、与联合国有关部门合作召开系列研讨会等交流合作形式，这项技术在“一带一路”共建国家被广泛应用，不少人因菌草技术走上了摆脱贫困之路。', '“小而美的项目，是直接影响到民众的。今后要将小而美项目作为对外合作的优先事项，加强统筹谋划，发挥援外资金四两拨千斤作用，形成更多接地气、聚人心的项目。”习近平总书记语重心长。', '10年来，我国与共建国家广泛开展了多层次、多领域交流合作，打造一批“小而美”民生工程，铺就通民心、达民意、惠民生的发展大道：', '我国援建并于2022年在柬埔寨投入使用的特本克蒙中柬友谊医院，极大改善当地医疗条件，有效降低当地居民看病花销；', '工作人员在柬埔寨金边国际机场运输中国政府援助柬埔寨的科兴新冠疫苗（2021年10月14日摄）。新华社发（批隆 摄）', '塔吉克斯坦首都杜尚别的面粉加工厂在我国工艺设计和机电设备加持下重焕生机，产能大幅提高，“中国制造”的面粉成了当地的“紧俏货”；', '博茨瓦纳东部马哈拉佩镇的水厂在我国企业帮助下升级改造，“村里再也没有停过水”的同时，水质也远远高出了博茨瓦纳生活用水规定的标准；', '这是不断铺就的“人才之路”——我国已成功举办270多期菌草技术培训班，为共建国家培训相关人才1万多人；我国企业在共建国家建设的境外经贸合作区已为当地创造42.1万个就业岗位；', '这是持续加强的“健康之路”——我国积极扩大与共建国家在妇幼健康、残疾人康复、传染病防治、传统医疗等领域的合作，提供医疗援助和应急治疗救助，提高协同处理突发公共卫生事件的能力；', '这是备受关注的“减贫之路”——我国持续实施乡村减贫推进计划和减贫示范合作技术援助项目，预计到2030年可使相关共建国家的760万人摆脱极端贫困、3200万人摆脱中度贫困，并将使全球收入增加0.7%至2.9%；', '“‘一带一路’建设不是空洞的口号，而是看得见、摸得着的实际举措，将给地区国家带来实实在在的利益。”10年来，共建国家经济社会的发展、人民生活的改善和获得感的提升，成为习近平主席这一重要论断最生动的注解。', '共建“一带一路”倡议提出10周年之际，越来越多伙伴国家同中国双向奔赴，携手开启合作新篇章。', '新年伊始，习近平主席同上任后首次访华的菲律宾总统马科斯会谈，中菲续签“一带一路”合作谅解备忘录；', '7月底，习近平主席先后会见来华访问的格鲁吉亚、毛里塔尼亚领导人，中格、中毛分别签署共建“一带一路”合作规划；', '8月底，哈萨克斯坦总理斯迈洛夫表示，哈方愿深化同中方在“一带一路”框架下的互利合作，造福两国和两国人民……', '当前和今后一个时期，我国处于中华民族伟大复兴战略全局和世界百年未有之大变局相互交织、相互激荡的关键时期，世界之变、时代之变、历史之变正以前所未有的方式展开。', '“今年是我提出共建‘一带一路’倡议十周年。这个倡议的根本出发点和落脚点，就是探索远亲近邻共同发展的新办法，开拓造福各国、惠及世界的‘幸福路’。”今年5月，习近平主席以视频方式出席欧亚经济联盟第二届欧亚经济论坛全会开幕式时，这样阐明初心。', '今年8月26日，结束出访回到国内，习近平总书记在乌鲁木齐听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报。', '“从实际出发抓好对外开放工作，加快‘一带一路’核心区建设，使新疆成为我国向西开放的桥头堡。”一路风尘仆仆，习近平总书记念兹在兹。', '今年5月在陕西，习近平总书记强调“更加深度融入共建‘一带一路’大格局，在扩大对内对外开放中强动力、增活力”；今年6月在内蒙古，习近平总书记强调“要积极参与共建‘一带一路’和中蒙俄经济走廊建设，提升对外开放水平”……', '今年7月，习近平总书记主持召开二十届中央全面深化改革委员会第二次会议。会议指出，要把构建更高水平开放型经济新体制同高质量共建“一带一路”等国家战略紧密衔接起来，积极参与全球治理体系改革和建设。', '以中欧班列、西部陆海新通道等为纽带，区域协调发展战略和区域重大战略相互激荡，中国对外开放向纵深推进，超大规模市场和产业链供应链优势持续释放，为世界创造更多需求、带来更多机遇。', '今年以来，各国政要密集访华，中国发展高层论坛、博鳌亚洲论坛、中国国际消费品博览会、中国进出口商品交易会、2023年服贸会先后举办，国际宾客接踵而至……', '“中国正在以中国式现代化全面推进中华民族伟大复兴，坚定不移推动高质量发展和高水平开放，坚定不移维护世界和平、促进共同发展。”习近平主席的话，道出“中国好，世界才更好”的深刻内涵，也揭示了中国推动共建“一带一路”的必然逻辑。', '2018年，在亚洲基础设施投资银行项目资金支持下，帕德玛巴瑞村结束了不通电的历史。这个项目惠及孟加拉国1250万农村人口。', '“倡议成立亚投行，就是中国承担更多国际责任、推动完善现有国际经济体系、提供国际公共产品的建设性举动，有利于促进各方实现互利共赢。”习近平主席阐明这一新举措的深远意义。', '设立丝路基金，推动人民币正式纳入特别提款权货币篮子；面对疾病、贫困、气候变化等诸多发展难题，推进共建“一带一路”同联合国2030年可持续发展议程有效对接、协同增效……中国一直在行动。', '正如习近平主席今年8月会见纳米比亚总统根哥布时所说：“中国共产党领导中国人民走出了一条具有中国特色的社会主义道路，同时努力推动构建人类命运共同体，通过提出共建‘一带一路’等一系列倡议，让发展中国家实现共同发展繁荣，为发展中国家争取更加平等的权利。”', '今年5月，陕西西安，习近平主席同中亚五国元首齐聚一堂、共商大计，擘画中国－中亚关系新蓝图。', '10年来，中国同中亚国家携手推动丝绸之路全面复兴，倾力打造面向未来的深度合作，将双方关系带入一个崭新时代：中吉乌公路横跨天山，中塔公路征服帕米尔高原；中欧班列过境中亚，不断织密中国与中亚货物贸易运输网络；中国－中亚天然气管道、中哈原油管道穿越茫茫大漠向东而来……', '“长安复携手，再顾重千金”。如今，双方更进一步：习近平主席同中亚五国元首一致同意，携手构建更加紧密的中国－中亚命运共同体。', '行动持续推进：中老命运共同体、中巴命运共同体等双边命运共同体越来越多，中非命运共同体、中阿命运共同体、中拉命运共同体等多边命运共同体建设稳步推进。', '共识不断凝聚：“一带一路”建设顺应各国人民渴望共享发展机遇、创造美好生活的强烈愿望，符合建设持久和平、普遍安全、共同繁荣、开放包容、清洁美丽的世界的内在要求，成为各方携手迈向人类命运共同体的康庄大道。', '“中方将举办第三届‘一带一路’国际合作高峰论坛，欢迎各方参加论坛活动，共同把这条造福世界的幸福之路铺得更宽更远”，习近平主席向世界发出新的“丝路邀约”。', '10月17日至18日，第三届“一带一路”国际合作高峰论坛将如约而至。这是对“一带一路”倡议提出10周年的隆重纪念，也将是总结经验、擘画蓝图，引领高质量共建“一带一路”持续向前发展的盛会。', '向着中国式现代化宏伟目标，坚定不移推进共建“一带一路”高质量发展，中国将携手世界，共同书写国家互利共赢、人民相知相亲、文明互学互鉴的丝路时代新篇，为推动构建人类命运共同体作出新的更大贡献。（记者：邹伟、安蓓、陈炜伟、郑明达、叶昊鸣、严赋憬、李德欣）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>42</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>省国资委以管资本为主推进职能转变方案政策解读</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/656749.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '党中央、国务院高度重视加强和改进国有资产监管工作。中央深化国企改革指导意见、《国务院关于改革和完善国有资产管理体制的若干意见》（国发〔2015〕63号）都将以管资本为主推进国资监管机构职能转变作为完善国有资产管理体制的重要内容。2017年4月，《国务院办公厅关于转发国务院国资委以管资本为主推进职能转变方案的通知》（国办发〔2017〕38号）印发实施。为贯彻落实38号文件精神，省国资委结合我省实际，起草了《省国资委以管资本为主推进职能转变方案》（以下简称《方案》），经1月8日省政府第70次常务会议审议通过，由省政府办公厅予以转发。', '（一）总体要求。包括指导思想和基本原则。《方案》规定要以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的十九大和十九届二中、三中、四中全会精神，贯彻落实习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上的重要讲话精神，加快实现以管企业为主向以管资本为主的转变。《方案》明确了准确定位、依法监管、激发活力、提高效能、坚持党的领导5条基本原则。', '（二）重点任务。提出5方面重点任务。一是强化以管资本为主的监管职能，二是精简国资监管事项，三是加强国有资产监督，四是全面加强企业党的建设，五是改进和完善国资监管方式。', '（三）组织实施。做好5项工作。即优化调整具体监管职能，公布精简的监管事项，调整出资人监管权责清单，制定改革国有资本授权经营体制办法和授权放权清单，贯彻落实《辽宁省企业国有资产监督管理条例》。', '一是坚持简政放权到位。明确子企业事项全部交由省属企业决策；确定精简监管事项29项，激发企业活力。', '二是完善规划投资监管。规定设立战略规划、产业布局决策委员会，加强对发展战略规划和产业布局的指导审核。省属企业建立健全投资决策委员会制度，严格落实投资项目的决策主体、执行主体和责任主体。', '三是强化风险防范。在加强国有资产监督部分增加企业债务风险防控内容，积极防范化解债务风险。', '四是加强指导服务。坚持寓监管于服务之中，在服务中改进和完善监管，推动构建全省国资监管大格局。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>42</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>年文化事业工作综述</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/809603.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '月5日在辽宁省广播电视局五星际广播电视台、无线转播台(站)评比中，阜蒙县台、彰武县台、彰武县广播电视台技术中心获辽宁省五星级广播电视台、无线转播台（站）。', '月11日，市政府与辽宁大学在宝地温泉小镇签署了战略合作框架协议，辽宁大学阜新城市研究院成功揭牌。', '月15日，营动中国 健康辽宁 我与奥运同行 为辽宁申冬助力暨2021—2022辽宁省青少年冬令营（阜新站）启动仪式在黄家沟滑雪场举行。', '月20日，副市长林莉带队到阜蒙县十家子玛瑙小镇打造“玛瑙+”多产业融合发展进行实地调研。', '月20日，省文旅厅副厅长赵辉一行来阜督查检查全市文旅系统“两节”期间疫情防控和安全生产工作。', '“黄家沟滑雪娱乐之旅”入选国家体育总局、文化和旅游部“2022年春节假期体育旅游精品线路”。', '月26日，市公共文化服务中心群众艺术馆在海州区韩家店镇举办乡村“村晚”，丰富群众节日期间文化生活，并作为全省示范场于正月初五在辽宁公共文化云上播出。', '月2日，阜新文旅冬季形象宣传片《冬奥在北京 冰雪游阜新》亮相美国纽约时报广场中国屏。', '月4日，为繁荣我市群众文艺创作，在市工人文化宫举办阜新市第十四届“百花迎春”优秀群众文艺节目调演，在国家公共文化云线上直播，点击量超过40万次。', '我市文艺工作者结合全市抗疫工作大局，开设“抗疫春天中的文化力量”系列宣传专栏，集中创作了曲艺、快板、京剧、评剧、原创歌曲等一大批文艺作品，以多种多样的文艺形式为疫情防控贡献文旅力量。被中央广电总台国际在线、人民政协网、中央广电总台辽宁站、辽宁日报、阜新日报等多家媒体转载刊发。', '开展沈阳都市圈春季旅游营销活动。借助沈阳都市旅游圈平台宣传我市6条旅游线路及部分网红打卡点位，开启我市2022年四季旅游营销活动。', '月25日，市政府印发文件，将查海遗址、他尺西沟遗址、贾家沟西遗址、程家梁遗址、朝力马遗址纳入《查海文化遗址保护名录》公布保护。', '贯彻落实国家《关于进一步调整旅游服务质量保证金相关政策的通知》，全市符合条件旅行社办结率100%。加强全国旅游监管平台管理，完成质保金信息变更备案。', '月29日，以培育文旅复合型、实用型产业人才为目标，市文旅广电局首期推进“四产融合”暨文旅体产业提质升级大讲堂开课。', '月10日，海棠山风景区、黄家沟旅游度假区、乌兰木图山风景区入选全国乡村旅游重点线路。', '原创视频《海棠春晖图》得到国家文旅部文旅之声微博视频号、新华县融微博视频号、新华网手机版、新浪新闻刊载和推送，实现我市文化与旅游产品推广的紧密融合。', '月18日，在全市开展了5.18国际博物馆日系列宣传活动，开展送展走基层、“流动博物馆”等活动，宣传文物保护法律法规及阜新8000年查海文化。', '月19日中国旅游日，市文旅广电局出台了景区优惠政策，开展了“万名导游带您云旅游”景区网络直播活动、2022年阜新市夏季旅游启动仪式“中国旅游日”活动、走进阜新黄家沟旅游度假区线上直播、沙画带你云游阜新和“我们的中国梦——文化进万家”中国旅游日专场演出等系列活动。', '月19日至20日，省广电局副局长栗万红带队，赴我市开展迎接党的二十大广播电视安全播出和安全生产大检查工作。', '月25日，以阜新竞走之乡为全国竞走项目走在世界前列做出突出贡献为内容的主题新闻宣传：《前新行的脚步永不停歇---记阜新南站站前广场&lt;走向世界&gt;雕塑背后的故事》刊发。', '月27日，辽宁省第十七届“群星奖”评奖结果公示，我市5个节目获得“群星奖”，获奖数量位列全省第4。其中舞蹈《唢呐情》代表辽宁省参加全国第十九届“群星奖”。', '月29日，市文旅广电局和市文明办联合举办阜新市喜迎党的二十大社会主义核心价值观原创儿童组歌演唱会。', '组织文旅企业参加“畅游辽宁 四季任我行”辽宁文化和旅游对接江苏春夏旅游推介会，阜新文化旅游旅游产品精彩亮相南京。', '月11日“文化和自然遗产日”，非遗产品进驻宝地温泉小镇展示销售，选调18项市级以上非遗项目进驻宝地温泉小镇开展非遗进景区展示展演。', '省考古研究院对彰武县冯家镇那力村古墓葬开展抢救性考古发掘，7月7日通过省文物局专家验收。', '月13日，《阜新文旅提交靓丽“绿色答卷”》在《阜新日报》刊发，充分展示阜新市在走生态优先、绿色发展之路上的新成就。', '启动阜新市文旅体领域2022年“应急演练宣传周”活动。6月15日，阜新万人坑死难矿工纪念馆、太平区消防救援大队、阜矿集团林业分公司开展了联合消防演练。', '月5日，市歌舞剧院京剧团来到市实验小学开展京剧进校园活动。演员们画脸谱、着戏服、表演了京剧《小放牛》《赤桑镇》等片段，深受师生的欢迎和喜爱，弘扬了中华优秀传统文化。', '开展“阜约之美”系列文旅品牌评选活动，评选产生阜新“十大网红打卡地”“十大文旅讲解员”“十大文创伴手礼”“十大文旅康养商品”。', '月15日，成功举办了第十七届辽宁•阜新玛瑙文化旅游节，期间举办了“七展一赛一博览会”等活动。通过举办第九届“红玛瑙杯”玉石雕刻大赛评选出金、银、铜、最佳工艺、最佳创意奖项129件，现场交易额达300余万元，在活动内容、活动规模和影响力较往届均有创新提升。', '月15日，举办了中国阜新第六届篮球节暨阜新市第十一届FBA业余篮球俱乐部联盟赛揭幕战，来自全市的50余家俱乐部，共计56支队伍参加了开幕式。', '在省广电局组织开展的2021年度评选工作中，阜新市公共文化服务中心微波中继部被授予安全播出先进集体，广播电视系统7人获安全播出先进个人称号。', '◇积极组织文艺院团以迎接宣传贯彻党的二十大为主线，深入农村、社区、厂矿、军营、学校等基层一线开展公益惠民演出31场。', '◇7月18日，郭大顺、赵志军、高大伦、孙延国等专家参加研讨并到查海遗址实地调研。7月19日，查海文化遗址群保护及开发利用暨查海时代高峰论坛筹备工作研讨会在宝地温泉小镇召开。', '月28日，新疆塔城地区和布克赛尔县江格尔艺术团赴我市进行艺术交流演出。本次活动由辽宁省文化和旅游厅组织实施,是省委、省政府文化援疆、文化润疆的一项具体举措.', '查海遗址博物馆、阜蒙县民族博物馆入选“乡村是座博物馆”128条全国乡村旅游精品线路。', '月31日，“喜迎二十大 奋进新征程”2022“厚道阜新”消夏文化广场活动在玉龙湖广场正式启动，活动历时2个月。', '月1日，“喜迎二十大 共叙鱼水情”阜新市庆祝建军95周年文艺晚会在玉龙湖广场隆重启幕。', '组织旅游企业参加2022东北亚文化旅游创意博览会工作，我市文旅产品和文创产品在博览会上受到一致好评。', '月8日，我市在玉龙湖广场举行全民健身展示展演活动。来自全市各协会的38支展演队伍、2000余人，分31个项目进行展演，进一步助力群众体育事业蓬勃开展。', '月12日—13日，省文化和旅游厅副厅长赵辉带领国内知名专家团队一行到我市开展全域旅游资源踏查工作。', '月15日—17日，在辽宁省第一届青少年冬季运动会冰球比赛中，我市冰球队获得4枚金牌，金牌总数位居全省之首，并荣获体育道德风尚奖。', '月15日，由辽宁省体育局、辽宁省体育总会主办的辽宁省健身气功站点交流比赛暨全国健身气功站点联赛预选赛在营口奥体中心举行。我市健身气功代表队参加了八段锦、易筋经、导引养生功、五禽戏、马王堆导引术，取得四个冠军、两个亚军的佳绩，并荣获体育道德风尚奖，是获得冠军奖牌最多的代表队，开创了阜新健身气功单次比赛获奖历史先河。', '月15日，在两县五区开展国民体质监测，历时2个月，覆盖2800余人。进一步了解掌握市民体质现状和变化规律，为提高市民的身体素质和健康水平提供了数据支持。', '月16日，省文化和旅游厅第六督导检查组来我市检查督导长城国家文化公园建设工作，对我市工作予以肯定，并要求要充分利用地方资源禀赋，进一步做好长城国家文化公园（阜新段）建设工作。', '月18日，第二届中国工艺美术博览会暨第八届中国工艺美术大师颁证大会在南京开幕，我市玉雕大师王磊获颁“中国工艺美术大师”称号。', '◇8月 19日,瑞应寺大雄宝殿修缮工程，德惠寺五方佛殿、观音殿、地藏殿修缮工程，海棠山摩崖造像安防升级改造工程，阜新蒙古族自治县民族博物馆馆藏文物预防性保护方案，彰武县博物馆馆藏珍贵铁质文物保护修复方案5个项目通过省文旅厅2023年国家文物保护项目预算评审，审定金额为1330.65万元。', '月22日，在辽宁省第十届少数民族传统体育运动会珍珠球比赛中，我市篮球学校男、女珍珠球队以全胜战绩包揽男女队双冠军，实现了五连冠的好成绩。', '月22日，市文旅广电局举办了“阜新市‘智慧旅游’平台建设工作培训班”，加快我市“智慧旅游”体系建设步伐，推动文化和旅游融合高质量发展。', '月23日市文旅局召开党组（扩大）会传达学习习近平总书记在辽宁考察时重要讲话精神。', '◇8月24日，“我们的中国梦 文化进万家”新邱区专场慰问演出在新邱区防汛救灾集中安置点举办。', '◇8月26日，市文旅广电局举办了“阜新市第三届文化市场综合执法岗位练兵技能竞赛”活动。共有市县两级18名文化市场综合行政执法人员组成6支代表队参赛。', '◇8月29-30日，我市少年儿童乒乓球竞标赛圆满落幕。来自全市200余名乒乓球小将参加了比赛，决出了三个团体九项个人奖项。', '月16日，市委副书记、市长周鹏举率队深入市体育运动学校、中国篮协阜新篮球学校开展实地调研，看望慰问教练员和运动员，现场研究解决学校办学和建设发展面临的实际问题。', '市文旅广电局联合市公安局、市司法局、市住建局、市卫健委、市应急局、市市场局、市文化市场综合行政执法队等部门开展了文化市场跨区域、跨部门联合执法行动，确保国庆节前夕全市文化市场稳定有序，维护了意识形态和文化领域安全。', '月28日，市委常委、市委宣传部部长王一民带队先后到阜新市微波中继站、细河区黄家沟休闲营地、市广播电视台、海州区柠檬电竞馆等场所督导检查文旅广电领域安全生产和疫情防控工作。', '十一期间，全市A级以上景区首次推出免费开放政策，接待游客达到去年同期2.4倍，有效推动文旅经济加快复苏。', '月1日，市文旅广电局会同市工信、无线电委员会、公安等部门，确定并取缔2处“黑广播”取缔，净化了广播电视的安全环境和全市的无线电环境。', '月8日，市文旅广电局在阜新市广播电视安全播出指挥部召开迎接党的二十大全市广播电视和网络视听行业安全保障工作会议，认真落实好国家广电总局、省广电局和市委市政府关于迎接党的二十大有关工作的部署要求。', '月9日，针对国庆黄金周旅游消费季情况，总结形成了《大盘点，国庆假期阜新文旅市场五大特点》报告并刊发。', '在《阜新日报》刊发《打出融合发展组合拳 迈向全域旅游新时代——党的十八大以来阜新市旅游产业发展综述》。', '◇10月10日—25日，联合市委宣传部和市委网信办开展的“喜迎二十大 奋进新征程”主题融媒体作品展播活动。', '月16日—23日，圆满完成党的二十大期间广播电视安全播出保障任务，全市广播电视未发生安全播出事故。', '月25日，黄家沟假日农场负责人石佳鑫、云七小院负责人王丹入选文化和旅游部2022年度乡村文化和旅游带头人名单。', '月26日，德力格尔自驾车旅居车营地荣获中国北方八省两市一区“最受欢迎自驾游目的地”、省自驾游协会“最受车友欢迎的景区”殊荣。', '我市歌舞剧院评剧团创排的评剧《靠山屯的笑声》 获得辽宁省“推进移风易俗、弘扬时代新风”小戏小品大赛一等奖。', '由市教育局和市文旅广电局共同主办，市体育事业发展中心（集团）协办的阜新市第三届中小学足球冠军联赛在市体育场隆重开赛。', '月15日，市委副书记、市长周鹏举赴北京前往国家文物局汇报查海遗址保护利用和新建博物馆改陈布展等工作情况，争取对查海遗址保护利用及新建博物馆给予支持。', '月15日，以弘扬彰武治沙精神为主线的现代评剧《沙海情》在阜矿集团煤矿工人文化宫举行首演并获得巨大成功。市四大班子领导同志，省文旅厅相关处室、各县区主要负责同志以及来自彰武县的党员干部代表到场观看。', '月16日，市委书记胡涛到ME篮球工厂看望来阜集训的辽宁沈阳三生飞豹篮球俱乐部一行。', '“奔跑吧，少年”冰雪进校园活动启动仪式在市奥体中心冰上运动中心举行。中华路小学50余名学生走进冰场，接受专业冰雪运动指导。', '月21日，在阜集训的辽宁男篮教练杨鸣率阜新培养输送的现役辽篮队员鄢手骐、吴昌泽、俞泽辰，专程赴中国篮协阜新篮球学校进行指导训练。', '月21日，文化和旅游部公共服务司对“中国民间文化艺术之乡”建设典型案例名单进行公示，我局推荐的《阜新蒙古族自治县于寺镇：古镇诗乡 引领乡村文化振兴》入选。', '月7日，阜新市篮球协会召开2022年度会员大会。会议审议通过了新修订的阜新市篮球协会章程，并为李增新、李明分别颁发阜新市篮球协会名誉会长及会长证书。', '由辽宁省文学艺术界联合会、辽宁省戏剧家协会联合主办的第十九届辽宁戏剧玫瑰奖评奖活动在沈阳举办。阜新市歌舞剧院安在（《苏三起解》中饰苏三、《穆桂英挂帅》中饰穆桂英），孙静卓（现代评剧《牵·纤手》中饰于梅）在表演类中分获京剧、评剧两个奖项。', '月12日至15日，在第三届辽宁省文化市场综合执法技能竞赛决赛中，市文化市场综合行政执法队参赛队员荣获团体二等奖，团体总分第三名。执法队李明蒴荣获个人全能二等奖，案卷纠错项目三等奖。我局荣获优秀组织奖。', '月15—16日，以弘扬彰武治沙精神为主线的现代评剧《沙海情》在彰武县演出获得成功。线上观看人数达6万余人次。', '月22日，组织辽宁省珠宝玉石首饰行业协会会员（阜新区域）参加辽宁省珠宝玉石首饰行业协会第六届理事会第二次会议。', '大型新闻策划报道《长城两边是故乡》在《阜新日报》刊发，扎实推进国家长城文化公园阜新段建设，保护和利用好阜新丰富文物和文化资源。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>十七届市政府第次常务会议</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/777238.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '6月28日至29日，市政府召开党组扩大会议和常务会议，传达学习4月28日中共中央政治局会议精神，传达学习习近平总书记在二十届中央全面深化改革委员会第一次会议上、在二十届中央财经委员会第一次会议上的重要讲话精神，以及省委全面深化改革委员会会议、省委常委会会议精神；传达学习习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神。会议传达学习国务院总理李强在辽宁调研时的讲话精神，传达学习省长李乐成来阜专题调研讲话精神，研究市政府系统贯彻落实意见。市长、市政府党组书记周鹏举主持会议并讲话。', '会议强调，要深入学习贯彻习近平总书记在二十届中央全面深化改革委员会第一次会议上的重要讲话精神，进一步提高政治站位，深刻认识到全面深化改革是稳大局、应变局、开新局的重要抓手，是推进中国式现代化阜新实践的根本动力。要突出重点、抓住关键，紧密结合实施全面振兴新突破三年行动，以更大力度更实举措抓好重点领域和关键环节改革攻坚。要夯实责任、确保实效，以钉钉子精神狠抓改革落实，为推进阜新全面振兴新突破提供强大动力。', '会议强调，一要深入领会习近平总书记在二十届中央财经委员会第一次会议上的重要讲话精神，认真落实省委常委会会议精神，主动对标对表，把发展经济的着力点放在实体经济上，着力提高人口整体素质。二要强化系统思维，超前谋划，重点围绕“四个优势产业”，扎实做好结构调整“三篇大文章”，着力打造现代化产业体系。三要深化教育卫生事业改革创新，全面提高人口素质，提升人口竞争优势，以人口高质量发展确保全面振兴新突破取得新成效。', '会议强调，要认真学习贯彻习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神，积极学习京津冀协同发展的先进经验，加快建设辽西融入京津冀协同发展战略先导区，深化与京津冀资源要素双向流动、协同创新和产业协作。', '会议要求，全市政府系统要深入贯彻落实李强总理在辽宁调研时的讲话精神，完整、准确、全面贯彻新发展理念，紧密结合实施全面振兴新突破三年行动，努力在全面优化营商环境、推进产业科技创新、深化改革开放、统筹发展和安全等方面下更大工夫，奋力创建“双示范市”。', '会议指出，省长李乐成专题调研大唐国际阜新煤制天然气项目建设和“路矿一体”重组进展情况，深入一线调研指导、现场办公，充分体现了省政府对我市发展的高度重视和殷切期望。一要认真学习领会省长李乐成讲话要求，坚决压实各级各有关部门责任，紧盯任务、强化举措，采取超常规举措，全力推动大唐国际阜新煤制天然气项目建设和“路矿一体”重组工作，确保各项任务有力有序推进、取得实实在在的成效，向省委、省政府交上一份合格答卷。', '会议审议并原则通过了《中共阜新市人民政府党组关于2023年上半年意识形态工作情况的报告》《中共阜新市人民政府党组关于2023年上半年履行全面从严治党主体责任情况的报告》。', '常务会议还审议并原则通过了我市退役军人事务、三季度支持开展促消费活动等有关文件，研究讨论了其他事项。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>42</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>李乐成率团赴那曲考察对口支援项目并看望慰问我省援藏干部人才用心用情尽职尽责把对口援藏工作做得更有成效</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/780688.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['李乐成率团赴那曲考察对口支援项目并看望慰问我省援藏干部人才 用心用情尽职尽责把对口援藏工作做得更有成效', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '李乐成率团赴那曲考察对口支援项目并看望慰问我省援藏干部人才 用心用情尽职尽责把对口援藏工作做得更有成效', '7月26日，省委副书记、省长李乐成率辽宁省党政代表团，赴西藏自治区那曲市考察对口支援项目，代表省委、省政府看望慰问我省援藏干部人才，向他们及家属转达省委书记郝鹏的问候。他强调，要深入贯彻习近平总书记关于西藏工作的重要指示，认真落实新时代党的治藏方略，扛牢责任、深化合作，把对口援藏工作做得更有成效，携手为中国式现代化建设贡献更大力量。', '自1995年对口援藏以来，辽宁省共选派10批次689名优秀干部人才赴藏工作，实施援藏项目553个，累计援助资金30.82亿元。考察中，李乐成代表省委、省政府和4300万辽宁人民，感谢西藏自治区特别是那曲市对我省援藏干部人才的关心帮助。他表示，辽宁是中国重要的工业基地、开放前沿，那曲是中国海拔最高的市，对口支援这条纽带把两地紧紧连在了一起。辽宁将全面贯彻党的二十大精神，结合实施全面振兴新突破三年行动，继续把援藏工作摆在突出位置，见人见物、用心用情，多谋长远之策、多行固本之举，更好助力那曲高质量发展。', '那曲市人民医院由辽宁实施“组团式”医疗帮扶，于2018年晋级三甲医院。“从哪个医院来？”“到那曲多久了？”“适应得怎样？”李乐成与医护人员亲切交流，详细询问医疗设施、患者救治等情况，勉励大家牢记嘱托、团结奉献，发挥人才和技术优势，与当地医护人员共同努力，把医院建设得更好，用精湛医术造福更多群众。', '代表团来到辽宁公寓，走进阅览室、医疗室、会议室、宿舍、餐厅，看望我省援藏干部人才，深入了解他们的工作、生活情况。一名来自公安战线的援藏干部告诉省领导，宿舍很温馨，工作很顺心。在公寓一楼大厅，李乐成与大家一一握手，希望大家深入学习贯彻习近平总书记重要指示精神，在当地党委、政府领导下，积极作为、苦干实干，携手把稳定、发展、生态、强边四件大事办好，让辽宁人民的聪明才智在雪域高原绽放更美的花朵、结出更丰硕的果实。', '“你们的健康是我们最大的牵挂。”李乐成反复叮嘱大家照顾好身体、安排好生活，省委、省政府将一如既往关心关注大家，做好服务保障，当好坚强后盾，解决实际问题、解除后顾之忧，让大家安心工作、建功立业。', '现场举行了那曲市高等学历继续教育校外教学点揭牌仪式，中国医科大学、辽宁师范大学、沈阳师范大学在那曲设立高等学历继续教育校外教学点，填补了当地该领域历史空白，将为那曲长治久安和高质量发展提供有力人才支撑。现场还发出《致辽宁援藏干部人才及家属的一封信》。', '省领导刘奇凡、姜有为，自治区及那曲市领导陈永奇、王卫东、旦巴、庄劲松参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>胡涛率阜新市党政代表团赴江苏盐城开展考察交流深化对口合作携手共赢发展</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/775179.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '6月11日至12日，市委书记胡涛率领阜新市党政代表团赴江苏省盐城市开展考察交流活动。盐城市委书记周斌、市长张明康出席考察交流活动。', '考察期间，阜新市党政代表团先后深入盐城环保科技城、大洋湾、盐城经济技术开发区，重点考察了江苏龙净科杰环保技术有限公司、江苏南大华兴环保科技股份公司、大洋湾文旅项目、天合光能盐城基地、捷威动力工业江苏有限公司、盐城东方投资开发集团有限公司等园区、企业和重点项目，双方就生态环境治理、文旅融合发展、国资国企改革、金融平台建设等领域进行深入沟通交流、达成广泛共识。期间，胡涛还看望慰问了我市派盐城挂职锻炼、跟岗学习干部。', '在盐城期间，胡涛与周斌、张明康就共同推动两市对口合作走深走实、携手实现高质量发展进行深入交流与会谈。胡涛代表市委、市政府对多年来盐城给予阜新转型发展的支持和帮助表示感谢。他说，阜新与盐城开展对口合作以来，两地秉承“政府引导、市场运作、优势互补、互利共赢”的原则，深化重点地区合作，在推进体制机制创新、扩大产业务实合作、强化科技创新协同、加强人才交流互动、推动平台载体共享等方面取得了积极进展和成效。当前，阜新正在深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，按照中央决策部署和省委工作要求，深入实施全面振兴新突破三年行动，聚焦“双千双百”目标，着力做好结构调整“三篇大文章”，全力构建以新能源、绿色食品、高端装备、精细化工等四个优势产业为支柱，以氢能源、智能无人机系统、大数据等新兴产业为支撑的多元产业发展格局。希望两地在巩固已有合作成果的基础上，在产业发展、改革创新、社会治理等方面深化务实合作，加大工作力度，提升项目质量，实现两地互利共赢、共同发展。', '周斌、张明康对阜新市党政代表团赴盐城考察交流表示欢迎，同时表示盐城将全面落实对口合作实施方案，深化对口合作机制，立足两地的区位、资源等优势，找准产业合作的切入点和契合点，围绕产业发展、生态环保、文旅融合等重点领域，共同谋划更多更好的合作项目，持续推动两地资源共享、市场共建、产业共兴，共同开创对口合作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>完善常态化长效化机制确保整治工作取得新突破</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/773445.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '5月24日下午，市委副书记、市长周鹏举到市信访局调研并主持召开专题会议，研究推进“问题楼盘”整治工作，强调要全面贯彻党的二十大精神和习近平总书记重要指示精神，认真落实更好统筹发展和安全重要要求，按照全省安全稳定工作会议部署，以“时时放心不下”的责任感和主动担当作为的精气神，守土有责、守土负责、守土尽责，主动深入细致做好“问题楼盘”整治等各项安全稳定任务，以高水平安全稳定护航高质量发展。', '会上，市委政法委汇报赴外市学习考察有关情况；市信访局汇报我市“问题楼盘”整治工作进展情况并提出工作建议。', '周鹏举强调，一要提高政治站位，主动扛起责任，自上而下压实拧紧安全稳定责任链条，落实好属地属事责任，严格落实领导干部接访、下访、约访、包案等制度，各单位主要负责同志要切实履行第一责任人职责，分管负责同志要切实履行直接责任人职责，切实解决好群众合理合法的利益诉求。二要健全完善常态化长效化工作机制， 深化府院联动机制和周例会调度推进机制，坚持“事要解决”，突出依法处理，加大工作力度，凝聚合力推动“问题楼盘”等各类矛盾问题高效处置、稳妥解决。三要充实攻坚力量，抽调一批政治过硬、本领过硬、作风过硬的党员干部充实到领导小组以及各工作专班中，全力推动“问题楼盘”整治工作尽快取得新突破。四要持续加强归口业务交流学习，学实招、取真经、扩思路，切实转化为推进工作的实际举措和具体行动，推动我市安全稳定工作取得新成效。', '市委副书记、政法委书记苏伟出席会议并讲话。市中级人民法院院长，市直有关部门负责同志参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>42</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市十七届人大二次会议关于清河门区实施生态治理绿电园区项目的建议号答复</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/781124.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['市十七届人大二次会议《关于清河门区实施“生态治理+绿电园区”项目的建议》（15号）答复', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '市十七届人大二次会议 《关于清河门区实施“生态治理+绿电园区”项目的建议》（15号）答复', '非常感谢您对清河门区生态治理和绿电园区工作的关心和支持。自我市推动能源综合创新示范市以来，市发改委积极落实国家发改委、能源局关于推进源网荷储和多能互补发展等方面政策，并通过赴内蒙古通辽市、霍林郭勒市等地考察学习，以及专家授课、座谈会等方式，深入研究清河门区的风光资源优势和采煤沉陷区实际情况，认为采取基于增量配电网的源网荷储一体化模式，通过采沉区生态治理建设新能源发电项目，与清河门区新材料产业园区建设增量配电网示范项目结合的就地消纳模式，打造电价洼地和招商高地，构建绿色工业新生态，是推动清河门区采沉治理和产业发展的最符合实际、最有效的途径，为加快推进清河门区“生态治理+绿电园区”项目实施，我们重点开展了以下工作：', '坚持保护环境、节约资源的基本国策和“绿水青山就是金山银山”的发展理念，通过采煤沉陷区综合治理，推动城乡统筹发展，提高采煤沉陷区生态环境质量，创新新能源消纳模式，通过源网荷储一体化等模式，将企业用电度电价格降低至0.5元，并增加地区绿电消纳能力，降低碳排放量，为落户企业降低能耗，大幅度提高地区招商引资竞争力，提升清河门区经济发展活力，促进产业结构优化升级的目标。', '本次规划区域为清河门区新材料产业园区，规划面积约5.8平方公里，现有辽宁鑫烨峰铸锻有限公司年产36万吨高合金智能铸造项目，总投资10亿元，年用电量15亿千瓦时。该园区为新材料飞地园区，以电子新材料、高合金新材料及铸锻件加工、废旧金属循环再利用、非金属材料加工及利用等产业为主导产业，预计新增年用电量可达40亿千瓦时。', '一是积极组织学习考察。3月15日，由市政协主席张盈带队，市政府常务副市长林艾民，市政协副主席赵俊麟以及市发改委等部门共同组成考察组到通辽市奈曼旗考察增量配电网项目，并通过座谈会的方式听取了当地新能源就地消纳项目建设经验。此前市发改委、清河门区和华电金山清河门发电有限公司也组成联合考察组，到霍林郭勒市就当地新能源就地消纳项目建设情况进行考察。奈曼旗增量配电网是国家第二批试点项目，新能源到户电价降到0.38元/度，降低企业用电成本25%，变招商为选商，带动新增投资企业21家，投资超百亿元。我们拟借鉴奈曼旗增量配电网模式，推进清河门区新材料飞地园区增量配电网示范项目建设。', '二是加快编制实施方案。市发改委积极指导清河门区对接中国能源研究会配售电研究中心编制园区配电网项目实施方案。中国能源研究会配售电研究中心副主任兼秘书长姜庆国多次到清河门区现场调研，并就实施方案编制工作与市发改委、清河门区政府、华电金山热电有限公司座谈。确定了以增量配电网为载体，新能源为部分电源，国网托底保障的园区供电模式。园区电网以220千伏与外部联接，以220千伏及以下电压等级向用户配送电，发展源网荷储一体化，实现园区低碳、经济、绿色发展。', '一是统筹推进采沉区治理+新能源开发。清河门区采煤沉陷区面积占全区总面积的50.93%，其中重点采煤沉陷区占全区总面积31.46%。结合采煤沉陷区治理搬迁腾空土地0.65万亩，可规划建设55万千瓦新能源发电项目，其中光伏发电30万千瓦，风力发电25万千瓦，年发电量能力可达到11.5亿千瓦时。同时可以盘活采煤沉陷区闲置土地，有效解决采煤沉陷区2387户居民住房问题，带动农业和工业项目建设，推动全区经济社会稳定发展。', '二是积极洽谈引进高载能企业。清河门区委区政府主要领导带领相关部门到江苏宝威太阳能光伏支架、鸿鑫高端电子显示屏新材料、阜新一通达再生资源科技、中海创益（辽宁）能源开发有限公司生态型全产业链多式联运、江苏新长江集团无缝钢管生产加工等企业洽谈对接，吸引先进高载能项目落户园区，新长江集团等企业已表示浓厚投资意愿。预计园区新增年用电量可达25亿千瓦时。', '4月18日、4月20日省政府发展研究中心和省发改委先后到我市清河门区调研，我们专门汇报了清河门区新材料飞地园区增量配电网示范项目规划情况，争取省里指导和支持。下一步，市发改委将会同清河门区进一步完善新材料飞地园区增量配电网示范项目实施方案，围绕加快推进创建能源综合创新示范市，将清河门区“生态治理+绿电园区”项目初步方案上报省发改委，争取从项目上给予阜新更大的倾斜力度，推动增量配电改革试点项目在阜新“先行先试”，支持清河门区实施增量配电网示范项目建设，在园区用地指标上给予优先保障，在采煤沉陷区建设光伏项目给予大力支持，依法依规推动增量配电网与国网建成合作共赢模式，提高阜新就地消纳能力，打造“电价洼地”，带动地区产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>习近平著作选读第一卷主要篇目介绍</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/765118.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '中共中央文献编辑委员会编辑的《习近平著作选读》以习近平总书记在中国共产党第二十次全国代表大会上的报告《高举中国特色社会主义伟大旗帜，为全面建设社会主义现代化国家而团结奋斗》为开卷篇，其他著作按时间顺序编排。第一卷收入了习近平总书记在2012年11月至2017年10月这段时间内的重要著作，共有讲话、演讲、指示、批示、训令等71篇，部分著作是第一次公开发表。现将《习近平著作选读》第一卷主要篇目介绍如下。', '《高举中国特色社会主义伟大旗帜，为全面建设社会主义现代化国家而团结奋斗》（2022年10月16日）这是习近平同志在中国共产党第二十次全国代表大会上的报告。报告高举中国特色社会主义伟大旗帜，坚持马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观，全面贯彻习近平新时代中国特色社会主义思想，分析了国际国内形势，提出了党的二十大主题，回顾总结了过去五年的工作和新时代十年的伟大变革，阐述了开辟马克思主义中国化时代化新境界、中国式现代化的中国特色和本质要求等重大问题，对全面建设社会主义现代化国家、全面推进中华民族伟大复兴进行了战略谋划，对统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局作出了全面部署，为新时代新征程党和国家事业发展、实现第二个百年奋斗目标指明了前进方向、确立了行动指南。报告描绘了全面建设社会主义现代化国家的宏伟蓝图，是党和人民智慧的结晶，是党团结带领全国各族人民夺取中国特色社会主义新胜利的政治宣言和行动纲领，是马克思主义的纲领性文献。', '《人民对美好生活的向往，就是我们的奋斗目标》（2012年11月15日）这是习近平同志在中共十八届中央政治局常委同中外记者见面时讲话的主要部分。文中指出：我们的人民热爱生活，期盼有更好的教育、更稳定的工作、更满意的收入、更可靠的社会保障、更高水平的医疗卫生服务、更舒适的居住条件、更优美的环境，期盼孩子们能成长得更好、工作得更好、生活得更好。人民对美好生活的向往，就是我们的奋斗目标。强调：责任重于泰山，事业任重道远。这个重大责任，就是对民族的责任、对人民的责任、对党的责任。我们一定要始终与人民心心相印、与人民同甘共苦、与人民团结奋斗，努力向历史、向人民交出一份合格的答卷。', '《实现中华民族伟大复兴是中华民族近代以来最伟大的梦想》（2012年11月29日）这是习近平同志在参观《复兴之路》展览时的讲话。讲话提出并阐述了中国梦。文中指出：实现中华民族伟大复兴，就是中华民族近代以来最伟大的梦想。这个梦想，凝聚了几代中国人的夙愿，体现了中华民族和中国人民的整体利益，是每一个中华儿女的共同期盼。国家好、民族好，大家才会好。现在，我们比历史上任何时期都更接近中华民族伟大复兴的目标，比历史上任何时期都更有信心、有能力实现这个目标。', '《改革开放永无止境》（2012年12月7日至11日）这是习近平同志在广东省考察工作时讲话的一部分。文中指出：改革开放是决定当代中国命运的关键一招，也是决定实现“两个一百年”奋斗目标、实现中华民族伟大复兴的关键一招。现在我国改革已经进入攻坚期和深水区，进一步深化改革，必须更加注重改革的系统性、整体性、协同性，统筹推进重要领域和关键环节改革。强调：深化改革开放，要坚定信心、凝聚共识、统筹谋划、协同推进。要坚持改革开放正确方向，敢于啃硬骨头，敢于涉险滩，既勇于冲破思想观念的障碍、又勇于突破利益固化的藩篱，做到改革不停顿、开放不止步。', '《没有贫困地区的小康就没有全面小康》（2012年12月29日）这是习近平同志在河北省阜平县考察扶贫开发工作时讲话的一部分。文中指出：消除贫困、改善民生、实现共同富裕，是社会主义的本质要求。全面建成小康社会，最艰巨最繁重的任务在农村、特别是在贫困地区。没有农村的小康，特别是没有贫困地区的小康，就没有全面建成小康社会。强调：要加大投入力度，把集中连片特殊困难地区作为主战场，把稳定解决扶贫对象温饱、尽快实现脱贫致富作为首要任务，努力推动贫困地区经济社会加快发展。', '《关于坚持和发展中国特色社会主义的几个问题》（2013年1月5日）这是习近平同志在新进中央委员会的委员、候补委员学习贯彻党的十八大精神研讨班上讲话的一部分。文中指出：中国特色社会主义，是科学社会主义理论逻辑和中国社会发展历史逻辑的辩证统一，是根植于中国大地、反映中国人民意愿、适应中国和时代发展进步要求的科学社会主义，是实现中华民族伟大复兴的必由之路。中国特色社会主义是社会主义而不是其他什么主义，科学社会主义基本原则不能丢。我们党领导人民进行社会主义建设，有改革开放前和改革开放后两个历史时期，这是两个相互联系又有重大区别的时期，但本质上都是我们党领导人民进行社会主义建设的实践探索。不能用改革开放后的历史时期否定改革开放前的历史时期，也不能用改革开放前的历史时期否定改革开放后的历史时期。强调：坚持和发展中国特色社会主义是一篇大文章，我们这一代共产党人的任务，就是继续把这篇大文章写下去。', '《八项规定是改进作风的切入口和动员令》（2013年1月22日）这是习近平同志在中共第十八届中央纪律检查委员会第二次全体会议上讲话的一部分。文中指出：改进工作作风的任务非常繁重，八项规定是一个切入口和动员令。八项规定既不是最高标准，更不是最终目的，只是我们改进作风的第一步，是我们作为共产党人应该做到的基本要求。强调：作风问题具有顽固性和反复性，抓一抓有好转，松一松就反弹。发布八项规定只是开端、只是破题，还需要下很大功夫。要以踏石留印、抓铁有痕的劲头抓下去，善始善终、善作善成，让人民群众不断看到实实在在的成效和变化。', '《牢牢把握强军目标，建设一支强大人民军队》（2013年3月11日）这是习近平同志在十二届全国人大一次会议解放军代表团全体会议上讲话的一部分。文中指出：党在新形势下的强军目标是建设一支听党指挥、能打胜仗、作风优良的人民军队。听党指挥是灵魂，决定军队建设的政治方向；能打胜仗是核心，反映军队的根本职能和军队建设的根本指向；作风优良是保证，关系军队的性质、宗旨、本色。强调：全军要准确把握这一强军目标，用以统领军队建设、改革和军事斗争准备，努力把国防和军队建设提高到一个新水平。', '《在第十二届全国人民代表大会第一次会议上的讲话》（2013年3月17日）文中指出：实现中华民族伟大复兴的中国梦，就是要实现国家富强、民族振兴、人民幸福。实现中国梦必须走中国道路，这就是中国特色社会主义道路；实现中国梦必须弘扬中国精神，这就是以爱国主义为核心的民族精神，以改革创新为核心的时代精神；实现中国梦必须凝聚中国力量，这就是中国各族人民大团结的力量。中国梦归根到底是人民的梦，必须紧紧依靠人民来实现，必须不断为人民造福。', '《顺应时代前进潮流，促进世界和平发展》（2013年3月23日）这是习近平同志在俄罗斯莫斯科国际关系学院的演讲。文中指出：这个世界越来越成为你中有我、我中有你的命运共同体。要跟上时代前进步伐，就不能身体已进入二十一世纪，而脑袋还停留在过去，停留在殖民扩张的旧时代里，停留在冷战思维、零和博弈的老框框内。面对国际形势的深刻变化和世界各国同舟共济的客观要求，各国应该共同推动建立以合作共赢为核心的新型国际关系。强调：“鞋子合不合脚，自己穿了才知道”。一个国家的发展道路合不合适，只有这个国家的人民才最有发言权。我们要实现的中国梦，不仅造福中国人民，而且造福各国人民。', '《着力培养选拔党和人民需要的好干部》（2013年6月28日）这是习近平同志在全国组织工作会议上讲话的一部分。文中指出：好干部的标准，大的方面说，就是德才兼备。概括起来说，好干部要做到信念坚定、为民服务、勤政务实、敢于担当、清正廉洁。成长为一个好干部，一靠自身努力，二靠组织培养。要坚持正确用人导向，努力做到选贤任能、用当其时，知人善任、人尽其才，把好干部及时发现出来、合理使用起来。', '《把宣传思想工作做得更好》（2013年8月19日）这是习近平同志在全国宣传思想工作会议上讲话的要点。文中指出：意识形态工作是党的一项极端重要的工作。宣传思想工作就是要巩固马克思主义在意识形态领域的指导地位，巩固全党全国人民团结奋斗的共同思想基础。要旗帜鲜明坚持党性原则，树立以人民为中心的工作导向，坚持团结稳定鼓劲、正面宣传为主的重要方针。做好宣传思想工作必须全党动手，宣传思想部门必须守土有责、守土负责、守土尽责。强调：必须坚持巩固壮大主流思想舆论，弘扬主旋律，传播正能量，把握好时、度、效。要创新对外宣传方式，着力打造融通中外的新概念新范畴新表述，讲好中国故事，传播好中国声音。', '《切实把思想统一到党的十八届三中全会精神上来》（2013年11月12日）这是习近平同志在中共十八届三中全会第二次全体会议上讲话的一部分。这次全会是划时代的，开启了全面深化改革、系统整体设计推进改革的新时代。文中指出：坚持把完善和发展中国特色社会主义制度，推进国家治理体系和治理能力现代化作为全面深化改革的总目标。推进国家治理体系和治理能力现代化，是完善和发展中国特色社会主义制度的必然要求，是实现社会主义现代化的应有之义。推进国家治理体系和治理能力现代化，就是要适应时代变化，使各方面制度更加科学、更加完善，实现党、国家、社会各项事务治理制度化、规范化、程序化。强调：坚持社会主义市场经济改革方向，核心问题是处理好政府和市场的关系，使市场在资源配置中起决定性作用和更好发挥政府作用。', '《坚持和运用好毛泽东思想活的灵魂》（2013年12月26日）这是习近平同志在纪念毛泽东同志诞辰一百二十周年座谈会上讲话的一部分。文中指出：毛泽东思想活的灵魂是贯穿其中的立场、观点、方法，有三个基本方面，这就是实事求是、群众路线、独立自主。不论过去、现在和将来，都要坚持一切从实际出发，理论联系实际，在实践中检验真理和发展真理；都要坚持一切为了群众，一切依靠群众，从群众中来，到群众中去，把党的正确主张变为群众的自觉行动，把群众路线贯彻到治国理政全部活动之中；都要把国家和民族发展放在自己力量的基点上，坚持民族自尊心和自信心，坚定不移走自己的路。', '《坚持总体国家安全观》（2014年4月15日、2017年2月17日）这是习近平同志关于坚持总体国家安全观两次讲话的要点。文中指出：保证国家安全是头等大事，必须坚持总体国家安全观，以人民安全为宗旨，以政治安全为根本，以经济安全为基础，以军事、文化、社会安全为保障，以促进国际安全为依托，走出一条中国特色国家安全道路。要保持战略定力、战略自信、战略耐心，坚持以全球思维谋篇布局，坚持统筹发展和安全，坚持底线思维，坚持原则性和策略性相统一，把维护国家安全的战略主动权牢牢掌握在自己手中。', '《积极培育和践行社会主义核心价值观》（2014年5月4日）这是习近平同志在北京大学师生座谈会上讲话的一部分。文中指出：对一个民族、一个国家来说，最持久、最深层的力量是全社会共同认可的核心价值观。我们生而为中国人，最根本的是我们有中国人的独特精神世界，有百姓日用而不觉的价值观。社会主义核心价值观，既体现了社会主义本质要求，继承了中华优秀传统文化，也吸收了世界文明有益成果，体现了时代精神，要在全社会牢固树立社会主义核心价值观。强调：青年处在价值观形成和确立的时期，抓好这一时期的价值观养成十分重要。这就像穿衣服扣扣子一样，人生的扣子从一开始就要扣好。青年要从现在做起、从自己做起，使社会主义核心价值观成为自己的基本遵循。', '《努力开创中国特色社会主义事业更加广阔的前景》（2014年8月20日）这是习近平同志在纪念邓小平同志诞辰一百一十周年座谈会上讲话的一部分。讲话从信念坚定、热爱人民、实事求是、开拓创新、战略思维、坦荡无私等方面，高度评价邓小平同志的崇高风范。文中指出：邓小平同志留给我们的最重要的思想和政治遗产，就是他带领党和人民开创的中国特色社会主义，就是他创立的邓小平理论。强调：中国特色社会主义是适合中国国情、符合中国特点、顺应时代发展要求的理论和实践，所以才能取得成功，并将继续取得成功。', '《坚定对中国特色社会主义政治制度的自信》（2014年9月5日）这是习近平同志在庆祝全国人民代表大会成立六十周年大会上讲话的一部分。文中指出：坚定中国特色社会主义制度自信，首先要坚定对中国特色社会主义政治制度的自信。发展社会主义民主政治，关键是要增加和扩大我们的优势和特点，而不是要削弱和缩小我们的优势和特点。强调：中国特色社会主义政治制度之所以行得通、有生命力、有效率，就是因为它是从中国的社会土壤中生长起来的。不能割断历史，不能想象突然就搬来一座政治制度上的“飞来峰”。照抄照搬他国的政治制度行不通，会水土不服，会画虎不成反类犬，甚至会把国家前途命运葬送掉。只有扎根本国土壤、汲取充沛养分的制度，才最可靠、也最管用。', '《推进协商民主广泛多层制度化发展》（2014年9月21日）这是习近平同志在庆祝中国人民政治协商会议成立六十五周年大会上讲话的一部分。文中指出：社会主义协商民主，是中国社会主义民主政治的特有形式和独特优势，是中国共产党的群众路线在政治领域的重要体现。在中国社会主义制度下，有事好商量，众人的事情由众人商量，找到全社会意愿和要求的最大公约数，是人民民主的真谛。强调：要切实落实推进协商民主广泛多层制度化发展这一战略任务，构建程序合理、环节完整的社会主义协商民主体系，确保协商民主有制可依、有规可守、有章可循、有序可遵。', '《坚持以人民为中心的创作导向》（2014年10月15日）这是习近平同志在文艺工作座谈会上讲话的一部分。文中指出：社会主义文艺，从本质上讲，就是人民的文艺。以人民为中心，就是要把满足人民精神文化需求作为文艺和文艺工作的出发点和落脚点，把人民作为文艺表现的主体，把人民作为文艺审美的鉴赏家和评判者，把为人民服务作为文艺工作者的天职。强调：人民的需要是文艺存在的根本价值所在。能不能搞出优秀作品，最根本的决定于是否能为人民抒写、为人民抒情、为人民抒怀。文艺创作最根本、最关键、最牢靠的办法是扎根人民、扎根生活。', '《加快建设社会主义法治国家》（2014年10月23日）这是习近平同志在中共十八届四中全会第二次全体会议上讲话的一部分。文中指出：全会决定有一条贯穿全篇的红线，这就是坚持和拓展中国特色社会主义法治道路。走中国特色社会主义法治道路，必须坚持中国共产党的领导，必须坚持人民主体地位，必须坚持法律面前人人平等，必须坚持依法治国和以德治国相结合，必须坚持从中国实际出发。强调：全面推进依法治国总目标是建设中国特色社会主义法治体系，建设社会主义法治国家，这是贯穿决定全篇的一条主线，依法治国各项工作都要围绕全面推进总目标来部署、来展开。', '《守纪律，讲规矩》（2015年1月13日）这是习近平同志在中共第十八届中央纪律检查委员会第五次全体会议上讲话的一部分。文中指出：党内规矩是党的各级组织和全体党员必须遵守的行为规范和规则。党的规矩总的包括党章、党的纪律、国家法律和党在长期实践中形成的优良传统和工作惯例。在所有党的纪律和规矩中，第一位的是政治纪律和政治规矩。遵守政治纪律和政治规矩，必须维护党中央权威，在任何时候任何情况下都必须在思想上政治上行动上同党中央保持高度一致；必须维护党的团结，坚持五湖四海，团结一切忠实于党的同志；必须遵循组织程序，重大问题该请示的请示，该汇报的汇报，不允许超越权限办事；必须服从组织决定，决不允许搞非组织活动，不得违背组织决定；必须管好亲属和身边工作人员，不得默许他们利用特殊身份谋取非法利益。', '《加强和改进党的群团工作》（2015年7月6日）这是习近平同志在中央党的群团工作会议上讲话的一部分。文中指出：加强和改进新形势下党的群团工作，最重要的是要保持和增强政治性、先进性、群众性。政治性是群团组织的灵魂，是第一位的。保持和增强党的群团工作的政治性，关键是群团组织必须自觉坚持中国共产党的领导。群团组织作为一个整体，必须把保持和增强先进性作为重要着力点。不追求先进性，就容易成为一盘散沙。群众性是群团组织的根本特点。群团组织开展工作和活动要以群众为中心，让群众当主角，而不能让群众当配角、当观众。', '《下大气力破解制约如期全面建成小康社会的重点难点问题》（2015年10月29日）这是习近平同志在中共十八届五中全会第二次全体会议上讲话的一部分。文中指出：实现全会确定的目标任务，必须下气力解决好重点难点问题。转方式，着力解决好发展质量和效益问题；补短板，着力解决好发展不平衡问题；防风险，着力增强风险防控意识和能力。强调：全面建成小康社会，更重要的也是更难做到的是“全面”。全面小康，覆盖的领域要全面，是“五位一体”全面进步；覆盖的人口要全面，是惠及全体人民的小康；覆盖的区域要全面，是城乡区域共同的小康。', '《脱贫攻坚必须在精准上出实招下实功见实效》（2015年11月27日）这是习近平同志在中央扶贫开发工作会议上讲话的一部分。文中指出：脱贫攻坚要取得实实在在的效果，关键是要找准路子、构建好的体制机制。好路子好机制的核心就是精准扶贫、精准脱贫，重点解决好“扶持谁”、“谁来扶”、“怎么扶”、“如何退”的问题。强调：要做到扶持对象精准、项目安排精准、资金使用精准、措施到户精准、因村派人精准、脱贫成效精准。发展生产脱贫一批、易地搬迁脱贫一批、生态补偿脱贫一批、发展教育脱贫一批、社会保障兜底一批。', '《深入理解新发展理念，推进供给侧结构性改革》（2016年1月18日）这是习近平同志在省部级主要领导干部学习贯彻党的十八届五中全会精神专题研讨班上讲话的一部分。讲话结合历史和现实，结合一些重大问题，从理论上和宏观上对创新、协调、绿色、开放、共享的发展理念进行了深入阐述。文中指出：着力实施创新驱动发展战略，着力增强发展的整体性协调性，着力推进人与自然和谐共生，着力形成对外开放新体制，着力践行以人民为中心的发展思想。强调：供给侧结构性改革，重点是解放和发展社会生产力，用改革的办法推进结构调整，减少无效和低端供给，扩大有效和中高端供给，增强供给结构对需求变化的适应性和灵活性，提高全要素生产率。', '《毫不动摇坚持我国基本经济制度，推动各种所有制经济健康发展》（2016年3月4日）这是习近平同志在参加全国政协十二届四次会议民建、工商联界委员联组会时的讲话。文中指出：实行公有制为主体、多种所有制经济共同发展的基本经济制度，是中国共产党确立的一项大政方针。我们党在坚持基本经济制度上的观点是明确的、一贯的，而且是不断深化的，从来没有动摇。非公有制经济在我国经济社会发展中的地位和作用没有变，我们毫不动摇鼓励、支持、引导非公有制经济发展的方针政策没有变，我们致力于为非公有制经济发展营造良好环境和提供更多机会的方针政策没有变。强调：新型政商关系概括起来说，就是“亲”、“清”两个字，要推动广大非公有制经济人士做合格的中国特色社会主义事业建设者。', '《建设世界科技强国》（2016年5月30日）这是习近平同志在全国科技创新大会、中国科学院第十八次院士大会和中国工程院第十三次院士大会、中国科学技术协会第九次全国代表大会上讲话的一部分。文中指出：科技是国之利器，中国要强，中国人民生活要好，必须有强大科技。要深入贯彻新发展理念，深入实施科教兴国战略、人才强国战略、创新驱动发展战略，优化我国科技事业发展总体布局，建设世界科技强国。强调：成为世界科技强国，成为世界主要科学中心和创新高地，必须拥有一批世界一流科研机构、研究型大学、创新型企业，能够持续涌现一批重大原创性科学成果。建设世界科技强国，关键是要建设一支规模宏大、结构合理、素质优良的创新人才队伍，激发各类人才创新活力和潜力。', '《构建创新、活力、联动、包容的世界经济》（2016年9月4日）这是习近平同志在二十国集团领导人杭州峰会上的开幕辞。文中指出：世界经济面临增长动力不足、需求不振、金融市场反复动荡、国际贸易和投资持续低迷等多重风险和挑战。强调：面对当前挑战，二十国集团要与时俱进、知行合一、共建共享、同舟共济，为世界经济繁荣稳定把握好大方向，让世界经济走上强劲、可持续、平衡、包容增长之路。', '《坚定不移把国有企业做强做优做大》（2016年10月10日）这是习近平同志在全国国有企业党的建设工作会议上讲话的一部分。文中指出：国有企业是中国特色社会主义的重要物质基础和政治基础，是我们党执政兴国的重要支柱和依靠力量，关系公有制主体地位的巩固，关系我们党的执政地位和执政能力，关系我国社会主义制度。国有企业不仅要，而且一定要办好，坚定不移把国有企业做强做优做大。强调：我们说要坚定道路自信、理论自信、制度自信、文化自信，保持政治定力，坚定走自己的路，就包括坚定支持国有企业发展壮大，坚定支持非公有制经济发展壮大。', '《严肃党内政治生活，推进全面从严治党》（2016年10月27日）这是习近平同志在中共十八届六中全会第二次全体会议上讲话的一部分。文中指出：全面从严治党，既需要全方位用劲，也需要重点发力。加强和规范党内政治生活、加强党内监督就是重点发力的抓手。严肃党内政治生活是全面从严治党的基础。党要管党，首先要从党内政治生活管起；从严治党，首先要从党内政治生活严起。党内监督在党和国家各种监督形式中是最基本的、第一位的。只有以党内监督带动其他监督、完善监督体系，才能为全面从严治党提供有力制度保障。强调：全会通过的《关于新形势下党内政治生活的若干准则》、《中国共产党党内监督条例》，是推进全面从严治党的重要制度法规保障。加强和规范党内政治生活，加强党内监督，必须从领导干部特别是高级干部做起。', '《要有高度的文化自信》（2016年11月30日）这是习近平同志在中国文学艺术界联合会第十次全国代表大会、中国作家协会第九次全国代表大会开幕式上讲话的一部分。文中指出：实现中华民族伟大复兴，必须坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信。文化自信，是更基础、更广泛、更深厚的自信，是更基本、更深沉、更持久的力量。坚定文化自信，是事关国运兴衰、事关文化安全、事关民族精神独立性的大问题。强调：坚定文化自信，离不开对中华民族历史的认知和运用。只有扎根脚下这块生于斯、长于斯的土地，文艺才能接住地气、增加底气、灌注生气，在世界文化激荡中站稳脚跟。', '《引导好经济全球化走向》（2017年1月17日）这是习近平同志在瑞士达沃斯举行的世界经济论坛二〇一七年年会开幕式上主旨演讲的一部分。文中指出：面对经济全球化带来的机遇和挑战，正确的选择是，充分利用一切机遇，合作应对一切挑战，引导好经济全球化走向。强调：世界经济的大海，你要还是不要，都在那儿，是回避不了的。让世界经济的大海退回到一个一个孤立的小湖泊、小河流，是不可能的，也是不符合历史潮流的。搞保护主义如同把自己关进黑屋子，看似躲过了风吹雨打，但也隔绝了阳光和空气。打贸易战的结果只能是两败俱伤。', '《共同构建人类命运共同体》（2017年1月18日）这是习近平同志在联合国日内瓦总部的演讲。文中指出：世界怎么了、我们怎么办？这是整个世界都在思考的问题。中国方案是构建人类命运共同体，实现共赢共享。要坚持对话协商，建设一个持久和平的世界；坚持共建共享，建设一个普遍安全的世界；坚持合作共赢，建设一个共同繁荣的世界；坚持交流互鉴，建设一个开放包容的世界；坚持绿色低碳，建设一个清洁美丽的世界。强调：世界命运应该由各国共同掌握，国际规则应该由各国共同书写，全球事务应该由各国共同治理，发展成果应该由各国共同分享。', '《党必须勇于自我革命》（2017年2月13日）这是习近平同志在省部级主要领导干部学习贯彻党的十八届六中全会精神专题研讨班上讲话的一部分。文中指出：勇于自我革命，是我们党最鲜明的品格，也是我们党最大的优势。中国共产党的伟大不在于不犯错误，而在于从不讳疾忌医，敢于直面问题，勇于自我革命，具有极强的自我修复能力。强调：一个马克思主义政党，要保持先进性和纯洁性，实现崇高使命，必须一刻不放松地解决自身存在的问题，始终跟上时代、实践、人民的要求，以勇于自我革命精神打造和锤炼自己。', '《携手推进“一带一路”建设》（2017年5月14日）这是习近平同志在北京举行的“一带一路”国际合作高峰论坛开幕式上的演讲。文中指出：要坚持以和平合作、开放包容、互学互鉴、互利共赢为核心的丝路精神，将“一带一路”建成和平之路、繁荣之路、开放之路、创新之路、文明之路。强调：“一带一路”建设植根于丝绸之路的历史土壤，重点面向亚欧非大陆，同时向所有朋友开放。“一带一路”建设将由大家共同商量，建设成果将由大家共同分享。中国将深入贯彻创新、协调、绿色、开放、共享的发展理念，为“一带一路”注入强大动力，为世界发展带来新的机遇。', '《推动形成绿色发展方式和生活方式是发展观的一场深刻革命》（2017年5月26日）这是习近平同志主持中共十八届中央政治局第四十一次集体学习时的讲话。文中指出：人因自然而生，人与自然是一种共生关系。推动形成绿色发展方式和生活方式是贯彻新发展理念的必然要求，是发展观的一场深刻革命。推动形成绿色发展方式和生活方式，就是要坚持节约资源和保护环境的基本国策，坚持节约优先、保护优先、自然恢复为主的方针，形成节约资源和保护环境的空间格局、产业结构、生产方式、生活方式，努力实现经济社会发展和生态环境保护协同共进，为人民创造良好生产生活环境。强调：要像保护眼睛一样保护生态环境，像对待生命一样对待生态环境，让中华大地天更蓝、山更绿、水更清、环境更优美。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>年度辽宁省考试录用公务员报考指南</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/755731.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '非普通高等学历教育的其他国民教育形式（成人教育、自学考试、国家开放大学、远程教育等）毕业生取得毕业证后，符合职位要求的资格条件的，可以报考。', '2023年毕业的定向生、委培生原则上不得报考。如委培或定向单位同意其报考，应当由委培或定向单位出具同意报考证明，并经所在院校同意后方可报考。', '（2）2023年毕业，并于报名开始第一日前取得毕业证（学位证），且就读期间未落实工作单位的非普通高校毕业生。', '（3）2023年毕业，并于报名开始第一日前取得毕业证（学位证），且就读期间未落实工作单位的留学回国人员。', '国家统一招生的普通高校毕业生离校时和在择业期内（国家规定择业期为两年）未落实工作单位，其户口、档案、组织关系仍保留在原毕业学校，或者保留在各级毕业生就业主管部门（毕业生就业指导服务中心）、各级人才交流服务机构和各级公共就业服务机构的毕业生，可按应届毕业生对待。', '具有基层工作经历的应届毕业生，如果符合有关职位规定的基层工作年限，可以报考相应职位。', '招考职位设定学历为“大专及以上”的，大专、本科、研究生都符合学历要求。招考职位设定“本科及以上”的，本科、研究生都符合学历要求。招考职位设定“学士学位及以上”的，获得学士学位、硕士学位、博士学位的，都符合学位要求。招考职位学历（学位）设定为研究生（硕士学位、博士学位）一个学历（学位）层次的，只招录该学历（学位）层次人员。', '（1）在基层党政机关、事业单位、国有企业工作的人员，基层工作经历时间自报到之日算起。', '（3）到基层特定公益岗位（社会管理和公共服务）初次就业的人员，基层工作经历时间从工作协议约定的起始时间算起。', '（4）离校未就业高校毕业生到高校毕业生实习见习基地（该基地为基层单位）参加见习或者到企事业单位参与项目研究的，视同具有基层工作经历，自报到之日算起。', '（5）在其他经济组织、社会组织等单位工作的人员，基层工作经历时间以劳动合同约定的起始时间算起。', '（6）自主创业并办理工商注册手续的人员，其基层工作经历时间自营业执照颁发之日算起。', '（7）以灵活就业形式初次就业的人员，其基层工作经历时间从登记灵活就业并经审批确认的起始时间算起。', '10.服务基层项目人员在服务期内被借调到其他机关（单位）工作，或在服务期内就读全日制研究生等情形的，相关工作（学习）时间是否计入服务年限？', '服务基层项目人员在服务期内被借调到其他机关（单位）工作，或在服务期内就读全日制研究生等情形的，借调（帮助工作）时间和就读时间不计入服务年限。服务基层项目人员在岗服务时间累计不满一个服务期的，不享受定向招考优惠政策，不得报考定向职位。', '2023年服务期满人员，可报考符合条件的定向招录服务基层项目人员职位，如服务期考核不合格，则取消报考资格或取消录用。', '12.如果报考人员在报名时符合报考条件，但在招考过程中，被其他机关〔参照公务员法管理机关（单位）〕录用为公务员或参照公务员法管理机关（单位）工作人员，应如何处理？', '报考人员在参加2023年度辽宁省公务员招考过程中，被其他机关〔参照公务员法管理机关（单位）〕录用为公务员或参照公务员法管理机关（单位）工作人员，报考人员应如实报告情况，并中止2023年度辽宁省考试录用公务员参考行为。未如实报告的，一经查实，取消其考试、录用资格。', '除2023年普通高校应届毕业生取得相关学历、学位的时间一般截止到2023年7月外，其他报考者取得相关学历、学位的时间截止到2023年1月30日。', '职位要求的其他资格条件（如政治面貌、学历、学位、基层工作经历、资格证书等）截止时间均为2023年1月30日。', '报考人员通过法律职业资格考试，但法律职业资格证书尚未下发的，可以凭发证机关证明报考。', '辅修的第二学位有国家承认的学历、学位证书的，可以报考。具有国家承认学历及学位的双专业毕业证书、双学位证书的，其中一个专业符合招考职位要求的，可以报考。招考职位同时有学历、学位要求的，学历证书与学位证书的专业应相一致，否则不符合报考条件。', '招考职位明确面向本市服务基层项目人员的，本市生源或在本市服务的服务基层项目人员均可报考。', '报考者只能报考1个职位，在招录机关对报考申请进行资格审查前，报考者可以更改。通过招录机关资格审查的报考者，不可再改报其他职位。没有通过招录机关资格审查的报考者，在2023年2月4日12:00前，可以改报其他职位。', '所有报考者均需填写《报名登记表》，所填信息应当真实、准确、完整。主要信息填报不实的，按弄虚作假处理；信息填报不全导致未通过招录机关资格审查的，后果由报考者自负。纸质《报名登记表》一般在面试前资格审查（复审）时向招录机关提供。', '资格审查工作由招录机关负责。报名期间，招录机关对报考申请进行集中审查，确认报考者是否具有报考资格，一般应当在报考者提交报名申请次日内提出审查意见。', '资格审查贯穿录用工作全过程，在各个环节发现报考者存在不得报考的情形或者不符合报考资格条件的，招录机关均可取消其报考资格或取消录用。', '招录机关根据有关公务员录用的法律法规、政策文件和公布的报考资格条件、拟任职位所要求的资格条件对报考申请进行审查，审查意见包括“审核通过”、“审核不通过”、“退回补充材料”3种情形。', '报考者对招考职位要求的资格条件和其他内容有疑问的，可直接与招录机关联系。招录机关的咨询电话可通过辽宁人事考试网查询。', '报考公安机关人民警察职位的报考者，先参加2月25日的公共科目笔试，然后参加2月26日上午的专业科目笔试，其专业科目笔试成绩与公共科目笔试成绩一同公布。笔试成绩按照行政职业能力测验、申论、专业科目成绩（考试成绩均按百分制折算）分别占 40％ 、30％ 、30％ 的比例合成。', '体检在省级以上公务员主管部门会同卫生健康行政部门指定的体检医疗机构进行，或者在市（地）级公务员主管部门确定的市（地）级及以上综合性医院进行。', '报考者对非当日、非当场复检的体检项目结果有疑问的，可以在接到体检结论通知之日起7日内，向体检实施机关提交复检申请，体检实施机关应尽快安排复检。报考者对当日、当场复检的体检项目结果有疑问的，体检实施机关应当日、当场安排复检。', '复检只能进行1次，体检结果以复检结论为准。《公务员录用体检特殊标准（试行）》中的所有体检项目均不进行复检。', '公安、监狱、强制隔离戒毒管理机关的人民警察和人民法院、人民检察院的司法警察职位，应当按照《公务员录用体检特殊标准（试行）》的规定检查有关体检项目，该特殊标准未作规定的职位或者项目，仍按照公务员录用体检通用标准执行。', '考察工作突出政治标准，重点了解考察人选的政治表现和政治倾向，对政治上不合格的，坚决不予录用。重点考察人选是否符合增强“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。招录机关将采取个别谈话、实地走访、审核人事档案（学籍档案）、查询社会信用记录、同本人面谈等方法对考察人选进行深入考察，全面了解政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律情况，以及是否具有应当回避的情形，身心健康状况，与招考职位的匹配度等情况。', '考察是对报考者资格条件进行认定核实的重要环节，需要对报考者再次进行资格复审，主要核实其是否符合规定的报考资格条件，提供的报考信息和相关材料是否真实、准确、完整，是否具有报考回避的情形等方面的情况。', '（3）不具备省级以上公务员主管部门确定的报考资格条件或者不符合招考职位有关要求的；', '（4）因犯罪被单处罚金，或者犯罪情节轻微，人民检察院依法作出不起诉决定或者人民法院依法免予刑事处罚的；', '（10）政治素质、道德品行、社会责任感、为民服务意识和社会信用情况较差，以及其他不宜录用为公务员的情形。', '报考者在报名环节提交的涉及报考资格的申请材料或者信息不实的，招录机关将认定其报名无效，终止其录用程序；有恶意注册报名信息，扰乱报名秩序或者伪造、变造有关材料骗取报考资格等行为的，将给予其取消本次报考资格并五年内限制报考公务员的处理。', '报考者在考试过程中有下列行为之一的，考试机构将给予其所涉科目（场次）考试成绩为零分的处理：', '（4）未按规定填写（填涂）、录入本人或者考试相关信息，以及在规定以外的位置标注本人信息或者其他特殊标记的；', '（5）故意损坏本人试卷、答题卡（答题纸）等考场配发材料或者本人使用的考试机等设施设备的；', '报考者在考试过程中有下列行为之一的，设区的市级以上公务员主管部门将给予其取消本次考试资格并五年内限制报考公务员的处理：', '（4）携带具有避开或者突破考场防范作弊的安全管理措施，获取、记录、传递、接收、存储考试试题、答案等功能的程序、工具，以及专门用于作弊的程序、工具（以下简称作弊器材）的；', '（5）抢夺、故意损坏他人试卷、答题卡（答题纸）、草稿纸等考场配发材料或者他人使用的考试机等设施设备的；', '报考者在考试过程中有下列行为之一的，省公务员主管部门将给予其取消本次考试资格并终身限制报考公务员的处理：', '在阅卷过程中发现报考者之间同一科目作答内容雷同，并经阅卷专家组确认的，考试机构将给予其该科目（场次）考试成绩为零分的处理，录用程序终止。报考者之间同一科目作答内容雷同，并有其他相关证据证明其作弊行为成立的，省公务员主管部门将视具体情形给予取消本次考试资格并五年内限制报考公务员或者取消本次考试资格并终身限制报考公务员的处理。', '报考者在体检、考察、体能测评等环节有违规违纪行为，根据《公务员录用违规违纪行为处理办法》，情节较轻的，将终止录用程序；情节严重的，将给予取消本次考试资格并五年内限制报考公务员的处理；情节特别严重的，将给予取消本次考试资格并终身限制报考公务员的处理。', '根据《刑法修正案（九）》，在刑法第二百八十四条后增加一条，作为第二百八十四条之一：“在法律规定的国家考试中，组织作弊的，处三年以下有期徒刑或者拘役，并处或者单处罚金；情节严重的，处三年以上七年以下有期徒刑，并处罚金”，“为他人实施前款犯罪提供作弊器材或者其他帮助的，依照前款的规定处罚”，“为实施考试作弊行为，向他人非法出售或者提供第一款规定的考试的试题、答案的，依照第一款的规定处罚”，“代替他人或者让他人代替自己参加第一款规定的考试的，处拘役或者管制，并处或者单处罚金”。最高人民法院、最高人民检察院就办理此类刑事案件适用法律的若干问题作出了具体解释，自2019年9月4日起施行。', '报考者在招考过程中有情节严重和情节特别严重的违规违纪行为的，将记入公务员录用考试诚信档案库。', '本次招考不出版也不指定考试辅导用书，不举办也不委托任何机构或者个人举办考试辅导培训班。凡有假借公务员考试命题组、考试教材编委会、公务员主管部门授权等名义举办的有关公务员考试培训、网站或者发行的出版物等，均与本次招考无关，请广大报考者提高警惕，莫被误导干扰，谨防上当受骗。请社会各界加强监督，如发现以上情况，请向相关部门举报，依法依规严肃查处。', '公务员录用考试主要测查从事机关工作应当具备的基本能力素质，这些能力素质主要靠平时学习、工作和生活的长期积累，很难在短期内取得很大提高。考试前，报考者应结合职位需求和自身条件，有针对性地进行准备。', '《2023年度辽宁省考试录用公务员报考指南》仅适用于2023年度辽宁省公务员招考。', '（1）报考者应仔细阅读2023年度辽宁省考试录用公务员公告、报考指南及其他有关事项公告，查询并下载招考职位信息表，了解基本的政策和要求，特别是报考条件，选择与自己条件相符的招考单位和职位。', '（3）为确保报考信息提交成功，加快报名速度，建议报考者在网上报名前，先将需要填写的内容用记事本编辑录入保存。在网上填写报名信息时，将已准备好的文本一一粘贴到表中即可。', '对不符合填写要求的信息，如电话号码、密码、邮箱等未按要求填写，会有红框标注提示。出现注册信息有误的提示后，请报考者查找红框标注的信息，按照红框标识的要求修改信息，确认无误后点击“保存”按钮。', '一个身份证只能注册一次，不能重复注册。如果在注册中出现“该证件号已经注册过”的提示，请在咨询时间内拨打技术咨询电话。', '报名实行诚信承诺制，报考者报名时，要认真查阅《招考公告》和职位信息表，对照职位资格条件如实提交有关信息和材料，凡弄虚作假的、或与招考职位要求的资格条件不符的，一律取消考试资格或录用资格。', '需要注意的是，“填写报考信息”页面中标有“*”的项目必须填写，报考者填写的文字内容不能超过限定的字符数。', '招考职位对职称、职业资格证书有要求的，应该在报名信息表中“备注”栏或“工作经历”栏中如实填报注明。', '报名期间，报考者填写的报考信息在“提交审查”前和资格审查未通过的情况下，可以自行修改。“提交审查”后以及资格审查通过后不允许再作修改，所以请在报名时务必准确填写报考信息。', '职位要求的其他条件，或需要特殊说明的情况，请在此处说明；如没有，请填无，不能不填写内容。', '建议报考者提前在网站专题的招录公告附件中，下载查看所有职位信息。报考申请（职位填报）过程包括“我要报考”和“提交审查”两步：', '（1）进入报名系统后，点击“个人中心”的“填报职位”按钮，按筛选条件进行职位选择后，点击职位列表中“职位说明”按钮，进入职位详细信息页面，认真查看后点击“我要报考”按钮。', '进入“个人中心”页面点击“填报职位”，点击所选职位的“职位说明”，点击“职位收藏”按钮，此后可在“职位收藏”页面中快速找到该职位，按照职位填报流程完成报名。', '（1）报考者进行“提交审查”前，报考职位等信息可自行修改。“提交审查”后不可修改报考职位。', '本次考试在全省省辖市设置考区。请报考者按就地就近原则自主选择参加考试的考区（考点城市），请报考者根据个人情况谨慎选择，一经选择不能更换。', '报考者上传照片过程中若出现“文件流丢失”的提示信息，请检查使用的浏览器是否为推荐的浏览器类型和版本，使用推荐的浏览器类型及版本即可解决。', '根据《省发展改革委 省财政厅关于重新核定我省人力资源和社会保障部门行政事业性收费标准等有关事项的复函》（辽发改价格函〔2023〕2号）文件规定，考务费每人每科50元。最低生活保障家庭人员可办理减免考试费用手续。', '（1）受理时间。考务费用减免申请审核时间为2月2日－3日16:00，未按期办理减免费用且未在规定时间进行网上缴费的报考者视为自动放弃报考。', '（5）提交的材料。须提供其家庭所在地的县（区、市）民政部门或乡村振兴局印发的相关材料或出具的证明材料（有效期内的原件）扫描件或照片。符合条件的报考者须在报名网站下载并填写《2023年度辽宁省考试录用公务员笔试考务费减免申请登记表》，打印后手写签字。', '（6）受理流程。报考者须将上述材料（扫描件或照片）发送至所选择的笔试考区人事考试部门指定邮箱，邮件及文件命名方式为“（减免材料）本人姓名+身份证号+联系方式”。证明或证明材料需要提供所有页的图片，要求照片清晰、内容完整，不影响阅读和辨认。', '（7）初审及数据核查。各市人事考试部门对上报的减免材料进行初审，汇总后报省人事考试中心。省人事考试中心通过部门间数据共享等方式进行核实。', '（8）减免考务费。已提交符合减免条件材料的报考者请不要自行在网上缴费，可于2月3日16时前查询缴费状态，如查询后仍处于未缴费状态，可先行缴费，并及时联系所报考考区人事考试部门。', '首先检查电脑是否安装并开启360安全卫士、360杀毒、腾讯电脑管家或金山毒霸等杀毒软件，如已开启，请临时退出，重试支付操作。', '如还未解决，该情况可能是由于IE浏览器安全设置造成的，请按以下步骤操作：IE浏览器菜单栏-&gt;工具选项下“Internet选项”-&gt;隐私选项卡中将倒数第二个复选框“启用弹出窗口阻止程序”取消勾选，最后点击“确定”。', '缴费成功后，报考者可以在缴费完成页面下载并打印《报名登记表》（二份以上）。请报考者妥善保管，在面试前使用，丢失不补。', '请报考者妥善保管《报名登记表》和《笔试准考证》（至少打印2份），笔试、面试、体检阶段需要使用，丢失不补。', '3.注意每次直接访问辽宁人事考试网考录专题，不要通过其他网站提供的链接进入报名系统，防止进入假的“钓鱼”网站，造成个人信息泄露，影响正常报名。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>42</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>阜新市公安工作会议科学谋划年公安工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2023/757768.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '一元复始，岁序更新。阜新公安不忘初心，砥砺深耕，谋划部署新一年公安工作，发扬拼搏奋进的担当精神，推动全市公安工作赓续新篇。', '2月8日，2023年全市公安工作会议在市公安局召开。会议深入学习宣传贯彻党的二十大精神和习近平总书记在辽宁考察时的重要讲话精神、对政法工作的重要指示精神，全面落实中央和省委、市委政法工作会议、全国公安厅局长会议和全省公安局长会议精神，全面总结2022年全市公安工作，分析当前形势问题，研究部署今年和今后一个时期全市公安工作。', '会议传达学习了习近平总书记对政法工作的重要指示，传达了中央和省委、市委政法工作会议及全国公安厅局长会议、全省公安局长会议精神，传达了省、市领导对公安工作的相关要求。要求全警认真学习、深刻领会、坚决落实，迅速统一思想和行动，熔铸忠诚和清廉底色，强化安全和法治担当，奋力推进阜新公安工作现代化，在护航阜新全面振兴新突破、护航中国式现代化新征程上展现新形象、新担当、新作为。', '回望2022年，阜新公安面对一波又一波的疫情冲击，一场又一场硬仗的接踵而至，全警上下马不卸鞍、兵不卸甲，挺身向前、主动担当，用赤胆忠诚、金色盾牌、藏蓝防线，绘就了阜新的平安底色。全警面对大战大考，始终牢记国之大者，实现了全面胜利；面对疫情考验，始终信守生命至上，展现了阜新公安的智慧力量；面对治安顽疾，始终保持进攻态势，打出了阜新公安的过硬功夫；面对群众期待，始终坚持人民至上，巩固了全城全域的安全防线。', '今年是全面贯彻落实党的二十大精神的开局之年，是实施“十四五”规划承上启下之年，也是实施全面振兴新突破三年行动的首战之年。在今后一个时期，全市公安机关将落实好公安部党委提出的“一条主题主线、两大战略部署、三大职能体系、四个基本建设”的总体安排和“十个着力”的部署要求，以及省公安厅党委明确的“一个根本遵循、五个牢牢坚持”的总体思路和“七个提升、七个更加”的奋斗目标，紧密结合我市经济社会发展和公安工作实际，始终坚持党对公安工作的绝对领导这个根本，牢牢守住社会稳定、队伍忠诚底线，突出政治建警、底线思维、稳中求进、严优并举、守正创新“五项原则”，全面提升对敌斗争、发现预警、社会治理、支撑保障、服务发展、规范执法、担当尽职“七个能力”，在阜新“高质量发展、全方位振兴”新突破中，贡献公安之力、公安之为、公安之智。', '全市公安工作要高举习近平新时代中国特色社会主义思想伟大旗帜，全面学习、全面把握、全面落实党的二十大精神，忠实践行“对党忠诚、服务人民、执法公正、纪律严明”总要求，以“护航辽宁全面振兴新突破三年行动”为牵动，坚定不移坚持党对公安工作的绝对领导，全面实施新年度市局党委总体工作部署，全力抓好防风险、保安全、护稳定、促发展各项措施落实，努力推进阜新公安工作现代化，为阜新创建“双示范市”、实现“双千双百”目标，创造更加安全稳定的政治社会环境。', '要聚焦平安建设，坚持安全第一、预防为主，打防并举、源头治理相结合，不断提升社会治理能力。要聚焦法治公安，坚持问题导向，加强执法监督，不断提升规范执法能力。要聚焦固本强基，稳妥实施机构改革，推动基层基础建设，抓好人才队伍培养，不断提升支撑保障能力。要聚焦市之大计，围绕全市“双千双百”目标，持续优化法治化营商环境建设，不断提升服务发展能力。要聚焦强警励警，按照习近平总书记提出的“四句话”总要求和“四个铁一般标准”，坚持不懈抓好队伍建设，提升担当尽职能力。要激发全警奋进力量，拿出开局即冲刺、起步即决战的奋斗姿态，在新时代新征程上展现更大的担当和作为。要科学谋划推进落实，坚定不移践行一个根本、三条底线、五项原则、七个能力任务目标，精心研究谋划思路举措，奋力推进阜新公安工作实现现代化。要全力维护安全稳定，要坚决从严管理队伍，切实做到真管真严、敢管敢严、常管常严。要关心关爱民警，科学部署勤务，合理使用警力，确保全警始终保持昂扬的斗志和持久的战斗力。', '勇立潮头敢为先，奋楫扬帆正当时。新的一年，全市公安机关将以过硬作风开局起步，以务实举措稳步推进，全力打造新时代公安铁军，推进全市公安事业快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>42</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>十七届市政府第次党组会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-12-06</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/748351.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '12月2日，市委副书记、市长、市政府党组书记周鹏举主持召开市政府党组会议，传达学习省委书记郝鹏到省疫情防控指挥部调研和在沈阳、锦州调研时的讲话精神，研究部署市政府系统贯彻落实工作。', '会议强调，全市政府系统要深入贯彻落实习近平总书记关于疫情防控工作的重要指示精神，切实把思想和行动统一到党中央对做好当前疫情防控的决策部署上来，统一到省委、省政府和省疫情防控指挥部的工作要求上来，坚定不移坚持人民至上、生命至上，坚定不移坚持“外防输入、内防反弹”总策略，坚定不移坚持“动态清零”总方针，以更强的意识、更快的行动、更严的作风、更实的举措，全力落实疫情防控各项举措，坚决守住不发生规模性疫情的底线，尽快实现社会面动态清零。要严格落实“严而又严主动防、紧盯细查早发现、争分夺秒快处置”的工作要求，进一步提升防控的科学性、精准性、有效性，做到高质量区域核酸检测再优化、风险人员管控再规范、流调和“追阳”再加速、隔离管控再加严、高风险区快封快解、重点场所防控再精准、舆情管理更主动，坚决打赢疫情防控攻坚战、歼灭战。要坚持问题导向，更好回应和解决群众合理诉求，建强工作专班，畅通就医绿色通道，坚决保障群众就医、用药需求；做好物资调配供应，通过“线上建群亮身份、线下实干解难题”，打通服务群众的“最后一米”，切实保障群众基本生活，以实际行动赢得群众理解和支持。要关心关爱广大医护人员、疾控人员、社区工作者等奋战在一线的基层工作者，用心用情做好服务保障。', '会议强调，要弘扬伟大建党精神，深刻学习领会习近平总书记8月16日在考察辽沈战役纪念馆时的重要讲话精神，精准理解把握三个“深刻启示”的内涵，从辽沈战役留下的宝贵精神财富中汲取奋进力量，传承红色基因，激发精神动力。要充分宣传好利用好我市的红色资源，讲好党的故事、革命的故事、英雄的故事，发扬斗争精神，战胜艰难险阻，为新时代辽宁振兴发展作出阜新贡献。', '会议强调，要多措并举抓好基层治理，按照省委、市委部署要求，突出强基导向，关心关注基层，积极创新探索，总结经验、固化成果，有序推广“孙家湾模式”等好经验、好做法，更好的服务群众，持续提升人民群众获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>42</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>我市召开第三季度科技工作调度会议</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-10-25</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/744625.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '我市召开第三季度科技工作调度会议，旨在贯彻落实党的二十大精神特别是习近平总书记在大会上所作报告精神，落实好习近平总书记今年', '8月在辽宁考察时的重要讲话精神，梳理年初以来全市科技工作，对下一阶段全市科技创新工作进行部署推进。', '会议听取了市科技局工作汇报，并围绕全市科技创新工作开展座谈交流。会议指出，在党的二十大报告中，习近平总书记对科技创新工作提出了明确要求，', '“必须坚持科技是第一生产力、人才是第一资源、创新是第一动力，深入实施科教兴国战略、人才强国战略、创新驱动发展战略。加快实施创新驱动发展战略，加快实现高水平科技自立自强，以国家战略需求为导向，积聚力量进行原创性引领性科技攻关，坚决打赢关键核心技术攻坚战，加快实施一批具有战略性全局性前瞻性的国家重大科技项目，增强自主创新能力。”这为我们下一步工作提供了根本遵循，要结合实际学习好、领悟好、贯彻好。', '“双示范市”建设和“八大攻坚战”，开展实质性产学研联盟建设和常态化“揭榜挂帅”科技攻关，支持企业同高端科研院所对接，加大科技投入力度，引导全社会增加科研经费投入。二是持续壮大科技型企业群体，继续开展“科技型中小企业-高新技术企业-雏鹰瞪羚独角兽企业”梯度培育，培育壮大一批科技型企业，提高科技型企业增长率，提高企业创新能力。同时强化企业创新主体地位和主导作用，引导社会资源和创新要素向企业集聚，激发企业创新活力，推进企业高质量发展。三是有效提升科技创新能力，以提升全市科技成果转化数量和质量为目标，推动形成全社会参与、全链条贯通、全要素组合的科技成果本地转化格局，提高科技成果本地转化率。同时加快科技孵化载体建设，鼓励和支持各园区联合高校院所、科研机构，建设产业技术研究院、中试基地等新型研发机构，支持各类孵化载体向专业化发展。四是加快农业农村创新发展，开展农业全产业链科技示范，以农业龙头企业为主体对接院所机构，联合开展技术攻关，开发农业新技术，加强农业产学研支撑。同时继续实施科技特派行动，以农业科技示范基地建设和龙头企业升级为目标，坚持“科技特派+龙头企业+合作社”模式', '“带土移植”的方式引进一批高水平技术攻关团队和创新创业团队。同时做好柔性引才奖补工作，为国内外人才提供最好的服务，强化市校合作，把辽宁工大的科教优势转化为创新优势和经济优势。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>42</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>清河门区委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-10-24</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/743208.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '10月20日，区委常委会召开（扩大）会议，进一步深入学习贯彻党的二十大精神，并对我区第四季度工作及2023年度工作进行安排部署。', '区委书记李树坦主持会议并讲话。区委副书记、区长徐立东，区人大常委会主任孙贵山，区政协主席张文选及全区副县级领导出席会议。', '会上，李树坦导学了习近平总书记在中国共产党第二十次全国代表大会上的报告；各区委常委、区人大党组副书记、区政协党组副书记汇报了第四季度工作安排及2023年工作计划。', '李树坦强调，要深刻领悟党的二十大报告的核心要义和思想精髓，切实把思想和行动统一到习近平总书记重要讲话精神上来，全区各级党组织和广大党员干部要把学习党的二十大精神作为当前和今后一个时期的重大政治任务，坚持把学习党的二十大精神同贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示精神结合起来，同学习贯彻习近平总书记在辽宁考察时的讲话精神结合起来，同贯彻落实省、市第十三次党代会精神结合起来，同高质量完成区委、区政府中心工作结合起来，持续推动学习常态化长效化。', '李树坦要求，要紧盯工作重点，靶向施策补齐短板，全力冲刺第四季度。要明确冲刺目标，科学谋划工作，做到目标早拟定、思路早酝酿、重点早明确。要突出抓好项目，尽快解决项目推进中遇到的困难和问题。要全力抓好一号产业，了解企业在生产经营中存在的困难和问题，及时协调解决，帮助企业做大做强。要聚力开展招商，全区上下拧成一股绳，齐心协力抓招商。要对标对表基层治理先进经验，全力推进基层治理工作。要高标准抓好巡视整改，按照具体整改方案和整改措施，扎实推进整改工作。要持续抓好社会稳定工作，杜绝侥幸心理和麻痹大意思想，持续发扬斗争精神，始终以“时时放心不下”的责任感抓实抓牢抓细各项工作。', '李树坦强调，要持续发扬斗争精神，切实转变工作作风，为全面完成各项工作任务提供坚强保障。要敢于斗争抓落实，强化担当抓落实，强化协作抓落实，提高能力抓落实，真督严考抓落实，确保各项决策不折不扣落实到位。', '徐立东要求，全区要迅速掀起学习宣传党的二十大精神热潮，牢牢把握正确的政治方向、舆论方向、价值取向，真正把党的二十大精神转化为全方位推动清河门区高质量发展的强劲动能。要对照目标找差距，集中精力抓落实，在加快推进项目建设、加快推进民生实事、守住安全底线等主攻重点上寻求突破，全力冲刺保目标。要提前思考早部署，积极主动谋来年，努力提升发展环境，厚植高质量发展新优势。要突出项目支撑，打造高质量发展引擎，优化产业结构，促进三产协调发展。要积极改善城乡面貌，提升城乡居住环境，坚持以人为本的发展理念，使全区百姓共享高质量发展新成果。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>42</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>大力弘扬三沟实干作风一体推进强县兴村富民</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/737849.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '调研中，苏伟先后来到七家子镇石场村蒙乡青石博物馆、三沟经验现场教学基地、化石戈镇中华第一粟小米种植基地、于寺镇村民住宅小区及种植大棚，了解乡村振兴有关情况，实地考察远景能源有限公司，仔细询问企业生产经营情况。随后，苏伟来到所联系的城区街道国盛社区，详细了解基层治理等情况，并提出具体要求。', '苏伟强调，要深入学习贯彻习近平总书记在辽宁考察时的重要讲话精神，认真落实市委十三届四次全会部署，大力弘扬“三沟”实干作风，以产业化思维抓农业发展，以城乡一体化思路推进农村建设，实施强县兴村富民工程，推动县域经济高质量发展。要把握国家政策导向，结合全域海绵化、水润阜新建设，实施好乡村建设行动，深化农村人居环境整治，实现村村亮、庄庄绿、户户通、厕厕洁、沟沟清、家家净、人人乐。要发挥农产品丰富的优势，实行选种、种植、加工全流程规范化管理，打造知名农产品品牌，提高农产品附加值，推进农业大县向农业强县转变。要加强基层治理，在织密社区网格的基础上，充分发挥网格员和楼栋长作用，排查化解矛盾纠纷，实现小事不出楼栋、大事不出网格。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>42</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/731267.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '会议传达学习了习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班开班式上的重要讲话精神。', '会议指出，习近平总书记的重要讲话，科学分析了当前国际国内形势，深刻阐述了过去5年工作和新时代10年的伟大变革，深刻阐释了新时代坚持和发展中国特色社会主义的重大理论和实践问题，深刻阐明了未来一个时期党和国家事业发展的大政方针和行动纲领，具有很强的政治性、理论性、指导性，为党的二十大胜利召开奠定了重要的政治基础、思想基础、理论基础。全市各级党组织和广大党员干部要把学习贯彻习近平总书记重要讲话精神作为重要政治任务，准确把握其精神实质和核心要义，切实把思想和行动统一到习近平总书记重要讲话精神上来，推动其在阜新落地见效。', '会议强调，要把习近平新时代中国特色社会主义思想学习教育摆在最突出位置，全面加强新时代党员干部教育培训工作，有效提升广大党员干部推动阜新转型振兴发展的素质能力。要坚持补钙铸魂，建好用好“3+2+N”党性教育阵地，用好新时代大讲堂这个载体，打好党员干部能力素质提升的“组合拳”，有效激发广大党员干部干事创业的精气神，着力打造忠诚干净担当的高素质专业化干部队伍。要坚定用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，自觉在习近平总书记关于东北、辽宁振兴发展的重要讲话和指示精神，特别是习近平总书记在辽宁考察时的重要讲话精神中汲取智慧和营养，努力把真理力量转化为实践力量。要坚持一张蓝图绘到底，坚持系统观念，统筹发展和安全，以创建“双示范市”为目标，高质量做好改革发展稳定各项工作，为党的二十大胜利召开营造安全稳定、和谐有序的社会环境。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>阜新市党政代表团到徐州市开展经贸交流活动并推进重点项目合作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/727360.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '8月25日至27日，市委书记胡涛率领我市党政代表团，到江苏省徐州市开展经贸交流活动，并推进重点项目合作。徐州市委书记宋乐伟、市长王剑锋参加有关活动。', '胡涛一行来到徐州市睢宁县，实地考察江苏“巨电新能源”“高格芯微电子”“聚创家居”“万沙集团”等企业和“天虹高端纺织面料”“宁欣紧固件”等项目，仔细询问企业发展情况。胡涛一行还来到姚集镇高党社区、八一村，走进农户家中，详细了解乡村振兴情况。胡涛说，要结合我市水毁村庄建设情况，坚持因地制宜、群众参与，通过整村搬迁改造等多种方式，完善基础设施，改善居住环境，打造一批新农村建设样板。在睢宁县社会治理综合服务中心，胡涛在详细了解“速来办”社会治理服务情况后说，要注重学习先进经验，结合阜新实际，加强党的领导，完善平台建设，有效整合各方面力量，形成基层治理工作合力。', '宋乐伟表示，徐阜两地同属老工业基地和资源型城市，同样肩负着探索具有地方特色转型发展之路的重任。希望通过此次考察，进一步加深双方的交流交往，相互学习借鉴转型发展的好做法好经验，深化产业互动，加强项目合作，携手开创高质量发展新局面。', '胡涛一行还到徐工集团，与集团董事长王民就深化双方合作进行深入洽谈。胡涛说，阜新与徐工集团有着良好的合作基础，徐工辽宁高端除雪装备产业基地建设进展良好，发展潜力巨大。当前，阜新正在创建全国资源型城市转型示范市和能源综合创新示范市，需要以徐工集团为代表的龙头企业发挥引领支撑作用。阜新市委、市政府将为徐工集团在阜项目发展创造最好环境、提供最优服务，支持企业做大做强。', '王民感谢阜新市委、市政府对徐工（辽宁）机械有限公司发展的大力支持。他表示，将在以往合作的基础上，进一步拓展合作领域，扩大合作规模，打造东北地区标志性的现代化、智能化生产基地。', '考察期间，我市党政代表团还考察了贾汪区潘安湖采煤沉陷区治理工程、潘安湖街道马庄村基层党组织建设和精神文明建设、吉麦新能源汽车、德龙金属科技有限公司、全域旅游服务中心、淮海战役纪念馆等地，实地了解徐州市经济社会发展情况。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>42</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组召开学习扩大会议传达学习习近平总书记系列重要讲话精神</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/725735.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['市人大常委会党组理论学习中心组召开学习（扩大）会议 传达学习习近平总书记系列重要讲话精神', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '市人大常委会党组理论学习中心组召开学习（扩大）会议 传达学习习近平总书记系列重要讲话精神', '8月24日，市人大常委会党组理论学习中心组召开学习（扩大）会议，传达学习习近平总书记在辽宁考察时的重要讲话精神、省委常委会（扩大）会议精神、市委十三届四次全会精神以及市委书记胡涛在市委常委会（扩大）会议上的讲话精神，研究部署市人大常委会贯彻落实工作。', '付志宏强调，习近平总书记在辽宁考察时的重要讲话是对辽宁振兴发展又一次高屋建瓴的擘画和指引，是对辽宁振兴发展成效的充分肯定，是对新时代辽宁振兴发展的新要求和新期待，体现了对辽宁工作的高度重视和对辽宁人民的深情牵挂。市人大常委会要完整、准确、全面贯彻新发展理念，坚持以人民为中心，把促进全市人民共同富裕作为人大各项工作的出发点和落脚点。要坚持系统观念，统筹两个大局，为全市高效做好统筹疫情防控和经济社会发展贡献人大力量。', '付志宏强调，要把学习贯彻习近平总书记重要讲话精神和市委十三届四次全会精神同人大依法履职紧密结合起来，进一步强化大局意识、弘扬实干精神、勇于担当作为，认真落实年初制定的“一个要点、四个计划”确定的各项工作，围绕中心，服务大局，履职尽责，确保年底前高标准、高质量完成各项任务。人大机关要迅速兴起学习贯彻热潮，把学习领会好、贯彻落实好习近平总书记重要讲话精神作为首要政治任务和头等大事，组织好机关党员干部、人大代表的学习贯彻工作，做到学深悟透、学以致用。抓好舆论宣传工作，充分展示全市各级人大、人大代表牢记嘱托、感恩奋进、担当作为的精神风貌，以实际行动和实际成效迎接党的二十大胜利召开。', '会议书面传达学习了习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班上、中央统战工作会议上、中共中央政治局第四十一次集体学习时、在新疆考察时的重要讲话精神。', '市人大常委会党组副书记、副主任董彦超，副主任王聪颖，副主任、秘书长刘林，副主任刘江义出席会议。', '市人大常委会副主任海淑梅，市人大常委会副秘书长，各专门委员会、常委会工作（办事）机构负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>42</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>我省全力推动城市一刻钟便民生活圈试点建设</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/717692.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '作为时间计量单位，“一刻钟”如今还可以用来衡量生活的便捷度与幸福感。眼下，沈阳市、大连市的很多居民区以社区为圆心，以步行15分钟距离为半径，画出了一个“便民生活圈”。“圈”内社区购物、餐饮、教育、文化、医疗、体育休闲等功能一应俱全，不仅可以满足居民衣、食、住、行等基本保障类需求，还可以满足其他的品质提升类需求，让幸福生活“触手可及”。', '建设便民生活圈，有助于激发居民消费内生动力和超大规模市场潜力，是促进消费升级、更好满足人民美好生活需要的重要举措。8月2日，省商务厅相关负责人表示，自去年沈阳市、大连市入选全国首批城市一刻钟便民生活圈试点地区以来，我省高度重视此项工作，通过完善社区菜市场体系、改造提升便利店等举措，全力推动沈阳市、大连市国家级试点建设进度，同时借鉴经验，积极引领其他市开展省级、国家级试点工作，按照“两年试点，三年推广，五年全覆盖”要求，全面有序推进试点建设工作。', '在完善社区菜市场体系方面，我省推动发展6家智慧农贸市场，对品种、价格、销售量等交易信息统一管理，实现智能支付、交易溯源、价格监测等智慧经营和管理模式。加快推动9家连锁生鲜企业建设改造农产品零售网点51个，进一步增强了检验检测、冷藏保鲜、产品追溯等便民惠民服务能力。截至今年6月末，全省建设改造农贸市场、社区菜市场等零售网点68个，城市农产品零售网点覆盖率进一步提升。', '品牌连锁便利店是城市一刻钟便民生活圈试点建设的重要组成部分。我省充分激发便利店市场的内生动力，支持企业采取直营、收购、兼并、特许加盟等形式整合社区分散商业网点，改造建设高标准品牌连锁便利店，扩大经营规模和品牌影响力。在全省商务战线的共同努力下，年均新建和改造品牌连锁便利店门店500家以上。', '沈阳市、大连市国家级城市一刻钟便民生活圈试点建设取得阶段性成效。沈阳市对便民生活圈八大类22种建设项目给予政策支持，包括便利店品牌化连锁化经营、“老字号”企业发展等。截至目前，全市首批10个便民生活圈建设试点工作全面启动，已完成生活圈建设项目2318个。大连市组织人员考察学习外地城市成熟经验，做好一系列顶层设计，建立工作机制。截至目前，大连市纳入试点计划的生活圈达30个，2021年已完成试点建设任务10个，2022年预计完成试点建设任务20个，覆盖社区数量85个，带动2万人就业。', '省商务厅相关负责人表示，下一步，我省一刻钟便民生活圈建设将继续以便民利民为出发点和落脚点，坚持补短板和提品质并重，统筹考虑一刻钟便民生活圈示范社区商业形态和功能业态，强化各方联动，加强分类指导，持续提升商业供给的质量和韧性，进一步增强居民获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>42</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>锦州市营商局到市政务服务中心参观考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/705559.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '7月6日上午，锦州市营商局四级调研员李宏伟带领一行12人到市政务服务中心参观考察。市营商局副局长常群陪同考察。', '李宏伟一行首先实地参观并详细了解市政务服务中心的总体运行情况，考察各功能区设置、各服务专区的运行管理模式，深入学习中心的政务服务标准化建设、综合窗口改革等情况，了解推出的24小时自助取件柜、无声叫号等暖心服务。', '在座谈会上，常群副局长对锦州营商局各位领导的到来表示欢迎，随后双方就中心成立、标准化建设、综合窗口改革、数字政府、一网通办等方面进行深入探讨和交流。', '李宏伟表示，此次到阜新市政务服务中心参观学习交流启发很大，将充分学习借鉴阜新好经验好做法，结合实际，加大对锦州市政务服务中心建设力度，全力推进锦州市政务服务标准化建设、综合窗口改革等各项工作，不断提升政务服务质量，让企业和群众的获得感和幸福感不断增强。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>42</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市政协十三届一次会议关于加快我市四大优势产业发展的几点建议号答复</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-03-25</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/720475.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '市政协十三届一次会议《关于加快我市“四大优势产业”发展的几点建议》 （10号）答复', '贵单位提出的《关于加快我市“四大优势产业”发展的几点建议》收悉，市工信局对此高度重视，结合各协办单位意见，现对贵单位提出的建议答复如下：', '阜新作为全国第一个资源枯竭型城市经济转型试点市，虽然经过20年转型发展，发生了较大变化，取得了一定成效，逐步形成了装备制造及配套、农产品加工、化工、能源等“四大优势产业”，但我们也清醒地看到，在转型发展过程中还存在着经济总量小、产业结构不尽合理等问题。因此，如何更好地发展“四大优势产业”，是答好阜新转型答卷的关键。', '针对我市产业结构单一、产业链条不完善、产业特色不明显等问题，我们努力把资源优势、区位优势、比较优势转为产业优势、发展优势，重点发展装备制造、农产品加工、精细化工、新能源四个优势产业，着力培育壮大氢能源、智能无人系统、新材料等新兴产业，推动产业转型升级。', '特别是2021年以来，远景能源智能风机制造基地交付使用、新能源装备制造产业园开始谋划，新能源产业加快发展。引进正大、泓方、越秀等知名企业，绿色食品产业已形成“化肥-饲料生产-种养殖-初加工-精深加工”的全产业链体系。氟产业开发区与中化环境签订了框架合作协议，引进众辉、龙田等企业，氟化工产业不断向产业链价值链中高端发展。依托嘉寓、德迩、瑞麟等企业在氢能产业的技术优势和成熟经验，推动制氢-储运-加氢-燃料电池-示范应用全产业链逐步形成。以北京理工大学为平台，加大北京延庆合作力度，“智能城”建设初具规模。', '现有规模以上企业57户，2021年实现产值72.7亿元，同比增长15.7%，占全市规模以上工业的17.6%，占全省同行业比重0.92%，行业增加值率为23.1%。已形成硅砂—铸造—液压零部件—成套装备的产业体系，产业链各环节都有竞争力较强的企业，其中：万达铸业是世界上首家能够批量提供80万伏、100万伏高压输变电铸铝壳体的生产厂家，产品市场占有率已达到45%以上，世界排名第一，是德国西门子、美国ABB、日本三菱超高压壳体唯一供货商，全程参与600km/h磁悬浮列车项目，公司生产的高速动车组转向架铸铝联系枕梁是高速动车组的关键零部件之一，可完全替代进口，全国排名第二。', '现有规模以上企业44户，2021年实现工业产值126亿元，占全市规模以上工业的30.7%，占全省同行业比重3.88%，行业增加值率为16.5%。依托我市丰富的农牧资源，已形成“化肥-饲料生产-种养殖-初加工-精深加工”的全产业链体系，集聚了正大集团、河南双汇、山东鲁花、四川新希望六和、内蒙古伊利、广东越秀等一批行业头部企业，绿色食品基地的产业集聚效应快速显现。', '现有规模以上企业36户，2021年完成产值74.1亿元，同比增长39.7%，占全市规模以上工业的18%，占全省同行业比重0.79%，行业增加值率为25.2%。充分发挥氟化工园区产业基础优势，调整产品结构，改造提升生产工艺，开发高品级的终高端产品，重点推动氟化工向精细化、高端化、规模化发展。2021年，通过首批省级化工园区认定，是省内唯一专业氟化工园区。已引进培育龙瑞药业、众辉生物、金凯生科等一批重点企业，园区主导产品逐步由含氟中间体向精细化工转型，氟化工产业不断向产业链价值链中高端发展。凯莱英与辉瑞、默沙东等全球制药巨头形成了较强的合作粘性，众辉已发展成为拜耳、科迪华公司的主要生产基地。金凯已发展成为拜耳、诺华等公司的主要生产基地。', '现有规模以上企业24户，2021年实现产值61.7亿元，同比增长8.6%，占全市规模以上工业的15%，占全省同行业比重2.45%，行业增加值率为43.7%。全市新能源装机达到277.13万千瓦，占全市能源装机规模59%，绿电规模超过火电18个百分点，占全省风电、光伏装机总规模的21%。风电方面，以储能等先进技术和体制机制创新为支撑，创新风电消费新模式，三峡新能源“源网荷储”一体化项目通过评审，以全省第五名的成绩入围国家项目评选。大金重工积极研究引进叶片、主机等关键链条产品，筹划建设新能源装备产业园。', '（一）重大项目偏少，工业增长后劲不足 全市尚未形成“工业兴市”的浓厚氛围，也未形成“工业强则阜新强”的共识，导致工业项目数量少、规模小，缺少有利于优化产业结构、推动转型升级、增加财政收入的重大项目。转型以来，投资百亿以上的大项目只有1个大唐国际煤制天然气项目，但该项目从2011年开始建设十余年仍然没有竣工投产。近三年全市新开工投资5亿元以上工业项目仅6个（创美科技可降解塑料、众辉二期、大金风电叶片、四川成都九鼎、徐工除冰雪装备和志乾生物纤维素膜项目）,平均每年才2个，全都没有投产达产。', '对我市规上工业经济结构进行分析，农产品加工业经济总量最大，占比30.7%，但深加工度低，增加值率低，为全市GDP所做的贡献率最小，仅占19.6%。化工产业GDP贡献率基本上与所占经济比重持平，在入库税金方面，化工产业新建项目较多，税金抵扣较多，实际入库税金低于所占经济比重7.4%。装备制造业GDP贡献率略低于所占经济比重，入库税金高于所占经济比重。能源产业经济总量最小，占比15%，增加值率高，达到43.7%，为全市GDP所做的贡献率最大。但同时新能源属于一次性投入产业，受年度光照、风量等因素影响同比没有增量，限制了工业经济的增幅。', '我市装备制造、农产品、精细化工企业多处于产业链前端，产业链短窄现象普遍存在，并且由于缺乏行业领军企业，配套企业的集聚效应尚未显现，本地配套能力亟待加强。装备制造产业以铸造和零部件为主，缺乏整机装备。全市57户装备制造企业中，铸造类企业20户，零部件企业13户，共占比58%。化工产业有80%以上的企业以生产中间体为主，缺乏原料药、原研药等终端产品，企业间产品、技术关联性不高，配套单一。农产品加工产业缺少高端化、高附加值产品，仅有鲁花高端、伊利乳业等8户精深加工企业，且企业配套环节较少。', '一是以智赋能，加快企业改造升级。充分发挥应用场景资源和数据资源优势，推动数字衍生技术在企业的应用。邀请上海深兰科技等专业机构来阜，围绕上云上平台、5G+工业互联网等方面为装备制造及配套企业开展诊断服务。深入挖掘铸造、总装、矿山等领域应用场景，建立应用场景库，积极推广宏顺机械、弘霖煤矿、平安煤矿等典型案例，用人工智能等新一代信息技术为装备制造业赋能增效。二是提高配套能力，加强产业链协同协作。有针对性地研究制定我市成套装备、铸造、液压零部件等装备制造业特色产业链建设实施方案，帮助企业加大市场开拓力度，支持本地产品本地用，提高头部企业本地配套率。鼓励支持龙头企业带动本市相关企业配套发展，形成以龙头企业为核心的产业链协同协作联盟，稳固本地产业链供应链。三是深化创新驱动，提高技术创新能力。强化企业科技创新主体地位，充分利用国家、省、市专项政策及资金支持，鼓励企业加大各级企业技术中心、工程研究中心、实验室等科技平台建设，促进各类创新要素向企业集聚。支持装备制造头部企业牵头组建产学研联盟，带动上下游企业围绕关键领域和环节开展联合攻关。四是增强服务意识，推动项目尽快落地。全力推动项目“量质齐升”，做好企业跟踪服务，推动重点企业实施扩能升级、合资并购，做大总量。加快推进新兴铸管绿色智能铸造产业园、彰武精密铸造产业园、德尔机电一体化汽车部件等一批标志性项目建设，尽快建成投产。围绕装备制造产业链断点、弱点，谋划和培育新项目，培育新的经济增长点。', '一是塑造品牌打市场，促农产品加工业品牌化发展。立足阜新独特的资源禀赋和地域特点，充分释放阜新花生、阜新小米、彰武地瓜、彰武黑豆等品牌效应，做强优质农产品区域公用品牌。增强企业主体品牌建设意识，积极打造本地优势品牌，加大品牌推广力度，借助广告电视及网络媒体等平台，推介阜新农业，提升阜新农产品知名度，同时引导农产品加工企业在京东、淘宝等大型网络销售平台设立旗舰店，拓宽销售渠道。二是拓宽认知视野，加强科技创新。组织带动新型农业经营主体、农产品加工企业积极考察学习，主动参加国内外各类农业展会、论坛，学习农业生产及农产品深加工领域的先进理念，引进先进的技术和管理经验。以阜新高新技术产业开发区为依托，大力加强与中国农业科学院、沈阳农业大学等科研院所合作，围绕品种选育改良、良种繁育、栽培技术、病虫害防治、加工贮藏、市场流通等全产业链的关键环节，开展技术创新、产品研发和应用推广。三是推动项目建设，增强农产品加工企业实力。进一步优化产业布局，稳步推进农产品加工项目，用足用活金融、财税、发改等领域的产业扶持政策，推动农产品加工企业扩大生产规模，实现全市农产品加工产业做大做强；加强对全市重点农产品加工企业运行的监控，强化生产要素保障工作。了解重点加工企业生产要素需求情况，确保要素资源的调度和有效供给，增强企业抗风险能力。', '一是以产业定位为方向，突出招引高质量项目。明确有针对性、有目标、有重点的招商思路，强化主导产业的上下游企业集聚发展。创新招商理念，创新招商方式，突出以商招商、以特招商、以优招商。通过加强与京津冀、长江经济带等地战略对接和交流合作，实行公司化招商、第三方招商模式。二是加大服务企业力度，稳定增长。强化政策扶持，在引导企业绿色低碳转型、提升企业数字化水平等方面给予支持。加快政策兑现，提高“小升规、规升巨”、“数字辽宁 智造强省”专项资金等惠企政策的兑现进度。建立“一企一策”制度，主动为企业铺排谋划。拓宽企业融资渠道，通过“银企对接会”、“行长进企业”等活动，增强金融机构与企业之间的供需对接，增加信贷规模。三是聚力结构调整，提升工业发展质量。抓好企业补链延链强链，引进一批高质量的全产业链项目。努力改变“粗放”有余而“精细”不足、原材料有余而增值链不足的状况，不断拉长产业链，推进产业向中高端发展。在提高产品关联度、企业协作配套上下功夫，形成龙头企业带动、上中下游企业集聚发展的良好势头。四是提升科技创新水平，打造工业发展新引擎。通过实施高新技术企业倍增计划、“专精特新”梯度培育工程，持续扩大科技型企业规模和数量。以企业为主体，高校、科研机构协同创新，搭建高水平的创新支撑平台。探索校企联合招生与培养模式，培养更多符合阜新发展需求的人才和工匠。支持科研人员离岗创业、兼职兼薪，营造创新环境，实施“带土移植”引进人才专家团队，留住本地人才。', '一是坚持可持续发展。“十四五”期间，我市将全力创建能源综合创新示范市。打造千万千瓦新能源之城，围绕阜新转型振兴，全方位发展，结合阜新能源资源优势，坚持走生态优先、绿色低碳的高质量发展之路，不断加强项目谋划储备，围绕海州矿综合治理，以抽水蓄能电站为支撑性项目，围绕零碳园区建设，谋划推进园区级源网荷储一体化项目。二是加快产业链构建。围绕乡村振兴，绿色城乡发展谋划整县整区推进光伏发电项目和光热+绿电清洁取暖工程，积极推进新能源延伸产业链绿电制氢项目，助推氢能制、储、加、运全产业链构建。积极探索生态产业化、产业生态化的转型路径。三是加强生态环境治理。', '重点实施沙化治理生态工程，在彰武县开展“生态+”模式探索荒漠化生态治理新路径，以光伏项目建设驱动生态治理。为补齐新能源上下游产业基础薄弱短板，全力打造新能源的装备制造产业园。四是以资源带动产业，互动发展。以资源拉动新能源装备制造产业发展，提升我市风能资源与引进配套产业投资相匹配，大力发展我市新能源装备制造产业，围绕拉长新能源装备产业链、供应链、价值链，着力引进新能源装备制造头部企业打造辽宁（阜新）新能源装备制造产业园。坚持大小']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>刘宁到朝阳市督导检查</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2021/519459.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '5月6日，省委副书记、省长刘宁赴朝阳市督导中央环保督察通报的典型案例：辽宁省朝阳市生活污泥无害化处置工作推进不力，并就抓紧抓实整改工作约谈朝阳市委、市政府主要负责同志。他强调，要深入学习贯彻习近平生态文明思想，牢固树立绿水青山就是金山银山的理念，强化政治担当，细化治理举措，实化工作作风，严整改、重质量、促转型，确保党中央关于生态文明建设各项决策部署落地见效。', '6日一早生态环境部通报：中央第二生态环境保护督察组对朝阳市开展现场督察发现，朝阳市生活污泥无害化处置工作推进缓慢，集中处置设施建设严重滞后，有关主管部门监管缺位，大量污泥长期违法临时堆存。对此，省委、省政府高度重视，刘宁来到朝阳市龙城区七道泉子镇山嘴村违规堆存污泥现场，对照中央生态环保督察组指出问题，现场查看场地生活污泥堆存状况、环境风险隐患情况。他强调，朝阳市要以高度的政治自觉、思想自觉和行动自觉，切实把抓好环保督察问题整改作为一项重大政治任务、重要民生工程，态度要鲜明、措施要坚决、成效要明显，做到立即整改、坚决整改、彻底整改，向中央、省委和全市人民交上一份满意答卷。', '随后，刘宁主持召开专题约谈会议。他强调，朝阳市委、市政府要坚持以习近平新时代中国特色社会主义思想为指导，按照省委工作要求，从讲政治的高度深刻认识立行立改的严肃性、紧迫性，深刻认识督察指出问题的典型性、严重性，坚决扛牢生态环境保护政治责任，坚守高质量发展的绿色底线，坚定保护好最普惠的民生福祉，不断提高政治判断力、政治领悟力、政治执行力，确保督察问题整改全面彻底到位。要组建工作专班，做到闭环管理，', '杜绝次生污染，坚持无害化处理与资源化利用一起做、新账与旧账一起还、治污与治理一起干，不断提升人民群众获得感幸福感安全感。要以深入开展', '“三落实”专项行动为抓手，发扬斗争精神，守住法治底线，严肃责任追究，打造风清气正的政治环境，建设公平公正的营商环境，呵护山川秀美的自然环境。', '在朝阳期间，刘宁深入北票市和朝阳县，实地考察大凌河城区段和一诺环保产业园、宏发食品有限公司、天亿机械有限公司，了解湿地保护、流域治理和环保产业发展等情况。他强调，企业要把环保作为企业发展的底线、做强做大的基石，放眼长远算大账，舍得投入保生态，不断提高环保意识和环保工艺，实现经济、社会和环境效益相统一。他叮嘱当地负责同志，推进辽西融入京津冀协同发展战略先导区建设，要完整准确全面贯彻新发展理念，积极引进产业关联度高、带动作用强的大项目好项目，坚决杜绝高耗能、高排放项目，促进经济社会发展全面绿色转型。', '在朝阳县，刘宁走访看望了脱贫群众段锦学，询问家庭收入和看病就医情况。他强调，要全力做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接，确保脱贫基础更加稳固、成效更可持续。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>清河门区召开年度春季征兵工作大会</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-12-22</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2022/645202.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '月27日，我区召开2022年度春季征兵工作大会，全面部署2022年度上半年征兵工作任务。', '会议传达学习了国家、省、市三级征兵工作会议精神，总结了2021年度征兵工作，部署了2022年上半年征兵工作任务，听取了镇街党管武装第一书记2022年度上半年征兵工作进展情况汇报，并签订了《征兵责任书》。', '张俊成强调，一要切实提高思想认识。各级、各部门要切实提高政治站位，深刻认识做好征兵工作的重要意义，不断强化使命责任担当意识，坚决完成上级赋予的年度征兵工作任务，要把各镇街征兵任务完成情况作为干部考察的重要内容。二要突出抓好大学生比例。区征兵办要按照应征大学毕业生比例完成任务，各镇街要保障大学毕业生名额，全程为毕业生开辟体检绿色通道，做到优先体检、优先定兵，确保完成大学生征集指标。三要突出抓好廉洁征兵工作。要坚决杜绝在征兵工作中出现问题，完善健全廉洁征兵督导检查机制，配强廉洁征兵监督员队伍，公开廉洁征兵举报电话，切实把征兵工作打造成阳光工程。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>市政府召开优化营商环境工作会议吕志成作出批示周鹏举讲话</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-07-30</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2021/578724.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '市政府召开优化营商环境工作会议。会议深入学习贯彻习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上重要讲话精神，认真落实全省优化营商环境推进会精神，安排部署政府系统相关工作。市委书记吕志成作出批示。批示指出：我市营商环境建设，一方面要补短板、强弱项，针对省营商环境专项督查通知中涉及我市的问题，坚决整改到位；另一方面要顺应数字化、网络化的趋势，按照省委书记张国清讲话精神，超前谋划，实施几项重点工程，打造亮点，确保我市营商环境建设始终走在全省乃至全国前列。市长周鹏举主持会议并讲话。', '会上，市营商环境建设局汇报省政府督查室营商环境专项督查通知中涉及我市问题的整改工作情况。', '周鹏举对全市优化营商环境取得的成绩给予肯定，同时指出存在的短板和不足。他强调，一要进一步提高思想认识。要深刻理解优化营商环境的重要意义，切实将思想和行动统一到党中央、国务院决策部署上来，按照省委、省政府和市委工作要求，发扬斗争精神，深化改革创新，着力打造“办事方便、法治良好、成本竞争力强、生态宜居”的营商环境，推动经济社会持续健康发展，奋力开创高质量转型、全方位振兴新局面。二要全力抓好营商环境重点工作落实。要聚焦省委书记张国清提出的6个方面具体要求，持续深化“放管服”改革、加强事中事后监管，持续净化政治生态、抓好法治环境建设，狠抓“一网通办”“一网统管”“一网协同”，积极打造良好的创新生态，大力倡导痛痛快快办事的文化，全力推动营商环境建设再上新台阶。要聚焦省营商环境专项督查发现的问题，制定任务书、明确时间表、落实责任人，以实施“百日攻坚行动”为载体，确保按时高质量整改到位。三要突出特点、打造亮点，推动我市营商环境建设走在前列。要下好“ 先手棋”，赢得主动权，成立工作专班，健全工作机制，持续深化工程建设项目审批制度改革、无差别受理“综窗”改革、园区“多规合一”“多评合一”改革，系统出台支持科技型企业发展、助力企业降本增效系列政策措施，大力推进12345 整合优化提升，积极探索不动产登记线上办理、公共服务“一卡通”等便民服务新模式，提升企业群众的获得感和满意度，努力创出经验、形成示范，助力我市营商环境建设走在全省乃至全国前列。', '市委常委、市政府党组成员林艾民部署具体工作。市政府秘书长胡国勇，各县区、市直有关部门负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>42</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>在全国政协十三届四次会议闭幕会上的讲话</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-02-24</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2021/482213.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '中国人民政治协商会议第十三届全国委员会第四次会议，圆满完成各项议程，就要胜利闭幕了。中共中央总书记、国家主席、中央军委主席习近平等党和国家领导同志出席会议，与委员共商国是。全体委员深入讨论政府工作报告、“十四五”规划纲要草案和其他报告，认真审议全国政协常委会工作报告等文件，坚持建言资政和凝聚共识双向发力，取得积极成果，充分体现了广大委员为国履职、为民尽责的担当精神，展现了人民政协作为专门协商机构的优势作用。会议聚焦“十四五”、共话新蓝图、汇聚正能量，是对广大委员服务全面建设社会主义现代化国家的深入动员，是一次民主、团结、求实、奋进的大会。', '今年是中国共产党成立100周年，也是实施“十四五”规划、开启全面建设社会主义现代化国家新征程的第一年。人民政协要坚持以习近平新时代中国特色社会主义思想为指导，增强“四个意识”、坚定“四个自信”、做到“两个维护”，把中共中央决策部署和对人民政协工作要求落实下去，把海内外中华儿女智慧和力量凝聚起来，为全面建设社会主义现代化国家开好局、起好步作出积极贡献。', '——要筑牢重要阵地，毫不动摇坚持和加强中国共产党的领导。党的领导制度是我国的根本领导制度。人民政协作为坚持和加强党对各项工作领导的重要阵地，必须始终把坚持和加强党的领导作为根本政治原则和重大政治责任，不断强基固本，提高政治判断力、政治领悟力、政治执行力，巩固和扩大党执政的群众基础和社会基础。要更好发挥协商民主这一实现党的领导重要方式的作用，聚焦全面建设社会主义现代化国家目标，围绕“十四五”时期重点任务和人民群众关心关切，通过政协协商的制度实践，把党的主张转化为社会各界的共识和行动。要提升专门协商机构制度效能，推动中国共产党治国理政各项决策部署有效落实。', '——要巩固重要平台，切实用党的创新理论夯实共同思想政治基础。习近平新时代中国特色社会主义思想是党和国家必须长期坚持的指导思想。人民政协作为用党的创新理论团结教育引导各族各界代表人士的重要平台，必须加强思想政治引领，坚持用党的创新理论推动政治上团结合作、思想上共同进步、行动上步调一致。要着力构建以科学理论为指导、以协商交流为特色、以自我提高为主旨、以增进认同为目标的学思践悟平台，弘扬自我学习、自我教育的优良传统，总结提升委员读书、视察考察、专题研讨等活动成效，实现强化思想理论武装与践行共同奋斗目标相统一。要深入学习中共党史，结合学习新中国史、改革开放史、社会主义发展史，注重体现政协特色，做到学史明理、学史增信、学史崇德、学史力行，不断增强同心同德推进新时代中国特色社会主义事业发展的思想自觉和实践力量。', '——要畅通重要渠道，广泛汇聚奋进新征程的合力。立足新发展阶段，贯彻新发展理念，构建新发展格局，迫切需要把人心聚得更紧、把共识筑得更牢。人民政协作为在共同思想政治基础上化解矛盾和凝聚共识的重要渠道，必须多做宣传政策、解疑释惑的工作，多鼓团结奋斗、共促发展的干劲，强信心、聚人心、筑同心，面向社会传递正能量。要发挥包容性强、联系面广的特点，创新开展界别群众工作的形式载体，综合运用委员讲堂、重大专项工作委员宣讲团、谈心交流等方式，不断完善政协组织委员、委员引导界别群众的工作链条，形成广集众智谋良策、万众一心开新局的磅礴力量。', '各位委员，“国之大者”就是责之重者。站在“两个一百年”奋斗目标历史交汇的关键节点上，使命召唤、责任在肩。我们要更加紧密地团结在以习近平同志为核心的中共中央周围，大力发扬“三牛”精神，积极投身全面建设社会主义现代化国家伟大实践，不断推进专门协商机构建设和人民政协事业发展，以优异成绩庆祝中国共产党成立100周年！']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>以习近平同志为核心的党中央引领中国十三五时期发展纪实</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/398123.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '推动中国发展跃上新的大台阶 | 引领中国号巨轮驶向高质量发展航程 | 带领全体人民奔向幸福美好生活', '新华社北京10月24日电题：历史性的跨越 决定性的成就——以习近平同志为核心的党中央引领中国“十三五”时期发展纪实', '题：历史性的跨越 决定性的成就——以习近平同志为核心的党中央引领中国“十三五”时期发展纪实', '“我们即将胜利完成‘十三五’规划主要目标任务，乘势而上开启全面建设社会主义现代化国家新征程。”', '经济总量接近100万亿元大关，人均GDP突破1万美元，经济实力、科技实力、综合国力跃上新的大台阶。', '抗击新冠肺炎疫情斗争取得重大战略成果，脱贫攻坚即将取得全面胜利，中华民族阔步走向全面小康，第一个百年奋斗目标即将圆满实现。', '5年间，以习近平同志为核心的党中央高瞻远瞩、谋篇布局，团结带领全党全国各族人民砥砺前行、开拓创新，贯彻落实新发展理念，推进高质量发展，取得决定性成就，实现历史性跨越。', '上千座塔吊，逾10万名建设者……今年秋天的华北平原，雄安新区成为全球最大工地，每天都在拔节生长。', '经济特区中的“特区”由滩涂变新城，200多栋建筑拔地而起，17.3万家新设企业落户，50余项制度创新在全国复制推广。', '深圳经济特区建立40周年之际，习近平总书记在这里向海内外宣示，中国将在更高起点上推进改革开放。', '21世纪第三个十年的开端，放眼大江南北，在中国广袤大地上，一张张蓝图成为现实，一幅幅画卷徐徐铺展。', '5年前，党的十八届五中全会召开。“描绘好未来5年国家发展蓝图，事关全面建成小康社会、全面深化改革、全面依法治国、全面从严治党战略布局的协调推进，事关我国经济社会持续健康发展，事关社会主义现代化建设大局。”习近平总书记铿锵有力的话语催人奋进。', '不断跳动的数字、持续刷新的排名，见证大国步伐，越来越多的获得感、幸福感、安全感展现生活变迁——', '经济总量占世界经济比重从2015年的15.5%提升至2019年的16.3%，人均国内生产总值达到70892元，形成世界最大规模中等收入群体；1亿多农业转移人口成为新市民，5000多万贫困人口实现脱贫，困扰中华民族几千年的绝对贫困问题将历史性得到解决……', '一个个高光时刻、精彩瞬间，标注中华民族伟大复兴征程上的关键节点，肩负着不忘历史、放眼未来的光荣使命——', '2017年，党的十九大胜利召开，提出全面建设社会主义现代化强国战略目标；2018年，隆重庆祝改革开放40周年，向世界宣示将改革开放进行到底的决心；2019年，新中国成立70周年盛典，汇聚中华儿女奋力前行的时代洪流……', '制造业增加值占全球份额接近30%，连续10年居世界首位；高速铁路总里程达3.5万公里，高速公路接近15万公里，流动的中国活力四射；港珠澳大桥飞架三地，北京大兴国际机场“凤凰展翅”，一项项重大工程惊艳世界；C919大型客机飞上蓝天，“中国天眼”落成启用，北斗导航系统正式开通，5G网络加速成型，创新伟力持续迸发……', '5年间，经济实力、科技实力、综合国力跃上新的大台阶，续写了成绩斐然的中国奇迹，彰显了不同凡响的中国力量。', '“十三五”时期，以习近平同志为核心的党中央深谋远虑、着眼大局，深刻洞察国际国内发展走势。', '无论是“十三五”规划建议，还是“十三五”规划纲要，开篇都聚焦一个关键词——新常态。', '速度变化、结构优化、动力转换，这是中国发展进入新阶段的规律性呈现，是走向更高发展境界的必然历史过程。', '习近平总书记鲜明指出，“十三五”规划作为我国经济发展进入新常态后的第一个五年规划，必须适应新常态、把握新常态、引领新常态。', '“‘十三五’时期我国发展，既要看速度，也要看增量，更要看质量，要着力实现有质量、有效益、没水分、可持续的增长”，习近平总书记的论断清晰而坚定。', '“牢固树立并切实贯彻创新、协调、绿色、开放、共享的发展理念”——党的十八届五中全会确定的新发展理念，科学回答了实现什么样的发展、怎样实现发展的问题，是关系我国发展全局的一场深刻变革。', '2017年12月，党的十九大后习近平总书记首次国内考察来到江苏徐州。在徐工集团，习近平总书记勉励企业着眼世界前沿，努力探索创新发展的好模式、好经验：“创新是企业核心竞争力的源泉，很多核心技术是求不到、买不来的。”', '以全面建成小康社会为目标，以实现高质量发展为导向，新发展理念作为发展指挥棒，始终贯穿“十三五”经济社会发展全过程。', '“十三五”时期，以习近平同志为核心的党中央立足长远、运筹帷幄，坚持一张蓝图绘到底。', '5年来，夙夜在公、风雨兼程，习近平总书记的考察足迹遍布广大城市、乡村、企业，一次次主持召开中央政治局会议、中央深改委会议、中央财经委会议等重要会议，同专家学者、企业家、科学家、基层代表等座谈，对“十三五”期间国家的发展作出一系列重大判断，进行一系列重大部署。', '破解制约转型升级的深层次矛盾，将供给侧结构性改革作为主线，进行顶层设计，提出任务举措，推动“三去一降一补”取得明显进展；', '紧扣我国社会主要矛盾变化，瞄准全面建成小康社会，坚决打好三大攻坚战，防控金融等领域重大风险，脱贫攻坚战取得决定性进展，生态环境保护成效显著；', '京津冀协同发展、长江经济带发展、粤港澳大湾区建设、推进海南全面深化改革开放、深入推进东北振兴、长三角一体化发展、黄河流域生态保护和高质量发展、成渝地区双城经济圈建设，一个个国家重大战略打通区域协调发展“经络”，各大区域板块良性互动；', '全面深化改革厘清政府和市场关系，高水平开放联通国内、国外市场，深圳中国特色社会主义先行示范区和海南自由贸易港起锚远航……', '“十三五”时期，以习近平同志为核心的党中央坚定沉着、保持定力，带领全国人民坚定不移集中力量办好自己的事。', '“坚持党的领导”——“十三五”规划建议中，这是推动经济社会发展必须遵循的六大原则之一，同时单辟一章就“加强和改善党的领导”作出详细部署。', '2018年深化党和国家机构改革，部分党政机构整合重组，党总揽全局、协调各方在体制机制上得以强化，把方向、谋大局、定政策、促改革的作用进一步凸显。', '这5年，不管乱云飞渡、风吹浪打，我们党紧紧依靠人民。“撸起袖子加油干”、“万众一心加油干”、“幸福都是奋斗出来的”……在习近平总书记号召下，全国人民一起拼搏、一起奋斗。', '“十三五”时期，世界进入动荡变革期，经济全球化遭遇逆流，保护主义、单边主义上升，世界经济低迷，中美经贸摩擦加剧，我国经济下行压力加大，发展道路并不平坦。', '今年全国两会期间，习近平总书记在看望政协经济界委员时强调，要坚持用全面、辩证、长远的眼光分析当前经济形势，努力在危机中育新机、于变局中开新局。', '这5年，无论是迎战外部环境变化的惊涛骇浪，还是应对国内发展的困难挑战，以习近平同志为核心的党中央始终坚持底线思维，保持战略定力，不断攻坚克难、化危为机。', '2016年召开的中央经济工作会议上，稳中求进工作总基调被确定为我们党治国理政的重要原则。', '“十三五”时期，从总体平稳到缓中趋稳，再到稳中有变，中国经济运行始终保持稳的主基调，稳住了基本面，筑牢了基本盘，稳中向好、长期向好的基本趋势没有改变，为复杂多变的世界注入稳定性和确定性。', '4.9%！今年第三季度，中国经济延续二季度以来转正态势，复苏更为强劲，前三季度累计已实现正增长。', '国际货币基金组织近期发布报告，预计2020年全球经济将萎缩4.4%，中国将是全球唯一实现正增长的主要经济体。', '“在疫情防控和经济恢复上都走在世界前列，显示了中国的强大修复能力和旺盛生机活力！”习近平总书记掷地有声的话语，显现了中国战胜前进道路上一切艰难险阻的信心和力量。', '“当初得知要退捕上岸，心里挺着急，大家担心生计。真正上了岸，在政府帮扶下，很多年轻人学手艺找到了工作。”安徽省马鞍山市原薛家洼村民三姑娘说。', '三姑娘家有5艘船，长江禁渔后，渔船拆解得到补偿款和过渡期生活补贴，一家人搬进新居，丈夫成为护渔保洁员。', '“长江禁渔是件大事，关系30多万渔民的生计，代价不小，但比起全流域的生态保护还是值得的。”今年8月，习近平总书记在安徽考察调研时强调。', '2016年1月，在重庆召开推动长江经济带发展座谈会时，习近平总书记明确提出把修复长江生态环境摆在压倒性位置，共抓大保护，不搞大开发。', '5年间，我国生态文明建设力度之大前所未有，2019年单位GDP能耗比2015年下降13.2%，全国337个地级及以上城市空气质量优良天数比例达到82%，地表水质量达到或好于Ⅲ类水体比例达74.9%，污染防治阶段性目标顺利实现，生态环境质量总体改善。', '“十三五”时期，以新发展理念为指引，推动质量变革、效率变革、动力变革，我国经济发展从“有没有”转向“好不好”。', '“这些产品都是自主研发的吗？市场占有率怎么样？”2020年10月12日，习近平总书记在广东考察潮州三环（集团）股份有限公司时，拿起一块陶瓷基板边看边问。', '企业负责人告诉总书记，公司成立50年来专注做一件事，就是坚持自主创新和推动产业转型升级，目前90%以上的设备是自主研发，光通信连接器用陶瓷插芯占全球市场用量75%以上。', '“企业要发展，产业要升级，经济要高质量发展，都要靠自主创新。”这是总书记的殷切希望，也是国家发展的方向。', '2018年3月，参加全国两会广东代表团审议时，习近平总书记强调，要使创新成为高质量发展的强大动能。', '5年来，从科研院所到高校，从高新技术企业到高新区，习近平总书记一次次来到创新要素最活跃的地方；从出席中央会议到在院士大会上发表重要讲话，习近平总书记对科技创新始终牵挂于心。', '“坚持走中国特色自主创新道路”、“掌握更多关键核心技术”、“技术创新是企业的命根子”……5年间，共和国的决策者始终把科技创新摆在国家发展全局的核心位置。', '开展职务科技成果所有权或长期使用权试点，设立科创板，完善科技奖励制度，科技创新政策举措更加完善；', '北京、上海、粤港澳大湾区国际科技创新中心建设深入推进，布局建设50多个重大科技基础设施项目，科技创新空间布局持续优化；', '载人航天和探月工程硕果累累，散裂中子源等一批国之重器相继建成运行，时速600公里高速磁悬浮试验样车下线……5年间，我国重大创新成果竞相涌现，一些前沿领域进入并跑、领跑阶段。', '“要于危机中育先机、于变局中开新局，必须向科技创新要答案。”2020年10月16日，中央政治局就量子科技研究和应用前景举行集体学习，习近平总书记再次强调。', '“机遇就在你们手里。”今年8月19日，马钢优质合金棒材车间里铁花飞溅，一片忙碌。习近平总书记来到这里，鼓励企业加快发展。', '2016年至今，习近平总书记考察过多家钢铁企业，既有通过整合跻身世界级企业的马钢，也有走出去发展壮大的河钢；既有实现转型升级的首钢，也有加快科技创新步伐的太钢。', '“十三五”期间，我国钢铁产业从行业陷入全面亏损，到实现去产能目标，再到行业效益达到历史最高水平，有力验证了供给侧结构性改革成效。', '这5年，通过去产能、去库存、去杠杆，我国工业产能利用率上升至2019年底的76.6%，宏观杠杆率高速增长势头得到遏制；', '通过降成本，征收了66年的营业税退出历史舞台，企业税费负担进一步降低，2016年至2020年新增减税降费累计将达7.6万亿元左右；', '以供给侧结构性改革为代表，“十三五”时期全面深化改革全面发力、多点突破，重要领域和关键环节改革取得决定性成果。', '5年间，一系列标志性、关键性、引领性的改革落地生根：实施国防和军队改革，全面建立河长制、湖长制，产权制度改革把“有恒产者有恒心”写进中央文件，农村土地所有权、承包权、经营权“三权分置”得以完善，推进以审判为中心的刑事诉讼制度改革，建立企业职工基本养老保险基金中央调剂制度……', '前不久，以经济特区建立40周年为契机，中央以清单批量授权方式赋予深圳在重要领域和关键环节改革上更多自主权，一揽子推出27条改革举措和40条首批授权事项。', '“实践证明，过去40年中国经济发展是在开放条件下取得的，未来中国经济实现高质量发展也必须在更加开放条件下进行。”', '2018年4月，习近平总书记在博鳌亚洲论坛2018年年会开幕式上发表主旨演讲，阐明了以开放推动高质量发展的决心。', '累计与138个国家和30个国际组织签署200份共建“一带一路”合作文件，设立21个自由贸易试验区，全球营商环境排名跃升至2019年的第31位，成功举办两届中国国际进口博览会……5年来，我国对外开放走向更高水平，开放型经济新体制加快构建。', '今年在全球疫情蔓延形势下，从广交会搬上云端，到服贸会、进博会如约而至，中国接连举办重大国际经贸活动，为世界经济复苏增添动力。', '“充分发挥我国超大规模市场优势和内需潜力，构建国内国际双循环相互促进的新发展格局”，今年5月14日召开的中央政治局常委会会议，提出新的重大发展战略。', '推动形成以国内大循环为主体、国内国际双循环相互促进的新发展格局，是以习近平同志为核心的党中央科学把握国内外发展大势作出的战略决策。', '“以国内大循环为主体，绝不是关起门来封闭运行，而是通过发挥内需潜力，使国内市场和国际市场更好联通，更好利用国际国内两个市场、两种资源，实现更加强劲可持续的发展。”今年7月，习近平总书记在企业家座谈会上旗帜鲜明地表明了坚定不移扩大开放的姿态。', '四川大凉山，悬崖绝壁之上，阿土列尔村人祖祖辈辈在这里生活了数百年。2016年11月前，村民出行全部依赖“天梯”。', '“看着村民们的出行状态，感到很揪心。”2017年全国两会上，习近平总书记谈到有关凉山州“悬崖村”的电视新闻报道时，关切之情溢于言表。', '84户建档立卡贫困户、共344人，陆续搬迁至位于昭觉县易地扶贫搬迁县城集中安置点的新家。', '“必须坚持以人民为中心的发展思想，把增进人民福祉、促进人的全面发展作为发展的出发点和落脚点。”党的十八届五中全会强调。', '5年来，以习近平同志为核心的党中央把人民对美好生活的向往作为始终不渝的奋斗目标，坚持发展为了人民、发展成果由人民共享，努力在推动高质量发展过程中办好各项民生事业、补齐民生领域短板，不断增强人民群众获得感、幸福感、安全感。', '2015年底，我国还有5433万农村建档立卡贫困人口，多数西部省份的贫困发生率超过7%，贫困程度深、减贫成本高、脱贫难度大。', '习近平总书记亲自挂帅、亲自出征、亲自督战。5年来，习近平总书记花精力最多的是扶贫工作，坚持每年召开一次脱贫攻坚专题座谈会，持续不断深入贫困地区考察调研，走进一个个贫困村访贫问苦，对贫困群众念兹在兹。', '从进一步做好东西部扶贫协作和对口支援工作，到加快推进深度贫困地区脱贫攻坚，再到着力解决“两不愁三保障”突出问题，每到脱贫攻坚战重要节点、关键时刻，习近平总书记都提出更明确的思路，部署更精准的举措。', '为推动贯彻中央统筹、省负总责、市县抓落实工作机制，2017年开始，习近平总书记每年主持召开中央政治局会议，听取年度脱贫攻坚成效考核等情况汇报。', '为确保最后胜利，2020年3月6日，习近平总书记出席党的十八大以来脱贫攻坚最大规模的会议，直接对从省级到县级的干部提要求、作部署。', '“我们有信心如期全面建成小康社会，如期实现现行标准下农村贫困人口全部脱贫，提前10年实现《联合国2030年可持续发展议程》减贫目标。”今年9月22日，习近平总书记在第七十五届联合国大会一般性辩论上向全世界郑重宣示。', '——聚焦民生“小事”，补齐民生短板，促进公平正义，努力让人民群众的获得感成色更足、幸福感更可持续、安全感更有保障。', '2016年12月21日，习近平总书记主持召开中央财经领导小组第十四次会议，研究“十三五”规划纲要确定的165项重大工程项目进展和解决好人民群众普遍关心的突出问题等工作。', '“全面建成小康社会，在保持经济增长的同时，更重要的是落实以人民为中心的发展思想，想群众之所想、急群众之所急、解群众之所困，在学有所教、劳有所得、病有所医、老有所养、住有所居上持续取得新进展。”习近平总书记强调。', '“十三五”时期，以习近平同志为核心的党中央坚持从人民群众普遍关心、反映强烈、反复出现的问题出发，拿出更多举措、花更多气力，一件件抓落实：', '5年来，义务教育质量不断提高，全国99.8%的义务教育学校办学条件达标，建档立卡贫困家庭义务教育阶段辍学学生清零；', '5年来，养老服务体系建设投资力度不断加大，服务能力不断提升，养老服务床位数超过761万张，近3000万老年人享受高龄补贴；', '5年来，健康中国战略稳步实施，2019年我国人均预期寿命达到77.3岁，基本医疗保险参保覆盖率稳定在95%以上，主要健康指标总体上居于中高收入国家前列。', '5年来，民主法治与时代同步、与改革同频，一批重要法律和有关法律问题的决定相继制定，通过民法典，出台疫苗管理法，修改环境保护法、大气污染防治法……科学立法、民主立法、依法立法深入推进。', '——人民至上、生命至上，坚持把人民生命安全和身体健康放在第一位，彰显深厚为民情怀。', '面对前所未见、突如其来的新冠肺炎疫情，以习近平同志为核心的党中央团结带领全国各族人民，果断打响疫情防控这场没有硝烟的战争。', '从出生仅30多个小时的婴儿到108岁的老人，不放弃每一位病患；全国确诊患者人均医疗费用约2.3万元，一些危重症患者的治疗费用达几十万甚至上百万元，全部由国家承担……', '“十四五”时期是乘势而上开启全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的第一个五年，我国将进入新发展阶段。', '党的十九届五中全会将审议关于制定国民经济和社会发展第十四个五年规划和2035年远景目标的建议，为今后一个时期中国经济社会发展指明方向、勾画蓝图。', '在以习近平同志为核心的党中央坚强领导下，始终保持永不懈怠的精神状态和一往无前的奋斗姿态，我们必将创造新的更大奇迹，夺取新的更大胜利。（记者赵超、齐中熙、安蓓、陈炜伟、侯雪静）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>42</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>关于印发阜新市国有资本布局与战略性调整十四五规划编制工作方案和关于成立阜新市国有资本布局与结构战略性调整十四五规划工作领导小组的通知的通知</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/616524.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['关于印发《阜新市国有资本布局与战略性调整“十四五”规划编制工作方案》和《关于成立阜新市国有资本布局与结构战略性调整 “十四五”规划工作领导小组的通知》的通知', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '搭建平台深化省校合作 双向奔赴携手共赢发展 辽宁省与“双一流”高校战略合作座谈会召开 共同签署省校战略合作框架协议', '《阜新市国有资本布局与战略性调整“十四五”规划编制工作方案》已经市国资委党委研究同意，现印发给你们，请你们认真组织做好“十四五”规划编制工作。', '2. 《关于成立辽宁省国有资本布局与结构战略性调整“十四五”规划工作领导小组的通知》', '为贯彻落实国务院国资委、省委、省政府和市委、市政府“十四五”规划编制工作的部署,做好我市国有资本布局与战略性调整“十四五”规划编制工作,制定本工作方案。', '2021年4月底前,根据国家、省、市“十四五”规划及全国国资规划精神,结合我市实际,编制形成《阜新市国有资本布局与结构战略调整“十四五”规划》 (以下简称“十四五”规划),作为指导全市国资国企工作的纲领性文件。明确全市“十四五时期”国有资本布局结构调整优化的指导思想、工作目标、主要内容、工作任务、保障措施, 引领各县区国资监管机构、市属企业深入落实国家、省、市重大战略和区域发展战略。', '以习近平新时代中国特色社会主义思想为指导,全面贯彻落实党的十九大精神和十九届二中、三中、四中全会精神，深入落实习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上重要讲话精神,紧紧围绕统筹推进“五位一体”总体布局和协调推进“四个全面”战略布局,坚持和加强党对国有企业的全面领导,坚持稳中求进总基调,以推动国有企业高质量发展为统领,深入推进供给侧结构性改革,加快新旧动能转换,坚持创新驱动发展, 全面深化国资国企改革,有效防范化解重大风险,持续推动国有资本做强做优做大,为实现新时代辽宁全面振兴、全方位振兴作出新贡献。', '（一）服务国家战略,着力落实重点工作。深入学习习近平总书记关于国有企业发展改革监管和党的建设重要论述,深入落实习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上重要讲话精神,围绕习近平总书记对辽宁做出的系列重要指示和“四个着力”“三个推进”“六项重点工作”,实现辽宁全面振兴、全方位振兴等重点工作要求,提前谋划,深入调研,将党中央、国务院的决策部署和市委市政府的要求细化分解为“十四五”规划战略目标、重点任务、重大举措,以统筹推进我市国资国企的发展改革、监管和党建工作为抓手,加快构建国资监管大格局,形成国资监管一盘棋。推动国有企业高质量发展,推动国有资本做强做优做大,加快培育具有核心竞争力的一流企业。', '（二）坚持新发展理念,推动高质量发展。“十四五”期间,用规划引导企业推动高质量发展。一是加快新旧动能转换,促进传统产业升级,大力培育和发展战略性新兴产业,大力培育和壮大智能制造、新材料、新能源和节能环保等新兴产业。二是坚持创新驱动发展,增强技术创新能力,围绕智能制造、新材料、洁净能源等领域,全面提升自主创新能力。争取国家和省重大专项、重点研发计划项目支持。三是扩大开放合作水平,加快融入“一带一路”,提高国际化经营水平。加大国有企业与外资企业、世界500强企业合资合作,推进利用外资重大标志性工程,支持企业走出去开展国际产能合作和第三方市场合作。以推进重点企业和重大项目合作为标志,加大央企与地方国有企业全方位深层次对接合作力度。四是落实绿色发展要求,提升绿色发展理念,大力发展环保绿色产业。五是防范化解重大风险挑战。防范企业发生重大风险,提高防范化解重大风险能力。严控企业经营风险。强化企业经营决策主体、执行主体和责任主体地位。坚决贯彻落实“三重一大”制度。坚决防止重大安全事故和环保事件发生。', '坚持突出问题导向、结果导向和效果导向,把各项发展理念安排落实为地区和企业的战略目标、重点任务和重大举措,为我市调整经济结构、优化产业布局、转变发展方式提供重要的支撑。', '积极推进混合所有制改革。加快中国特色现代国有企业制度建设深入实施人才优先发展战略。完善国有资本授权经营体制,加快实现由管资产向管资本转变,健全完善以管资本为主的国有资产监管体系。', '积极推进混合所有制改革。加快中国特色现代国有企业制度建设深入实施人才优先发展战略。完善国有资本授权经营体制', '（四）突出抓好党建引领,为国资国企高质量发展提供坚强保证。全面贯彻落实新时代党的建设总要求,落实好习近平总书记关于坚持党对国有企业的领导是重大政治原则、建立现代企业制度是国有企业改革方向“两个一以贯之”总要求,全面加强国企党的领导党的建设,以高质量党建引领国有企业高质量发展。', '认真落实国务院国资委“十四五”规划编制工作精神,研究我市国资国企“十四五”规划的基本思路、发展目标、主要内容、重大项目、重大政策、重大措施等。通过召开座谈会议、调研考察、业务培训、专题研究等方式推进。', '按照国务院国资委初步拟定的研究课题清单,选择适合我市实际的课题,结合市属企业和各县区国资监管机构实际情况,邀请有关部门、专家学者、科研团队和咨询机构共同进行课题研究工作。', '在调查研究、意见征询、课题研究及形成基本思路的基础上,编制《阜新市国有资本布局与结构战略调整“十四五”规划》,作为指导我市国资国企工作的纲领性文件,确定规划的总体目标、指导原则、重点任务、重大工程项目和重大改革举措,实现纵向到底、国资系统全覆盖的规划构想。指导各县区国资监管机构和市属企业分别编制本地区“十四五”规划和本企业“十四五”发展规划。', '充分调动发挥委内各科室、各县区国资监管机构和各市属企业作用,整合各方力量,集合各方智慧和经验开展“十四五”规划编制工作。最终形成的“十四五”规划,应同时具备战略性和可操作性,以重点任务和重点项目为抓手，确保规划可落地、可考核和可评估。', '按照省国资委“十四五”规划编制时间节点步骤,我市“十四五”规划编制工作分为形成思路、征求意见、形成和审议等阶段,具体安排如下:', '3.完成规划送审稿(2021年4月底前)。省国资委“十四五”规划正式印发后,修改完善规划文本形成规划送审稿,履行决策程序后正式印发。', '按照省国资委“十四五”规划编制工作机构设置,提出我省“十四五”规划编制工作责任分工。', '（一）市国资委负责研究我市“十四五”资本布局与结构战略性调整规划的编制方向、框架、内容,起草规划,指导市属企业做好本企业“十四五”规划编制工作,统筹协调相关的会议组织、课题究、实地调研、征求意见等工作。', '（二）各县区国资监管机构负责编制“本地区资本布局与结构战略性调整规划”，指导县区属企业做好本企业“十四五”规划编制工作,同时配合市国资委做好“十四五”规划各项工作,并配备各类资源支撑。', '（三）各市属企业负责组织编制企业“十四五”规划,聚焦高质量发展,突出重要行业和关键领域布局、推进产业优化升级和传统动能改造、打造战略性新兴产业集群、防范化解重大风险、实现产业基础高级化和产业链现代化等内容。', '市国资委成立“十四五”规划编制工作领导小组,统筹协调“十四五”规划编制工作,把握规划的重点方向,制定规划编制工作方案,研究规划编制中的重大事项,及时了解掌握规划编制工作进展情况,做好协调工作。', '在编制规划过程中,积极借助各领域专家和专业机构力量,广泛听取行业专家意见建议。规划草案应按规定程序开展专家证工作。', '根据编制规划工作要求,申请安排必要的经费,主要用于课题研究、摸底工作、会议组织、专家咨询、调研出差、培训学习和材料印制等。', '按照省国资委统一部署和市委、市政府要求,为加强“十四五”规划编制工作的组织领导和统筹协调,参照省国资委“十四五”规划编制工作机构设置,市国资委成立阜新市国有资本布局与结构战略性调整“十四五”规划工作领导小组。有关事宜通知如下：', '统筹协调全市“十四五”规划编制工作,把握“十四五”规划的重点方向,制定规划编制工作方案,研究规划编制中的重大事项,及时了解掌握规划编制工作进展情况,做好协调工作。', '领导小组办公室设在企业改革与规划发展科,负责日常工作和各科室协调工作。办公室主任由市国资委副主任张忠良兼任,办公室副主任由企业改革与规划发展科科长赵斌兼任。', '企业改革与规划发展科负责督促落实领导小组的部署要求,定期向导小组报告工作进度。负责研究我省国有资本布局与结构战略性调整“十四五”规划和省属企业“十四五”发展规划的编制方向框架、内容,研究课题内容,分析行业发展趋势,为规划编制提供支撑。负责起草规划文本,统筹协调组织相关会议,实地调研征求意见等工作。负责研究提出“十四五”时期国有企业改革路径、重大改革举措,研究提出推进混合所有制改革等相关工作的目标和举措。', '办公室（党委办公室）负责做好委内重要文稿、领导重要讲话、重点课题研究报告与规划编制工作的衔接工作。', '综合法规与维稳安监科负责研究提出“十四五”期间以管资本为主加强国资监管,完善国资监管法规制度体系等相关工作的目标和举措。', '考核分配与审计监督科负责提供各省属企业和各市国资系统财务数据,配合开展国有资本布局结构财务统计分析。研究提出“十四五”时期财务管理目标和举措。研究提出“十四五”时期考核相关工作的目标和举措,做好省属企业负责人任期考核、年度考核与“十四五”规划的衔接。研究提出“十四五”时期国有资产综合监督检查,指导省属企业内部监督等工作的目标和举措;研究提出“十四五”时期建立监督追责工作体系的目标和举措。', '产权管理与资本运营科负责提供各省属企业和各市国资的产权登记数据,配合开展国有资本布局结构产权统计分析。研究提出“十四五”时期产权管理目标和举措。研究提出“十四五”时期国有资本收益目标和举措,研究提出“十四五”期间国有资本投资公司和国有资本运营公司发展目标和举措。', '企业党建与领导人员管理科负责研究提出“十四五”期间统筹推进各类人才队伍建设,全面提高行业人才队伍整体素质的目标和举措。提出“十四五”时期国有企业坚持党的领导,加强党的建设工作,加快推动国企党建工作提质、增效、升级等目标和举措。负责研究提出“十四五”时期加强宣传工作、国资国企正面报道等相关工作的目标和举措。', '各市属企业负责组织编制本企业“十四五”规划,配合市国资委做好“十四五”规划各项工作,并配备各类资源支撑。', '各县区国资监管机构负责组织编制本地区国资“十四五”规划;指导本地区监管企业做好“十四五”规划编制工作;配合市国资委做好国家三级规划和我市“十四五”规划各项工作,并配备各类资源支撑。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>42</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>做好生态环保大文章习近平总书记在山西考察时的重要讲话指引绿色发展新方向</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-05-07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/314137.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '郝鹏在检查指导2024年我省高考准备工作时强调 从严从细抓好组织保障工作确保高考安全平稳圆满顺利', '新华社北京5月13日电 题：做好生态环保“大文章”——习近平总书记在山西考察时的重要讲话指引绿色发展新方向', '“要坚持山水林田湖草一体化保护和修复，把加强流域生态环境保护与推进能源革命、推行绿色生产生活方式、推动经济转型发展统筹起来，坚持治山、治水、治气、治城一体推进”', '习近平总书记近日在山西考察时的重要讲话在各地干部群众中引发强烈反响。大家表示，要认真学习贯彻落实习近平总书记的重要讲话精神，牢固树立绿水青山就是金山银山的理念，统筹推进山水林田湖草系统治理，做好生态环境保护的“大文章”。', '习近平总书记近日在山西考察时的重要讲话在各地干部群众中引发强烈反响。大家表示，要认真学习贯彻落实习近平总书记的重要讲话精神，牢固树立绿水青山就是金山银山的理念，统筹推进山水林田湖草系统治理，做好生态环境保护的', '12日中午，太原市民郭晓娟正在汾河太原城区晋阳桥段附近锻炼。看到前来考察的习近平总书记，她和周围的群众一起围拢上去。习近平总书记指出的“治理汾河，不仅关系山西生态环境保护和经济发展，也关系太原乃至山西历史文化传承”，令郭晓娟特别有感触。', '“汾河养育了千千万万山西人，我们有责任守护好‘母亲河’，让子孙后代也能看到这里的美丽风光。”郭晓娟说。', '太原市第五中学教师赵旭从手机上密切关注习近平总书记来山西考察的消息。“作为一个土生土长的太原人，对这些年太原生态环境和城市变化有切身体会。”赵旭说，“按照习近平总书记提出的新要求，太原将更有吸引力。但这不是一朝一夕能完成的，需要持续用力，久久为功！”', '湖南益阳沅江市市长杨智勇这段时间马不停蹄。沅江市地处洞庭湖腹地，正在以禁渔为契机，推进渔民特色小镇和特色村建设；同时充分利用自然禀赋，打造湖洲湿地公园、摄影观鸟台等南洞庭湖湿地生态旅游区。', '“习近平总书记指出，把加强流域生态环境保护与推进能源革命、推行绿色生产生活方式、推动经济转型发展统筹起来，对我们启发很大。”杨智勇表示，必须践行新发展理念，努力促进对自然生态的保护和在保护前提之下做好利用，实现经济转型。', '竹海摇曳，满目苍翠。5月，浙江安吉县余村已是初夏。39岁的村民胡斌在 自家小院里忙得不亦乐乎——从“五一”小长假至今，他经营的客栈几乎天天客满。', '看到习近平总书记在山西考察时的重要讲话，胡斌不由回想起2000年前后村里挖山开矿、满目疮痍，之后在政府引导下关停矿山，生态环境逐步得以修复，越来越多的游客被吸引过来。胡斌感慨：“‘绿水青山’真成了家门口的‘金山银山’。绿色发展这条路子是对的，我们一定会坚持走下去。”', '安徽合肥市环巢湖生态示范区建设领导小组办公室主任高斌友对习近平总书记提出的“要坚持山水林田湖草一体化保护和修复”印象深刻。', '“山水林田湖草是相互依存、不可分割的一个整体。治湖先治河，治河先治污，治污先治源。”高斌友说，“我们将坚持生态环境修复保护的系统化思维，把习近平总书记重要讲话精神贯穿巢湖治理全过程，作为下一步治理机制创新与提升的重要原则。”', '从2018年开始，托克托县开始实施沿黄生态走廊建设工程。经过2年建设，黄河岸边已完成营造林面积8.7万亩，不仅降低了水土流失、改善了区域生态环境，还通过发展林果种植，带动了贫困户和一般农户增收，实现了生态效益与经济效益双赢。', '“习近平总书记提出‘扎实实施黄河流域生态保护和高质量发展国家战略’，我们正在全力推进。”托克托县县长李春燕说，沿黄生态走廊建设工程将一直持续至2022年。届时，黄河流经托克托县37.5公里的两岸环境肯定比现在更好。', '万家寨水务控股集团有限公司董事长陈耳东表示，习近平总书记提出要发扬“右玉精神”，不仅为山西，也为整个中国的生态文明建设提供了重要遵循。“右玉精神”体现的是全心全意为人民服务，是迎难而上、艰苦奋斗，是久久为功、利在长远。修复和保护生态环境需要一代一代人持续努力，共同建设。（执笔记者：姜琳；参与记者：王菲菲、马晓媛、程士华、史卫燕、王靖、魏一骏）']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>42</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>煤矿安监局深入学习贯彻习近平总书记重要讲话精神为加快建立同疫情防控相适应的经济社会运行秩序作贡献</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/133032.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['煤矿安监局：深入学习贯彻习近平总书记重要讲话精神为加快建立同疫情防控相适应的经济社会运行秩序作贡献', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '3月6日，国家煤矿安监局党组书记、局长黄玉治主持召开党组会议，传达学习贯彻习近平总书记3月4日主持中央政治局常委会会议时和3月2日在北京考察新冠肺炎防控科研攻关工作时的重要讲话精神，研究贯彻落实措施。黄玉治强调，要坚决服从服务大局，吃透中央精神，摸清基层实情，研判新情况新风险，把疫情防控和煤矿安全防范各项措施落实落细落到位，为加快建立同疫情防控相适应的经济社会运行秩序作出积极贡献。', '会议指出，当前全国已初步呈现疫情防控形势持续向好、生产生活秩序加快恢复的态势，充分说明了以习近平同志为核心的党中央对疫情形势判断准确，各项工作部署及时，各项举措有力有效，再次彰显了中国共产党领导和中国特色社会主义制度的显著优势。必须认真学习贯彻习近平总书记重要讲话精神，推动往深里学、往心里走、往实里干，慎终如始、毫不放松抓好煤监系统疫情防控工作，实打实把防控措施做实做细，确保责任不悬空、工作无死角、监督要落地，以实际行动和实际成果来检验学习贯彻落实成效。', '会议要求，要根据疫情分区分级推进煤矿复工复产，在守住安全底线的前提下，从行政审批网上办理、简化复工复产手续、专家指导服务、线上安全教育培训等方面给予支持和帮助，争取把服务送进企业，把困难解决在企业。要抓实抓细疫情期间煤矿安全监管监察工作，充分发挥大数据、互联网等信息化手段，实施分时分区分类差异化精准执法，有效防范化解重大安全风险隐患，始终保持打非治违高压态势。要强化应急处置，从应急预案、指挥机制、新闻宣传等方面，全力做好疫情防控期间煤矿生产安全事故应对处置准备工作，坚决防范遏制较大以上煤矿事故。', '国家煤矿安监局党组成员出席会议，驻部纪检监察组，局安全总监、机关各司局有关负责人等列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>中央赴湖北指导组看望医务工作者考察社区防控工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-01-08</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2020/133450.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '发挥引领作用 拓展合作空间 携手实现共赢 辽宁省与中央广电总台举行战略合作框架协议签约 暨总台辽宁总站揭牌运行仪式', '连日来，广大医务工作者全力以赴，奋战在抗击疫情的最前线。30日，中共中央政治局委员、国务院副总理孙春兰率领中央赴湖北指导组走进医院和医务人员住地，受习近平总书记委托，代表党中央、国务院看望慰问一线医务工作者，并实地了解走访社区疫情防控情况和居民生活状况。', '“你们给了我们信心和力量，你们是疫情防控阻击战的英雄！”在华中科技大学同济医院中法新城院区，孙春兰向坚守岗位无私奉献的医务工作者致以崇高的敬意和衷心的感谢。她说，新型冠状病毒感染的肺炎疫情暴发以来，医务工作者冲锋在前、奋勇拼搏，展现出忘我牺牲的奉献精神和大爱无疆的职业品格，值得学习和敬重。目前，疫情形势仍非常严峻，疑似和确诊病例还在增加，危重病人较多。要落实中央应对新型冠状病毒感染肺炎疫情工作领导小组的部署，加强对医务人员的防护和保障。希望广大医务工作者再接再厉，在保护好自己的同时，继续发挥抗击疫情突击队和生力军的作用，共同打赢这场攻坚战。', '孙春兰走进医院库房，了解医用防护服、口罩等物资保障情况。她要求，坚决贯彻落实习近平总书记重要指示精神，千方百计为医护人员提供物资保障，确保他们的安全。', '“你们对目前的治疗和防护工作有什么建议？”在国家援鄂抗疫医疗队住地，孙春兰在看望大家的同时，听取了医疗队队员的意见建议。对于武汉市疑似病例确诊难、过程长的问题，当即要求当地卫生和疾控部门，立即研究简化流程，为救治患者赢得宝贵的时间。她表示，国家援鄂抗疫医疗队集合了最优秀的医疗资源，不仅医术精湛，也有丰富的救死扶伤经验，要加以总结和落实，很多经验可以在全国推广。', '下午，指导组来到武汉市东湖高新区关东街南湖社区和龙城社区卫生服务中心、江夏经济开发区庙山邬树村，与社区网格员、志愿者和基层医疗工作者交谈，了解社区疫情防控情况和居民生活状况，叮嘱大家在确保安全的情况下，加强联防联控，做好筛查等工作，当好居民的“守护神”。她要求，各级党员干部要担当作为，始终冲在抗击疫情第一线，城乡社区要运用微信、广播、电视等多种手段，让更多居民知晓疫情防控情况和自我防控知识，及时疏导居民情绪；要加大生活保障力度，保证居民日常饮食和生活用品供应。', '下午，指导组来到武汉市东湖高新区关东街南湖社区和龙城社区卫生服务中心、江夏经济开发区庙山邬树村，与社区网格员、志愿者和基层医疗工作者交谈，了解社区疫情防控情况和居民生活状况，叮嘱大家在确保安全的情况下，加强联防联控，做好筛查等工作，当好居民的']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>中共阜新市委办公室年部门决算情况说明</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2019/134467.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '1、负责市委日常文书的处理、各种会议的会务工作和市委领导同志参加重大活动的协调组织安排，承担市委、市委办公室文件的起草、修改、校核、送审和制发工作。', '2、负责市委主要文稿的起草、修改工作，围绕市委总体工作部署开展综合调研、收集信息、反映动态，服务领导决策，为机关和基层提供信息咨询、服务。', '6、负责管理、监督全市保密工作，指导检查基层保密工作，审查出境携带的文件、资料，查处失泄密事件。', '1、依据市委的总体部署和中心工作，对全市经济、社会发展的全局性、战略性、前瞻性问题和改革开放中的重大问题进行调研和咨询论证，为市委决策提供依据、建议和方案。', '3、参与全市改革开放中重大政策的研究和制定工作，组织撰写或参与撰写宣传阐释党的路线、方针、政策的文章和著作。', '4、负责编制、实施全市经济、社会重大问题调研方案，组织、协调和指导全市党委系统的调研工作。', '1、调查研究统一战线理论和方针政策，组织贯彻执行中央、省委和市委关于统一战线的方针政策；向市委和省委统战部反映情况，提出开展统战工作的意见和建议。', '2、负责联络各民主党派和无党派人士，及时通报情况，反映他们的意见和建议；贯彻落实党领导的多党合作和政治协商制度及党对民主党派的方针、政策；落实中央、省委和市委关于发挥民主党派参政议政和民主监督作用的工作；支持、帮助各民主党派加强自身建设，选拔、培养新一代代表人物。', '3、负责调查研究、协调检查有关民族、宗教工作的重大方针、政策的贯彻落实情况；联系少数民族和宗教界的代表人士，协助有关部门做好少数民族干部的培养和举荐工作。', '4、负责党外人士的政治安排，会同有关部门做好培养、选拔、推荐党外人士在政府和司法机关中的实职安排工作。做好党外后备干部和新的代表人物队伍的建设工作；做好党与非党合作共事的调查，会同有关部门解决合作共事中存在的问题。', '5、负责联系海内外工商界社团和代表人士，开展经济领域的统一战线工作；推动民主党派、工商联和有关人民团体参加经济建设。调查、研究并反映我市非公有制经济代表人士的情况，加强联系，协调关系，提出政策建议。', '6、负责指导各县、区委统战部、市直机关工委统战部和基层统战工作，协调市政府各有关部门的统战工作；联系、指导市工商联工作；代管市侨联工作；领导市社会主义学校工作；代管市台联、黄埔同学会阜新联络组等有关社会团体工作。', '7、贯彻落实中共中央、国务院对台工作方针政策、法律法规；调查研究我市对台工作情况；提出开展对台工作的意见和建议；归口管理涉台事务和有关促进“三通”工作；统筹协调对台事务性工作、各领域交流和两岸人员交往工作；协调开展对台经贸工作；指导各民主党派、工商联和统战系统有关团体重点人物、重大事件的活动；了解掌握台湾形势和岛内动态，提出对策建议；联络台湾上层重点人物；处理涉台重大活动和重大事件。', '1、领导市直机关党的建设，提出市直机关党的建设规划和指导性意见，分类指导市直机关党的建设工作，及时向市委汇报机关党的建设情况。', '2、负责市直各级党组织政治、思想、组织、作风、制度建设，抓好党员管理教育和科级干部的理论培训。', '3、负责指导市直机关各级党组织实施对党员领导干部的监督工作，加强领导班子理论学习中心组、民主生活会的管理，抓好领导班子思想政治建设。定期了解各部门党员和群众对本单位领导干部的意见，及时向市委反映各部门领导班子和领导干部的情况和问题。', '5、指导市直机关党组织配合行政领导抓好思想政治工作、社会稳定工作和机关思想作风建设工作。', '6、负责审批市直机关党组织设置及机关党委、总支部、支部书记、副书记的任免。按照市直机关工委管理权限管理工委机关的干部。', '7、负责市直机关党的纪律检查工作。按有关规定和权限，审批科级党员干部违反党纪处理决定。指导市直各级党组织抓好党风廉政建设，促进党政机关廉洁自律。', '1、认真贯彻执行党的路线、方针、政策，沟通党和政府与社会科学界的联系。指导、组织、协调所属各学会、协会和研究会等学术组织的工作，促进社会科学学术组织的建设和发展。有领导、有计划地开展理论学术活动，组织重大科研项目的协作和联合攻关。', '2、组织社会科学优秀成果和先进集体、先进个人的评奖活动。编辑出版会刊及有关资料，推荐、宣传和推广社科研究成果。', '3、组织和推动市内外社科界的友好往来和学术交流，加强社会科学界与自然科学界及其他实际工作部门的联系。', '反映会员和社会科学工作者的建议和要求，维护他们的合法权益；配合有关部门依法对所属各学术组织的不正常活动进行检查和处理。', '财政拨款支出决算反映阜新市市委办公室2018年整体财政拨款支出情况，既包括使用当年财政拨款发生的支出，也包括使用以前年度财政拨款结转和结余资金发生的支出。2018年度财政拨款支出1935.27万元，其中：基本支出1805.44万元，项目支出129.83万元。', '2018年度财政拨款支出1935.27万元，按支出功能分类科目分，包括一般公共服务支出1672.65万元，科学技术支出0万元，社会保障和就业支出177.36万元，医疗卫生支出0万元，农林水事务支出0万元，交通运输支出0万元，资源勘探电力信息等事务支出0万元，商业服务业等事务支出0万元，国土资源气象等事务支出0万元，住房保障支出85.26万元，其他支出0万元。', '（1）行政运行1430.92万元，主要是保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（2）一般行政管理事务107.33万元，主要指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。', '（3）统战事务134.40万元，主要是保障统战机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '3.公务用车购置及运行维护费5.81万元，其中：公务用车购置费0万元，公务用车运行维护费5.81万元。2018年购置公务用车0辆，年末公务用车保有量4辆。', '2018年市委办公室政府采购支出总额0万元，其中：政府采购货物支出0万元，政府采购工程支出0万元，政府采购服务支出0万元。', '截至2018年12月31日，市委办公室共有车辆4辆，其中：副省级以上领导干部用车0辆，一般公务用车4辆，一般执法执勤用车0辆，特种专业技术用车0辆，其他用车0辆；单位价值200万元以上大型设备1台（套）。', '4.经营收入：指事业单位在专业业务活动及辅助活动之外开展非独立核算经营活动取得的收入。', '7.用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“上级补助收入”、“事业收入”、“经营收入”、“附属单位上缴收入”、“其他收入”不足以安排当年支出情况下，使用以前年度积累的事业基金（事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '12.经营支出：指事业单位在专业活动及辅助活动之外开展非独立核算经营活动发生的支出。', '13.对附属单位补助支出：指事业单位用财政补助收入之外的收入对附属单位补助发生的支出。', '14.“三公”经费：指用财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '15.一般公共服务（类）党委办公厅（室）及相关机构事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '16.一般公共服务（类）党委办公厅（室）及相关机构事务（款）一般行政管理事务（项）：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '17.一般公共服务（类）统战事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '18.一般公共服务（类）统战事务（款）一般行政管理事务（项）：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。', '19.社会保障和就业（类）行政事业单位离退休（款）归口管理的行政单位离退休（项）：反映实行归口管理的行政单位（包括实行公务员管理的事业单位）开支的离退休经费。', '20.社会保障和就业（类）抚恤（款）死亡抚恤（项）：反应按规定用于烈士和牺牲、病故人员家属的一次性和定期抚恤金以及丧葬补助费。', '21.住房保障（类）住房改革（款）住房公积金（项）：反映行政事业单位按人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '22.机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>42</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>失效阜新市人民政府办公室关于印发阜新市全民科学素质行动计划纲要实施方案年的通知</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017-07-18</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2017/112784.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['（失效）阜新市人民政府办公室关于印发阜新市全民科学素质行动计划纲要实施方案（2017—2020年）的通知', '阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '（失效）阜新市人民政府办公室关于印发阜新市 全民科学素质行动计划纲要实施方案（2017—2020年）的通知', '经市政府同意，现将《阜新市全民科学素质行动计划纲要实施方案（2017—2020年）》印发给你们，请结合实际，认真组织实施。', '（一）指导思想。深入贯彻党的十八大、十八届三中、四中、五中、六中全会和习近平总书记系列重要讲话精神，牢固树立创新、协调、绿色、开放、共享的发展理念，坚持“政府推动、全民参与、提升素质、促进和谐”的工作方针，围绕“节约能源资源、保护生态环境、保障安全健康、促进创新创造”的工作主题，充分发挥全民科学素质在四个全面战略布局和实施创新驱动发展战略中的基础作用，以提升全民科学素质为目标，以改革创新创业为动力，以信息化建设传播为重点，以构建社会化科学素质工作格局为保障，充分激发科技工作者的积极性、创造性，合力推进全民科学素质工作，为阜新转型升级提供强有力的人才和智力支撑。', '（二）工作目标。到2020年，我市科学技术教育、传播与普及工作得到长足发展，形成比较完善的公民科学素质建设的组织实施、基础设施、条件保障、工作机制、监测评估等体系，科普公共服务能力大幅提升，公民科学素质整体水平有较大幅度提高，公民具备基本科学素质的比例力争达到10.8%。', '完善基础教育阶段的科技教育，增强中小学生的创新意识、学习能力和实践能力，促进中小学科技教育水平大幅提升。', '完善高等教育阶段的科技教育，引导大学生树立科学思想，弘扬科学精神，激发大学生创新创造创业热情，促进学校科技教育和校外科普活动有效衔接。', '巩固农村义务教育普及成果，提高农村中小学科技教育质量，为农村青少年提供更多接受科技教育和参加科普活动的机会。', '推进义务教育、高中阶段的科技教育。加强对义务教育阶段探究性学习的指导，推动全市中小学广泛开展科技教育活动，培养学生的创新意识。在非本科教育阶段开设科普课程。开齐开足中小学科学类课程，加强实验教学，增强中学数学、物理、化学、生物等学科教学的横向融合。鼓励普通高中探索开展科学创新与技术实践的跨学科探究活动。强化中等职业学校科技教育，发挥课程教学主渠道作用，推动科技教育进课堂、进教材、列入教学计划。', '推进高等教育阶段科技教育和科普工作。积极组织我市高校学生参加省大学生课外学术科技作品竞赛、省大学生创业大赛等活动，为青年提供将科技创意转化为实际成果的渠道、平台。全面深化高等院校创新创业教育改革，建立创新创业教育体系，培养一大批创新应用型人才。', '大力开展校内外结合的科技教育活动。拓展校外青少年科技教育渠道，有计划地组织中小学生进入科技馆、青少年宫、博物馆、妇女儿童活动中心等各类科技场馆及科普教育基地开展科技素质教育。广泛组织开展学校科技节、科技周、科普日、公众科学日、科普周等活动，普及节约资源、保护环境、自护教育、防灾应急、身心健康等知识。开展好青少年科技创新大赛、青少年机器人竞赛等活动，组织参加全国青少年高校科学营、省青少年科技创新大赛、省青少年机器人竞赛等活动。', '利用多种手段为农村青少年提供科技服务。面向农村学生特别是农村留守儿童，开展科技辅导、心理疏导、安全健康等方面的志愿服务。加大流动科技馆、科普大篷车等流动科普设施的覆盖面和实效性。', '3.分工：市教育局、团市委、市科协牵头，市委宣传部、市科技局、市文广新局、市卫生计生委、市妇联、市社科联等单位配合。', '培养具有科学文化素质、掌握现代农业科技、具备一定经营管理能力的新型职业农民，全面提升农民的生活水平。', '开展农业科技教育培训。实施新型职业农民培育工程和现代青年农场主计划，开展春、冬季农业科技大培训，实施农村青年创业致富“领头雁”培养计划和巾帼科技致富带头人培训计划，培养各类新型职业农民和农村实用人才。', '广泛开展形式多样的农村科普活动。深入开展文化科技卫生“三下乡”、科普日、科技周、世界粮食日、健康中国行、千乡万村环保科普行动、科普之冬等各类科普活动，普及绿色发展、安全健康、耕地保护、防灾减灾、绿色殡葬等科技知识和观念。', '加强农村科普公共服务建设。将科普设施纳入农村社区综合服务设施、农业综合服务站（所）、党员干部现代远程教育网络、基层综合性文化服务中心等建设中，提升农村社区科普服务能力。深入实施科普惠农兴村计划，开展全国科普示范市、县区创建活动、生态家园富民行动、科普服务站建设专项行动、农村科普服务能力提升计划、农民合作组织协同服务行动。继续实施农村信息化培训普及工程，推动科普中国乡村e站建设，支持农村专业技术协会建设发展，提升基层科普公共服务能力。', '3.分工：市农委、市科协牵头，市委组织部、市委宣传部、市发展改革委、市科技局、市民委、市民政局、市财政局、市文广新局、市卫生计生委、团市委、市妇联、市工商联等单位配合。', '以专业技术人才、高技能人才、进城务工人员及失业人员的培养培训为重点，到2020年基本实现有培训愿望的劳动者都有机会参加一次相应的职业培训。', '推动职业技能、安全生产、信息技术等知识和观念的广泛普及，提高城镇劳动者科学生产和健康生活能力。', '加强专业技术人员继续教育工作。围绕装备制造、机器人、现代服务业等重点产业领域，统筹实施急需紧缺人才培养培训项目。积极组织推荐科技工作者参加系列国家级和省级高级研修班。依托“辽宁省干部在线学习网”专业技术人员培训专区开展继续教育。加强专业技术人员继续教育，提升办学层次、扩大办学规模。', '大规模开展职业培训。构建以企业为主体、职业院校为基础，各类培训机构积极参与、公办与民办共举的职业培训和技能人才培养体系。开展订单式、定岗、定向等多种形式的就业技能培训、岗位技能提升培训、安全生产培训和创业培训，落实企业在岗职工技能提升培训补贴政策，健全完善劳动者终身培训体系。积极开展技能竞赛和岗位练兵活动，发现储备一批青年拔尖技能人才。', '广泛开展进城务工人员培训教育。推进农民工职业技能提升计划；开展城乡妇女岗位建功活动；发挥企业、科普机构、科普场馆、科普学校、妇女之家等作用，针对进城务工人员广泛组织开展培训，提高进城务工人员在城镇的稳定就业和科学生活能力。', '大力营造崇尚创新创造的社会氛围。深入开展“讲理想、比创新、比贡献”等活动，组织实施员工技术创新支持计划、企业群众性技术创新扶持行动，推动大众创业、万众创新，最大程度释放职工创新潜力。', '3.分工：市人力资源社会保障局牵头，市委宣传部、市工业和信息化委、市教育局、市科技局、市文广新局、市卫生计生委、市总工会、团市委、市妇联、市科协、市工商联等单位配合。', '将提高科学执政水平、科学治理能力、科学生活素质贯穿于领导干部和公务员选拔录用、教育培训、综合评价全过程。', '加强规划设计，强化教育培训，创新科普方式，充分利用现代信息技术，加强领导干部和公务员科技知识、科学方法的培训和科学思想、科学精神的培养。', '加强领导干部和公务员科学素质教育规划。严格执行《干部教育培训工作条例》有关规定，认真贯彻落实市干部教育培训规划有关要求，重点加强对市、县区和乡镇（街道）党政领导干部、各级科技行政管理干部、科研机构负责人和国有企业、高新技术企业技术负责人等开展科学理论、科学方法和科技知识的培训。', '加强领导干部和公务员科学素质教育培训。在党委（党组）中心组学习中，加强马克思列宁主义、毛泽东思想和中国特色社会主义理论体系，特别是习近平总书记系列重要讲话精神等科学理论的教育。把树立科学精神、增强科学素质纳入党校和各类干部培训院校教学计划，合理安排课程和班次。增加党刊党报等科技宣传版面或时段。开设党员干部现代远程教育和领导干部在线学习科普专栏，开办“名家讲科普”、“科普大讲堂”系列讲座，推动科普进机关、进党校、进高校。', '强化领导干部和公务员考核录用中科学素质要求。贯彻落实阜新市领导班子和领导干部工作实绩考核工作的有关要求，不断完善干部考核评价机制。在党政领导干部、企事业单位负责人任职考察、年度考核中，强化与科学素质要求有关的具体内容。在公务员录用考试中，强化科学素质有关内容。制订并不断完善领导干部和公务员科学素质监测、评估标准。', '开展针对领导干部和公务员的各类科普活动。组织院士、专家、知名学者开展心理咨询、心理健康培训等活动，发放科普系列指导手册，打造网络交流平台。', '3.分工：市委组织部、市人力资源社会保障局牵头，市委宣传部、市直机关工委、市委党校、市科技局、市科协、市社科联等单位配合。', '构建科学教师培训体系，加大培训力度，提高教师科学素质和科技教育水平，建成一支专兼结合的优秀科学教师队伍。', '完善科技教育培训基础设施，提高科技教育培训基地、场所的利用效率，保障科技教育与培训有效实施。', '加强科技教育师资培训和研修。鼓励高等院校申请设置相关专业，培养科技教育师资；积极构建市、县、校三级培训协调发展，职前职后教育相互衔接，学历与非学历教育并举，学校教育与远程教育相配合的中小学科技教师教育体系，建设和培养一支专兼结合的科技教师队伍。', '改进科技教育教学方法。开展中小学信息化标准建设，在中小学综合实践活动课程中设计安排科学教育专题，组织学生参与科技活动，加强科学课程教学与评价改革，提高学生探究性学习和动手操作能力。', '加强科技教育与培训的基础设施建设。重点加强农村、少数民族聚居地区、欠发达地区中小学科技教育硬件设施建设。合理规划布局现有科技教育培训基地、场所。', '充分挖掘高等院校和科研院所科技教育资源。推动高等院校、科研院所、企业的科技专家参与科学教师培训、中小学科学课程教材建设和教学方法改革，推动有条件的中学科学教师到高等院校、科研机构和重点实验室参与科研实践。加强高等院校科学道德和学风建设，推动高等院校师生广泛树立科学道德和科学精神。', '3.分工：市教育局、市人力资源社会保障局牵头，市委宣传部、市发展改革委、市科技局、市民委、市财政局、市统计局、团市委、市科协、市社科联等单位配合。', '普及尊重自然、绿色低碳、科学生活、安全健康、应急避险等知识和观念，提升社区居民应用科学知识解决实际问题、参与公共事务的能力。', '提升社区科普公共服务能力，促进基层社区科普服务设施融合发展，推动城镇常住人口科普基本公共服务均等化，全面提升居民科学素质。', '开展社区科技教育、传播与普及活动。深入开展科普日、科技周、科普月及科技、文化、卫生、安全、健康、环保进社区等活动。组织开展社区日常生活、防震减灾、体育健身、卫生健康、食品药品、自救互救、应急避险等教育培训活动。', '改善社区科普基础条件。在基层服务中心拓展科普功能，推动科普中国社区e站、社区科普益民服务站、社区科普大学、科普网络建设，加强社区科普协会建设。', '建立政府推动、社会支持、居民参与的社区科普新格局。深入实施社区科普益民计划、科普服务站专项行动，建立一批省、市、区科普示范社区。发挥工人先锋岗、青年文明号、巾帼文明岗、科普志愿者以及有影响和号召力人士的带动作用，助力和谐社区建设。', '3.分工：市文广新局、市科协牵头，市委宣传部、市发展改革委、市教育局、市科技局、市民政局、市财政局、市住房城乡建设委、市卫生计生委、市统计局、市总工会、团市委、市妇联、市社科联等单位配合。', '提升科技传播能力，以科普信息化为核心，推动实现科普理念和科普内容、表达方式、传播方式、运营机制等服务模式的全面创新。', '提升优质科普资源供给能力，实现科普与艺术、人文有机结合，推出群众喜闻乐见的科普精品，让科学知识在网上和生活中流行。', '提升科技传播精准服务水平，推动科普信息在城区、农村、学校等落地应用，满足公众泛在化、个性化获取科普信息的需求。', '实施“互联网+科普”行动。以科普内容信息、传播网络、应用端为核心，以提升科普服务效能、科普信息汇聚生产与有效利用为目标，实现科普的信息汇聚、数据分析挖掘、应用服务、即时获取、精准推送、决策支持。汇聚各方力量打造“大科普的微时代”品牌，探索利用政府和社会资本合作的科普公共服务新模式，引导建设众创、众包、众扶、众筹、分享的科普生态圈。', '强化科普传播协作。创新科普传播形式，推动图书、报刊、音像电子、电视等传统媒体与新兴媒体在科普内容、渠道、平台、经营和管理上深度融合，实现包括纸质出版、网络传播、移动终端传播在内的多渠道全媒体传播。贯彻落实鼓励大众传媒开展科技传播的政策措施。利用党报党刊常年开展科普宣传，向公众传播科技知识。', '强化科普信息的落地应用。强化移动端科普推送，支持移动端科普融合创作，鼓励科研机构通过微信、微博等新媒体平台建设和运行有影响力的科普公众号，强化科普头条新闻推送，促进科普活动线上线下结合。加大对民族聚居地区、欠发达地区群众及青少年等重点人群的科普信息服务定制化推送力度。', '3.分工：市委宣传部、市文广新局、市科协牵头，市教育局、市科技局、市民委、市统计局等单位配合。', '增加科普基础设施总量，完善科普基础设施布局，提升科普基础设施的服务能力，实现科普公共服务均衡发展。', '加强政策扶持。推进公共场所科普设施建设工程，把科普设施建设纳入城乡建设规划，研究制定公共科普设施建设扶持政策；严格执行国家现行规划设计规范，新建小区建立文化活动中心应包含科普设施建设内容。', '建立健全现代科技馆体系。进一步建立完善以实体科技馆为龙头和基础，流动科技馆、科普大篷车、农村学校科技馆、数字科技馆为拓展和延伸，辐射基层科普设施的现代科技馆体系建设。继续推进科技馆免费开放，提高科技馆公共服务质量和水平。', '加强科普教育基地建设。建设行业类、科研类科普教育基地，制定完善科普教育基地的管理制度，加强工作考核和动态管理，提升服务能力。推动青少年宫、妇女儿童活动中心、各类培训基地、主题公园、文化场所等增加科技教育内容，引导自然保护区、旅游景区等公共设施增强科普功能，在全市树立一批科普教育基地典型。', '推动优质科普资源开发开放。推动高等院校及科研院所实验室、博物馆、标本馆、陈列馆、科研中心等对外开放。推动高端科研资源科普化，充分发挥重点实验室和重大科技基础设施等高端科研设施的科普功能。鼓励高新技术企业对公众开放研发机构、生产设施或展览馆等，推动建设专门科普场所。', '3.分工：市发展改革委、市科技局牵头，市委宣传部、市住房城乡建设委、市教育局、市民政局、市财政局、市文广新局、市统计局、市旅游委、市总工会、团市委、市妇联、市科协等单位配合。', '1.任务：落实国家科普产业发展的宏观政策以及技术标准、规范，推动科普产业健康发展，大幅提升科普产品和服务供给能力，有效支撑科普事业发展。', '制定科普产业发展的配套政策。充分发挥市场机制配置科普资源的功能，开展科普产品和服务发展相关政策研究，将科普产业纳入高新技术产业、创意产业和文化产业的相关优惠政策范围。', '推动科普创作。采取政策扶持、择优立项、展销推介、评优奖励等措施，支持优秀科普原创作品以及科技成果普及、健康生活等重大选题，支持科普创作人才培养和科普文艺创作，鼓励开展科幻、动漫、视频、游戏、图书等科普创作，繁荣科普创作市场。', '3.分工：市科技局、市科协牵头，市发展改革委、市教育局、市财政局、市人力资源社会保障局、市文广新局、市统计局、市旅游委等单位配合。', '加强科普人才队伍建设，提升科普人才素质，壮大专兼职科普人才队伍，推动科普志愿者队伍建设，优化科普人才结构。', '建立完善科普人才激励机制，推动科普人才知识更新和能力培养，增强适应现代科普发展的能力。', '完善科普人才培养和使用。落实市中长期科技、教育、人才发展规划纲要，建立健全有利于科普人才队伍建设和发展的体制与机制，加强科普人才培养和使用的政策研究。', '加强科普人才教育培养。依托高等院校、科研院所、科普场馆、科普教育基地、大众传媒、科技社团、企业与相关机构建立完善专兼职科普人才培训基地，重点培养科普创作与设计、科普研究与开发、科普传媒、科普产业经营、科普活动策划与组织等方面的高水平的科普人才。', '加强科普专业队伍建设。充分发挥科技社团、高等院校、科研机构等作用，搭建科学传播服务平台，发展壮大科学传播专家团队。重点在中小学校、科普场馆、青少年宫等建立专职科技辅导员队伍。组织动员科技致富带头人、专业技术人员和社区科普大学骨干学员等担任科普宣传员。充分发挥企业科协、企业团委、职工技协、研发中心等作用，结合职工技能培训、继续教育和各类科普活动，培养和造就企业实用科普人才队伍。', '大力发展科普志愿者队伍。建立完善科普志愿者组织管理制度，推动各级各类科普志愿者队伍建设，推动建立科普志愿者社团组织，开展科普志愿者交流、培训、经验推广等工作。搭建科普志愿活动服务平台，建立完善科普志愿服务激励机制。鼓励老科技工作者、高等院校师生、中学生、传媒从业者、大学生村官等参与科普志愿服务。建立健全应对重大突发事件的科普志愿者动员机制，发展应急科普志愿者队伍。', '3.分工：市科技局、市人力资源社会保障局、市科协牵头，市委组织部、市委宣传部、市工业和信息化委、市教育局、市财政局、市农委、市文广新局、市卫生计生委、市统计局、市总工会、团市委、市妇联等单位配合。', '（二）政策依据。认真执行《中华人民共和国科学技术普及法》《辽宁省科学技术普及办法》，在市科技计划项目中相应增加科普任务的措施与办法，将科普工作作为科技工作的有机组成部分。落实有关鼓励科普事业发展的税收优惠等相关政策，积极探索将科技成果转化为科普资源的新途径。完善有利于科普产业发展的财政、税收、金融等政策措施，研究制定科普产业相关技术标准、规范，逐步建立公益性科普事业与经营性科普产业并举的体制。', '（三）监测评估。“十三五”末期，组织开展公民科学素质调查和科普统计工作，为《细则》实施提供科学依据。加强对社会转型、体制转轨带来的新情况、新问题的研究，坚持分类指导。积极探索城乡一体化的科普工作机制，全面提升城乡居民科学素质和创新创造能力。', '（四）经费投入。根据市财政状况，逐步加大对地方公民科学素质建设政策支持。各级政府要将科学素质纲要工作经费列入同级财政预算。市全民科学素质领导小组成员单位要根据所承担的《细则》实施任务，按照市（省）预算管理的规定和现行资金渠道，统筹考虑和落实公民科学素质建设所需经费。加强对科普经费、公民科学素质建设经费等专项经费使用情况的绩效考评，确保专款专用和使用效果。通过众筹众创、项目共建、捐款捐赠、政府购买服务等方式，鼓励和吸引社会资本投入公民科学素质建设，广泛吸纳境内外机构和个人的资金支持公民科学素质建设。', '（五）考核机制。2017—2020年为扎实推进期，要完善工作机制，查找薄弱环节，解决突出问题，全面推进各项重点任务的实施。2020年为总结评估期，对《细则》实施工作进行总结和全面评估。市全民科学素质工作领导小组将组织有关部门对各县区、各部门落实《细则》情况定期进行督查，大力宣传科学素质建设工作先进人物和典型经验，并根据有关规定，对在公民科学素质建设中作出突出贡献的集体和个人给予表彰奖励。', '领导小组下设办公室，办公室设在市科协，负责领导小组日常工作。办公室主任由张敬伟同志兼任。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>阜新市人民政府关于印发阜新市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2010-03-22</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.fuxin.gov.cn/content/2013/111397.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['阜新，寓意“物阜民丰，焕然一新”，1940年置市。位于辽宁省西北部，东接沈阳市，南邻锦州市，西连朝阳市，北靠内蒙古自治区。全市总面积10326平方千米，其中城市建成区76.5平方千米。下辖2县5区及1个国家级高新技术产业开发区。全市常住人口173.9万人，其中城镇人口102.9万人。阜新是全国第一个资源型城市经济转型试点市、国家扶贫改革试验区，也是国家首批循环经济试点市之一、“中国优秀旅游城市”、首批全国篮球城和省级园林城市。', '《阜新市人民政府工作规则》已经第十五届阜新市人民政府第1次常务会议讨论通过，现印发给你们，请认真遵照执行。', '一、根据《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》、《辽宁省人民政府工作规则》，制定本规则。', '二、市政府工作以邓小平理论、“三个代表”重要思想、科学发展观为指导，贯彻执行党的路线、方针、政策，落实党中央、国务院和省委、省政府以及市委的决策部署，全面履行政府职能，实行科学民主决策，坚持依法行政、廉洁从政，建设人民满意的政府。', '三、市政府组成人员要履行宪法和法律赋予的职责，坚持解放思想，改革创新，忠于职守，勤勉廉洁，全心全意为人民服务。', '五、市政府实行市长负责制，市长主持市政府全面工作。市长出国访问和外出学习考察期间，由负责常务工作的副市长（以下简称常务副市长）主持市政府工作。', '六、副市长协助市长工作，按照分工负责处理分管工作。受市长委托，负责其他方面的工作，并经授权可代表市政府进行外事活动。', '十、全市国民经济和社会发展规划、财政收支安排、城市发展规划、改革开放的重要政策措施、事关群众切身利益的重要政策、有关政府投资建设项目、土地收益使用及其他需要由市政府决策的重大重要事项，需经由市政府全体会议、常务会议、市长办公会议集体研究。', '十一、市政府在作出重大决策前，一般应通过召开座谈会、听证会、论证会等形式，听取民主党派、社会团体、人大代表、政协委员、专家学者和人民群众的意见和建议。', '十二、市政府定期对重大决策的执行情况进行跟踪与反馈，并适时调整和完善有关决策，加强对决策活动的监督，建立健全决策责任追究制度。', '十四、凡以市政府名义签订合同等涉及法律方面的事务，涉及政府资产审批、出让及经营权处置问题，市政府法制部门应当审核把关，并出具审核意见。', '十五、市政府及各部门要按照依法行政、程序正当、高效便民、权责一致的要求行使行政权力，不断提高依法行政的能力和水平。', '十七、市政府及各部门制定规范性文件，必须符合法律和国家、省、市相关政策，并征求相关部门的意见。提请市政府讨论的规范性文件，由市政府法制部门审查或组织起草。市政府法制部门负责规范性文件的解释工作。', '十八、严格实行行政执法责任制和执法过错追究制，切实做到有法必依、公正执法、文明执法、违法必究。', '二十、市政府全体会议由市政府组成人员组成。市政府全体会议由市长召集和主持。会议的主要任务是：传达贯彻党中央、国务院和省委、省政府以及市委的指示、决定；讨论决定市政府工作中的重大事项；部署市政府的重要工作。', '二十一、市政府常务会议由市长、副市长、秘书长组成，由市长或市长委托常务副市长召集和主持。市政府常务会议的主要任务是：传达党中央、国务院，省委、省政府和市委重要会议、文件精神，研究部署贯彻落实意见；讨论通过提请市人民代表大会及其常务委员会审议的工作报告和重要事项；讨论决定市政府工作中的重大事项；讨论通过市政府制定的规范性文件、重要政策措施；通报和讨论市政府其他重要事项。', '市政府常务会议原则上每月召开一次，如有需要可择时召开。根据讨论事项安排有关部门单位主要负责人列席会议。', '二十二、市长办公会议由市长召集和主持，研究、推进市政府近期重要工作。市长办公会议原则上不定期召开。', '二十三、市政府专题会议由市长、副市长、秘书长主持召开，也可委托副秘书长召开，研究、协调市政府工作中的专门问题。市政府专题会议根据需要不定期召开。', '二十四、市政府全体会议、市长办公会议讨论的议题，由市长确定。提交市政府常务会议的议题由副市长提出，常务副市长审核，报市长批准后上会。市政府全体会议、常务会议、市长办公会议纪要，由秘书长审核后报市长签发。市政府专题会议讨论的议题，由副市长确定或由协助其工作的副秘书长把关提出，报副市长批准后上会。市政府专题会议纪要，由参加会议的副秘书长审核，报主持会议的副市长签发。涉及重大资金安排、政策调整、重大项目等事项的专题会议纪要，报市长审定。', '会议讨论决定的事项，宜于公开的应及时报道。新闻稿须经秘书长或有关副秘书长审定；如有需要，报市长、副市长审定。', '二十五、市政府班子成员因故不能出席市政府全体会议、常务会议、市长办公会议，须向市长请假。各单位主要负责人因故不能出席或列席上述会议的，须向市政府办公室报告，由办公室报经市长同意后，可以安排其他负责人参加会议。参加市政府全体会议、市政府常务会议、市长办公会议、市政府专题会议的各单位人员在会上发表的意见代表本单位意见。', '二十六、以市政府名义召开的全市工作会议，经分管副市长审核同意，报市长批准。各部门召开的全市性会议，应提前报市政府批准，确需各县、区政府主要负责人出席会议，须经市长同意。由各部门召开的全市系统工作会议，不以市政府名义召开，不以市政府办公室名义通知，不通知各县、区政府的负责人出席，确需各县、区政府负责人参加的须报市政府批准。市政府已经发文部署的工作，原则上不再召开会议进行部署。', '二十七、各县、区政府，各部门和单位报送市政府的公文，应当符合《党政机关公文处理工作条例》的规定。除特殊紧急事项外，市政府领导同志不直接受理向其个人报送的公文。', '二十八、各县、区政府，各部门和单位报送市政府审批的公文，由市政府办公室按照市政府领导同志分工呈批，重大事项报市长审批。', '二十九、市政府发布的规范性文件、决定、命令，向市人民代表大会及其常务委员会提出的议案，经秘书长审核，由市长签署。市政府向省政府的请示、报告，经相关副秘书长、秘书长、分管副市长审核，由市长签发。', '三十、以市政府名义发文，经分管副市长审核后，由市长签发。以市政府办公室名义发文，根据不同情况，可由分管副市长签发或秘书长签发。', '三十一、市政府及各部门要进一步精简公文。部门职权范围内的事务，由部门自行发文或联合发文，不得要求市政府批转或市政府办公室转发。各部门不得向县、区政府正式行文，也不得要求县、区政府报文。', '三十二、市政府及各部门要积极推进政务公开，深入实施政府信息公开条例，健全政府信息发布制度和政府信息公开的监督保障机制，完善各类公开办事制度，推广电子政务，提高政府工作透明度。', '三十三、市政府全体会议和常务会议讨论决定的事项、市政府及各部门制定的政策以及经济社会发展统计信息，除依法需要保密的外，应及时公布。市政府各部门发布涉及政府重要工作部署、经济社会发展重要事项，要经过严格审定，重大情况要及时向市政府报告。', '三十四、凡涉及群众切身利益、依法需要公开的事项，应当通过政府网站、政府公报、新闻发布会等方式以及新闻媒体，依法、及时、准确地向社会公开。', '三十五、市政府应当自觉接受市人民代表大会及其常务委员会的监督，向其报告工作；应当接受市政协的民主监督，认真听取意见和建议。', '三十六、各部门和单位要按照有关法律规定，接受司法监督，接受监察、审计等部门的监督。对监督中发现的问题，要认真查处和整改，并向市政府报告。', '三十七、加强行政机关内部监督，严格执行规范性文件备案制度。认真贯彻执行行政复议法，及时纠正违法或不当的具体行政行为。', '三十八、加强政府督查工作，由秘书长、副秘书长按照分工分头负责，市政府办公室协助，加强对各项重大决策和重要工作部署落实情况的督促检查，并适时作出通报，保持政令畅通。', '三十九、市政府及各部门要从严治政，做到政治清明。对职权范围内的事项按照程序和时限积极负责办理。推行行政问责制度，明确问责范围，规范问责程序，严格责任追究，提高政府执行力和公信力。', '四十、市政府组成人员要严格执行党员领导干部廉洁从政若干准则，做到干部清正。认真落实党风廉政建设责任制，切实抓好职责范围内党风廉政建设和反腐败工作。', '四十一、市政府及各部门要加强管理，做到政府清廉。严禁公费出国（境）旅游，严格公务用车配备和使用管理，严格控制楼堂馆所建设，严格控制各种庆典、研讨会、论坛活动。严格执行财经纪律，加强行政经费预算管理。', '四十二、要坚决贯彻执行中央、省委和市委的决策部署，严格遵守工作纪律，切实做到令行禁止。坚决执行市政府的决定，如有不同意见可在市政府内部提出，在重新作出决定前，不得有任何与市政府决定相违背的言论和行为。', '四十三、市政府领导同志要经常深入基层和群众调查研究，了解实情，指导工作，多同群众座谈、多同干部谈心，多商量讨论，多解剖典型，多到困难和矛盾集中、群众意见多的地方去，解决实际问题，切忌走过场、搞形式主义。下基层要轻车简从，减少陪同和随行人员，简化接待，不张贴悬挂标语横幅，不安排群众迎送，不铺设迎宾地毯，不摆放花草，不安排宴请。', '四十四、要重视人民群众来信来访工作，进一步完善工作机制，落实领导干部接访和联系群众制度，确保信访渠道畅通。市政府领导同志及各部门负责人要亲自阅批重要的群众来信，接待群众来访，深入基层下访回访，努力为群众解决实际问题。', '四十五、精简会议活动，切实改进会风。严格控制以市政府名义召开的全市性会议和举行的重大活动，不开泛泛部署工作和提要求的会议。未经市长批准，市政府领导同志一律不出席各类剪彩、奠基活动和庆祝会、纪念会、表彰会、博览会、研讨会及各类论坛；提高会议实效，开短会、讲短话，力戒空话、套话。', '四十六、精简文件简报，切实改进文风。未经批准，市政府各部门和单位不得擅自编发各类简报，未经批准的简报市政府办公室不予转呈。没有实质内容、可发可不发的文件、简报一律不发。', '四十七、要增强效率意识，树立从我开始、马上就办的工作理念，不搞层层批转；树立雷厉风行、真抓实干的工作作风，自觉抵制空谈、浮夸恶习，始终保持工作的快节奏、高效率。', '四十八、要大力倡导开拓创新的工作作风，紧密围绕经济建设、社会发展和服务民生，以创新观念为先导，推动制度创新、机制创新和举措创新，坚决克服不思进取，墨守成规的观念和行为。', '四十九、市政府组成人员及市政府所属各单位主要负责人出访、出差和休假，要严格履行请销假制度。', '五十、本规则自下发之日起施行，原《阜新市人民政府关于印发阜新市人民政府工作规则的通知》（阜政发〔2008〕42号）同时废止。', '五十、本规则自下发之日起施行，原《阜新市人民政府关于印发阜新市人民政府工作规则的通知》（阜政发〔']</t>
         </is>
